--- a/word_features/季/ENG,2020-10~2021-1,主题_词矩阵.xlsx
+++ b/word_features/季/ENG,2020-10~2021-1,主题_词矩阵.xlsx
@@ -16,130 +16,187 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
   <si>
-    <t>addressing</t>
-  </si>
-  <si>
-    <t>administration</t>
+    <t>access</t>
+  </si>
+  <si>
+    <t>achieve</t>
+  </si>
+  <si>
+    <t>actively</t>
+  </si>
+  <si>
+    <t>advanced</t>
+  </si>
+  <si>
+    <t>africa</t>
+  </si>
+  <si>
+    <t>african</t>
+  </si>
+  <si>
+    <t>africas</t>
   </si>
   <si>
     <t>agenda</t>
   </si>
   <si>
-    <t>americans</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>april</t>
-  </si>
-  <si>
-    <t>arizona</t>
-  </si>
-  <si>
-    <t>assault</t>
-  </si>
-  <si>
-    <t>association</t>
-  </si>
-  <si>
-    <t>authority</t>
-  </si>
-  <si>
-    <t>banks</t>
-  </si>
-  <si>
-    <t>bay</t>
-  </si>
-  <si>
-    <t>beds</t>
-  </si>
-  <si>
-    <t>biden</t>
-  </si>
-  <si>
-    <t>bidens</t>
-  </si>
-  <si>
-    <t>biggest</t>
+    <t>agreement</t>
+  </si>
+  <si>
+    <t>ai</t>
+  </si>
+  <si>
+    <t>apec</t>
+  </si>
+  <si>
+    <t>approval</t>
+  </si>
+  <si>
+    <t>approved</t>
+  </si>
+  <si>
+    <t>asean</t>
+  </si>
+  <si>
+    <t>asia</t>
+  </si>
+  <si>
+    <t>asian</t>
+  </si>
+  <si>
+    <t>asiapacific</t>
+  </si>
+  <si>
+    <t>bangladesh</t>
+  </si>
+  <si>
+    <t>belt</t>
+  </si>
+  <si>
+    <t>beneficial</t>
+  </si>
+  <si>
+    <t>benefit</t>
+  </si>
+  <si>
+    <t>bilateral</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>brics</t>
+  </si>
+  <si>
+    <t>build</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>business</t>
   </si>
   <si>
-    <t>candidate</t>
-  </si>
-  <si>
-    <t>capitol</t>
+    <t>candidates</t>
+  </si>
+  <si>
+    <t>carbon</t>
   </si>
   <si>
     <t>cdc</t>
   </si>
   <si>
-    <t>center</t>
-  </si>
-  <si>
-    <t>central</t>
+    <t>chains</t>
   </si>
   <si>
     <t>challenges</t>
   </si>
   <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>china</t>
+  </si>
+  <si>
+    <t>chinaafrica</t>
+  </si>
+  <si>
     <t>chinas</t>
   </si>
   <si>
+    <t>chinaus</t>
+  </si>
+  <si>
     <t>chinese</t>
   </si>
   <si>
-    <t>city</t>
+    <t>circulation</t>
+  </si>
+  <si>
+    <t>climate</t>
   </si>
   <si>
     <t>clinical</t>
   </si>
   <si>
-    <t>commission</t>
-  </si>
-  <si>
-    <t>comosimple</t>
-  </si>
-  <si>
-    <t>complete</t>
-  </si>
-  <si>
-    <t>confirmed</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>control</t>
-  </si>
-  <si>
-    <t>coronavirus</t>
+    <t>committed</t>
+  </si>
+  <si>
+    <t>common</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>connectivity</t>
+  </si>
+  <si>
+    <t>consensus</t>
+  </si>
+  <si>
+    <t>consultation</t>
+  </si>
+  <si>
+    <t>consumption</t>
+  </si>
+  <si>
+    <t>contribute</t>
+  </si>
+  <si>
+    <t>cooperation</t>
+  </si>
+  <si>
+    <t>coordination</t>
+  </si>
+  <si>
+    <t>core</t>
+  </si>
+  <si>
+    <t>councilor</t>
   </si>
   <si>
     <t>countries</t>
   </si>
   <si>
-    <t>deaths</t>
-  </si>
-  <si>
-    <t>dec</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>democratic</t>
-  </si>
-  <si>
-    <t>department</t>
-  </si>
-  <si>
-    <t>departments</t>
-  </si>
-  <si>
-    <t>deputy</t>
+    <t>covax</t>
+  </si>
+  <si>
+    <t>covid</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>decoupling</t>
+  </si>
+  <si>
+    <t>deepen</t>
+  </si>
+  <si>
+    <t>demand</t>
   </si>
   <si>
     <t>developing</t>
@@ -148,235 +205,316 @@
     <t>development</t>
   </si>
   <si>
-    <t>district</t>
-  </si>
-  <si>
-    <t>divided</t>
+    <t>differences</t>
+  </si>
+  <si>
+    <t>digital</t>
+  </si>
+  <si>
+    <t>diplomacy</t>
+  </si>
+  <si>
+    <t>diplomatic</t>
+  </si>
+  <si>
+    <t>distribution</t>
+  </si>
+  <si>
+    <t>domestic</t>
+  </si>
+  <si>
+    <t>dose</t>
   </si>
   <si>
     <t>doses</t>
   </si>
   <si>
-    <t>ducey</t>
-  </si>
-  <si>
-    <t>effects</t>
-  </si>
-  <si>
-    <t>election</t>
-  </si>
-  <si>
-    <t>enterprises</t>
-  </si>
-  <si>
-    <t>epidemic</t>
-  </si>
-  <si>
-    <t>festival</t>
-  </si>
-  <si>
-    <t>financial</t>
+    <t>drug</t>
+  </si>
+  <si>
+    <t>economic</t>
+  </si>
+  <si>
+    <t>economies</t>
+  </si>
+  <si>
+    <t>economy</t>
+  </si>
+  <si>
+    <t>efficacy</t>
+  </si>
+  <si>
+    <t>efforts</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>enhance</t>
+  </si>
+  <si>
+    <t>environment</t>
+  </si>
+  <si>
+    <t>equitable</t>
+  </si>
+  <si>
+    <t>era</t>
+  </si>
+  <si>
+    <t>exchanges</t>
+  </si>
+  <si>
+    <t>exports</t>
+  </si>
+  <si>
+    <t>extraordinary</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>fiscal</t>
+  </si>
+  <si>
+    <t>flu</t>
+  </si>
+  <si>
+    <t>focac</t>
   </si>
   <si>
     <t>foreign</t>
   </si>
   <si>
-    <t>frantz</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>front</t>
-  </si>
-  <si>
-    <t>fukuyama</t>
+    <t>forum</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>foster</t>
+  </si>
+  <si>
+    <t>friendship</t>
+  </si>
+  <si>
+    <t>future</t>
+  </si>
+  <si>
+    <t>gdp</t>
   </si>
   <si>
     <t>global</t>
   </si>
   <si>
-    <t>government</t>
-  </si>
-  <si>
-    <t>guard</t>
-  </si>
-  <si>
-    <t>historian</t>
-  </si>
-  <si>
-    <t>hong</t>
-  </si>
-  <si>
-    <t>icu</t>
-  </si>
-  <si>
-    <t>iii</t>
-  </si>
-  <si>
-    <t>inauguration</t>
-  </si>
-  <si>
-    <t>included</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>indonesian</t>
+    <t>globalization</t>
+  </si>
+  <si>
+    <t>governance</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>humanity</t>
+  </si>
+  <si>
+    <t>impact</t>
+  </si>
+  <si>
+    <t>improve</t>
+  </si>
+  <si>
+    <t>inactivated</t>
+  </si>
+  <si>
+    <t>inclusive</t>
+  </si>
+  <si>
+    <t>industrial</t>
+  </si>
+  <si>
+    <t>infrastructure</t>
   </si>
   <si>
     <t>initiative</t>
   </si>
   <si>
+    <t>innovation</t>
+  </si>
+  <si>
     <t>international</t>
   </si>
   <si>
-    <t>jan</t>
-  </si>
-  <si>
-    <t>jillson</t>
-  </si>
-  <si>
-    <t>joe</t>
-  </si>
-  <si>
-    <t>jsp</t>
-  </si>
-  <si>
-    <t>kong</t>
-  </si>
-  <si>
-    <t>law</t>
-  </si>
-  <si>
-    <t>lives</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>majority</t>
-  </si>
-  <si>
-    <t>manner</t>
-  </si>
-  <si>
-    <t>matchmicromessengeri</t>
-  </si>
-  <si>
-    <t>meadows</t>
-  </si>
-  <si>
-    <t>measures</t>
-  </si>
-  <si>
-    <t>medical</t>
-  </si>
-  <si>
-    <t>mediumrisk</t>
-  </si>
-  <si>
-    <t>micromessenger</t>
-  </si>
-  <si>
-    <t>ministry</t>
-  </si>
-  <si>
-    <t>mitigation</t>
-  </si>
-  <si>
-    <t>monday</t>
-  </si>
-  <si>
-    <t>nation</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>officers</t>
-  </si>
-  <si>
-    <t>opena</t>
-  </si>
-  <si>
-    <t>palestinian</t>
-  </si>
-  <si>
-    <t>party</t>
-  </si>
-  <si>
-    <t>peak</t>
-  </si>
-  <si>
-    <t>pessimistic</t>
+    <t>investment</t>
+  </si>
+  <si>
+    <t>israel</t>
+  </si>
+  <si>
+    <t>jinping</t>
+  </si>
+  <si>
+    <t>joined</t>
+  </si>
+  <si>
+    <t>joint</t>
+  </si>
+  <si>
+    <t>jointly</t>
+  </si>
+  <si>
+    <t>macroeconomic</t>
+  </si>
+  <si>
+    <t>major</t>
+  </si>
+  <si>
+    <t>mankind</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>meetings</t>
+  </si>
+  <si>
+    <t>moderna</t>
+  </si>
+  <si>
+    <t>momentum</t>
+  </si>
+  <si>
+    <t>monetary</t>
+  </si>
+  <si>
+    <t>multilateral</t>
+  </si>
+  <si>
+    <t>multilateralism</t>
+  </si>
+  <si>
+    <t>mutual</t>
+  </si>
+  <si>
+    <t>mutually</t>
+  </si>
+  <si>
+    <t>opportunities</t>
+  </si>
+  <si>
+    <t>oxford</t>
+  </si>
+  <si>
+    <t>pandemic</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>partners</t>
+  </si>
+  <si>
+    <t>partnership</t>
+  </si>
+  <si>
+    <t>peace</t>
+  </si>
+  <si>
+    <t>peoples</t>
+  </si>
+  <si>
+    <t>pfizer</t>
+  </si>
+  <si>
+    <t>pfizerbiontech</t>
   </si>
   <si>
     <t>phase</t>
   </si>
   <si>
-    <t>pkgnamecom</t>
-  </si>
-  <si>
-    <t>police</t>
-  </si>
-  <si>
-    <t>political</t>
-  </si>
-  <si>
-    <t>poll</t>
-  </si>
-  <si>
-    <t>ports</t>
+    <t>policies</t>
+  </si>
+  <si>
+    <t>policy</t>
+  </si>
+  <si>
+    <t>postpandemic</t>
+  </si>
+  <si>
+    <t>poverty</t>
   </si>
   <si>
     <t>president</t>
   </si>
   <si>
-    <t>presidential</t>
-  </si>
-  <si>
-    <t>prevention</t>
+    <t>produced</t>
   </si>
   <si>
     <t>production</t>
   </si>
   <si>
-    <t>qq</t>
-  </si>
-  <si>
-    <t>quarter</t>
-  </si>
-  <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>renshon</t>
-  </si>
-  <si>
-    <t>report</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>risks</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>scientist</t>
+    <t>projects</t>
+  </si>
+  <si>
+    <t>promote</t>
+  </si>
+  <si>
+    <t>promoting</t>
+  </si>
+  <si>
+    <t>prosperity</t>
+  </si>
+  <si>
+    <t>pursue</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>recovery</t>
+  </si>
+  <si>
+    <t>reform</t>
+  </si>
+  <si>
+    <t>regional</t>
+  </si>
+  <si>
+    <t>relations</t>
+  </si>
+  <si>
+    <t>relationship</t>
+  </si>
+  <si>
+    <t>respect</t>
+  </si>
+  <si>
+    <t>road</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>safeguard</t>
   </si>
   <si>
     <t>security</t>
   </si>
   <si>
-    <t>sept</t>
-  </si>
-  <si>
-    <t>shunyi</t>
+    <t>shared</t>
+  </si>
+  <si>
+    <t>shot</t>
+  </si>
+  <si>
+    <t>shots</t>
   </si>
   <si>
     <t>sinopharm</t>
@@ -385,136 +523,70 @@
     <t>sinovac</t>
   </si>
   <si>
-    <t>smes</t>
-  </si>
-  <si>
-    <t>spread</t>
-  </si>
-  <si>
-    <t>spring</t>
-  </si>
-  <si>
-    <t>stage</t>
-  </si>
-  <si>
-    <t>steps</t>
-  </si>
-  <si>
-    <t>sun</t>
+    <t>solid</t>
+  </si>
+  <si>
+    <t>solidarity</t>
+  </si>
+  <si>
+    <t>south</t>
+  </si>
+  <si>
+    <t>stability</t>
+  </si>
+  <si>
+    <t>strategic</t>
+  </si>
+  <si>
+    <t>strengthen</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>stronger</t>
+  </si>
+  <si>
+    <t>summit</t>
   </si>
   <si>
     <t>supply</t>
   </si>
   <si>
-    <t>sworn</t>
-  </si>
-  <si>
-    <t>takes</t>
-  </si>
-  <si>
-    <t>tall</t>
-  </si>
-  <si>
-    <t>team</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>sustainable</t>
   </si>
   <si>
     <t>technological</t>
   </si>
   <si>
-    <t>temporary</t>
-  </si>
-  <si>
-    <t>tens</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>tested</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>testua</t>
-  </si>
-  <si>
-    <t>theotino</t>
-  </si>
-  <si>
-    <t>thousands</t>
-  </si>
-  <si>
-    <t>times</t>
-  </si>
-  <si>
-    <t>tips</t>
-  </si>
-  <si>
-    <t>tools</t>
-  </si>
-  <si>
-    <t>touted</t>
-  </si>
-  <si>
-    <t>track</t>
-  </si>
-  <si>
-    <t>tracking</t>
-  </si>
-  <si>
-    <t>traditionally</t>
-  </si>
-  <si>
-    <t>transmitted</t>
-  </si>
-  <si>
-    <t>transpired</t>
-  </si>
-  <si>
-    <t>transportation</t>
+    <t>technologies</t>
+  </si>
+  <si>
+    <t>technology</t>
+  </si>
+  <si>
+    <t>ties</t>
+  </si>
+  <si>
+    <t>trade</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>trial</t>
   </si>
   <si>
     <t>trials</t>
   </si>
   <si>
-    <t>troops</t>
-  </si>
-  <si>
-    <t>trump</t>
-  </si>
-  <si>
-    <t>trumpism</t>
-  </si>
-  <si>
-    <t>tuesday</t>
-  </si>
-  <si>
-    <t>ua</t>
-  </si>
-  <si>
-    <t>ultimately</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>undergoing</t>
-  </si>
-  <si>
-    <t>underscored</t>
-  </si>
-  <si>
-    <t>unity</t>
-  </si>
-  <si>
-    <t>university</t>
-  </si>
-  <si>
-    <t>unprecedented</t>
-  </si>
-  <si>
-    <t>unseen</t>
+    <t>unilateralism</t>
+  </si>
+  <si>
+    <t>uphold</t>
   </si>
   <si>
     <t>vaccination</t>
@@ -526,94 +598,22 @@
     <t>vaccines</t>
   </si>
   <si>
-    <t>vaccinesinactivated</t>
-  </si>
-  <si>
-    <t>vector</t>
-  </si>
-  <si>
-    <t>vectors</t>
-  </si>
-  <si>
-    <t>veneer</t>
-  </si>
-  <si>
-    <t>vicepremier</t>
-  </si>
-  <si>
-    <t>vicepresidentelect</t>
-  </si>
-  <si>
-    <t>victims</t>
-  </si>
-  <si>
-    <t>violence</t>
-  </si>
-  <si>
-    <t>viruses</t>
-  </si>
-  <si>
-    <t>voter</t>
-  </si>
-  <si>
-    <t>voters</t>
-  </si>
-  <si>
-    <t>vowing</t>
-  </si>
-  <si>
-    <t>washington</t>
-  </si>
-  <si>
-    <t>watched</t>
-  </si>
-  <si>
-    <t>widespread</t>
-  </si>
-  <si>
-    <t>william</t>
-  </si>
-  <si>
-    <t>win</t>
-  </si>
-  <si>
-    <t>window</t>
-  </si>
-  <si>
-    <t>winning</t>
-  </si>
-  <si>
-    <t>winter</t>
-  </si>
-  <si>
-    <t>wished</t>
-  </si>
-  <si>
-    <t>witnessed</t>
-  </si>
-  <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>wont</t>
-  </si>
-  <si>
-    <t>worker</t>
+    <t>vision</t>
+  </si>
+  <si>
+    <t>wang</t>
+  </si>
+  <si>
+    <t>war</t>
   </si>
   <si>
     <t>workers</t>
   </si>
   <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>wrote</t>
-  </si>
-  <si>
-    <t>york</t>
-  </si>
-  <si>
-    <t>zhao</t>
+    <t>xi</t>
+  </si>
+  <si>
+    <t>yi</t>
   </si>
   <si>
     <t>主题1</t>
@@ -1593,604 +1593,604 @@
         <v>200</v>
       </c>
       <c r="B2">
-        <v>0.3333402883692045</v>
+        <v>29.40544779893082</v>
       </c>
       <c r="C2">
-        <v>0.3333402883692045</v>
+        <v>26.09627747770528</v>
       </c>
       <c r="D2">
-        <v>0.3333402883692045</v>
+        <v>35.07374464046651</v>
       </c>
       <c r="E2">
-        <v>0.3333402883692045</v>
+        <v>13.31388605342087</v>
       </c>
       <c r="F2">
-        <v>8.315362633600836</v>
+        <v>0.3780927341806673</v>
       </c>
       <c r="G2">
-        <v>0.3336192102088289</v>
+        <v>0.3935163410052511</v>
       </c>
       <c r="H2">
-        <v>0.3334158524828069</v>
+        <v>0.4046466869300358</v>
       </c>
       <c r="I2">
-        <v>0.3333402883692045</v>
+        <v>37.2734112421325</v>
       </c>
       <c r="J2">
-        <v>6.323442055809535</v>
+        <v>66.89684346435621</v>
       </c>
       <c r="K2">
-        <v>0.3334432357148442</v>
+        <v>42.3100152963581</v>
       </c>
       <c r="L2">
-        <v>0.3333402883692045</v>
+        <v>20.30628141296816</v>
       </c>
       <c r="M2">
-        <v>6.333263714462176</v>
+        <v>0.3465351968316808</v>
       </c>
       <c r="N2">
-        <v>0.3334170145612666</v>
+        <v>1.502837013967507</v>
       </c>
       <c r="O2">
-        <v>0.3333398815548141</v>
+        <v>0.398759532661792</v>
       </c>
       <c r="P2">
-        <v>0.3333399608749732</v>
+        <v>4.113120447063534</v>
       </c>
       <c r="Q2">
-        <v>0.3903066681283959</v>
+        <v>0.3905132986249668</v>
       </c>
       <c r="R2">
-        <v>14.33327683818067</v>
+        <v>24.99781944048962</v>
       </c>
       <c r="S2">
-        <v>0.3334451516877627</v>
+        <v>25.30559772279112</v>
       </c>
       <c r="T2">
-        <v>0.3333402883692045</v>
+        <v>46.38897487039458</v>
       </c>
       <c r="U2">
-        <v>1.334191519649363</v>
+        <v>25.30048726157457</v>
       </c>
       <c r="V2">
-        <v>3.333284433933565</v>
+        <v>37.08641968180184</v>
       </c>
       <c r="W2">
-        <v>1.332527842291472</v>
+        <v>73.19976921300965</v>
       </c>
       <c r="X2">
-        <v>0.3725949302632069</v>
+        <v>10.99021760669432</v>
       </c>
       <c r="Y2">
-        <v>0.3336587793339887</v>
+        <v>53.31321382313017</v>
       </c>
       <c r="Z2">
-        <v>6.062918095865474</v>
+        <v>77.7157286776316</v>
       </c>
       <c r="AA2">
-        <v>5.350843854418946</v>
+        <v>96.39107706914824</v>
       </c>
       <c r="AB2">
-        <v>0.3333810559105679</v>
+        <v>8.305250447005156</v>
       </c>
       <c r="AC2">
-        <v>3.333284433933565</v>
+        <v>0.3407741945641214</v>
       </c>
       <c r="AD2">
-        <v>8.315362633600836</v>
+        <v>12.71450915566702</v>
       </c>
       <c r="AE2">
-        <v>0.3334031946018796</v>
+        <v>0.3572979119701374</v>
       </c>
       <c r="AF2">
-        <v>6.122348606503619</v>
+        <v>28.89869313205798</v>
       </c>
       <c r="AG2">
-        <v>0.3333400462866399</v>
+        <v>118.5784897977096</v>
       </c>
       <c r="AH2">
-        <v>16.91771267084592</v>
+        <v>101.7424695208952</v>
       </c>
       <c r="AI2">
-        <v>4.311877704350315</v>
+        <v>1081.195309479779</v>
       </c>
       <c r="AJ2">
-        <v>3.576793377842844</v>
+        <v>0.3870051195988632</v>
       </c>
       <c r="AK2">
-        <v>0.3705205806156202</v>
+        <v>209.0777628046397</v>
       </c>
       <c r="AL2">
-        <v>6.342383999522213</v>
+        <v>22.32936059240653</v>
       </c>
       <c r="AM2">
-        <v>0.3334357331160426</v>
+        <v>215.4421943739183</v>
       </c>
       <c r="AN2">
-        <v>0.3334328028167161</v>
+        <v>8.100632082340908</v>
       </c>
       <c r="AO2">
-        <v>0.3334335726472679</v>
+        <v>117.7598799707952</v>
       </c>
       <c r="AP2">
-        <v>0.3333606216564403</v>
+        <v>6.260078110312107</v>
       </c>
       <c r="AQ2">
-        <v>3.333284433933565</v>
+        <v>34.59314829296288</v>
       </c>
       <c r="AR2">
-        <v>1.326829606526728</v>
+        <v>83.27260685131334</v>
       </c>
       <c r="AS2">
-        <v>0.3646195857269333</v>
+        <v>141.462565360782</v>
       </c>
       <c r="AT2">
-        <v>4.343447830327963</v>
+        <v>23.20151302660934</v>
       </c>
       <c r="AU2">
-        <v>0.3333401294939678</v>
+        <v>31.48649998341561</v>
       </c>
       <c r="AV2">
-        <v>0.3333852885971498</v>
+        <v>20.29502876889613</v>
       </c>
       <c r="AW2">
-        <v>0.3334187018540519</v>
+        <v>0.3452501191317761</v>
       </c>
       <c r="AX2">
-        <v>0.3333606216564403</v>
+        <v>34.90047618820049</v>
       </c>
       <c r="AY2">
-        <v>0.3333402883692045</v>
+        <v>509.8309662922006</v>
       </c>
       <c r="AZ2">
-        <v>1.332672288295999</v>
+        <v>32.93298996319979</v>
       </c>
       <c r="BA2">
-        <v>4.338669250971247</v>
+        <v>25.80942663221025</v>
       </c>
       <c r="BB2">
-        <v>3.333284433933565</v>
+        <v>31.18095613233167</v>
       </c>
       <c r="BC2">
-        <v>5.202116634246264</v>
+        <v>574.9355257475172</v>
       </c>
       <c r="BD2">
-        <v>0.3424342031347627</v>
+        <v>38.60088556396284</v>
       </c>
       <c r="BE2">
-        <v>0.3333402883692045</v>
+        <v>319.9194947857145</v>
       </c>
       <c r="BF2">
-        <v>0.3333402883692045</v>
+        <v>46.80128537236178</v>
       </c>
       <c r="BG2">
-        <v>0.3333606216564403</v>
+        <v>0.3864035852175685</v>
       </c>
       <c r="BH2">
-        <v>0.3333402883692045</v>
+        <v>12.65478432372427</v>
       </c>
       <c r="BI2">
-        <v>8.028075674070585</v>
+        <v>31.29602177067663</v>
       </c>
       <c r="BJ2">
-        <v>17.95142095762533</v>
+        <v>4.840540293064026</v>
       </c>
       <c r="BK2">
-        <v>0.3333402883692045</v>
+        <v>138.1124255990983</v>
       </c>
       <c r="BL2">
-        <v>0.3333402883692045</v>
+        <v>497.462976721088</v>
       </c>
       <c r="BM2">
-        <v>23.33327513618708</v>
+        <v>28.26498818003162</v>
       </c>
       <c r="BN2">
-        <v>0.3334187018540519</v>
+        <v>91.68945890159114</v>
       </c>
       <c r="BO2">
-        <v>0.3333620838637166</v>
+        <v>28.29961794231426</v>
       </c>
       <c r="BP2">
-        <v>0.3333401294939678</v>
+        <v>27.3129995089086</v>
       </c>
       <c r="BQ2">
-        <v>0.3334031946018796</v>
+        <v>23.41873581170922</v>
       </c>
       <c r="BR2">
-        <v>2.334424812026753</v>
+        <v>17.61449379130356</v>
       </c>
       <c r="BS2">
-        <v>3.333284433933565</v>
+        <v>0.3477441554634568</v>
       </c>
       <c r="BT2">
-        <v>0.3333620838637166</v>
+        <v>0.3383132765209347</v>
       </c>
       <c r="BU2">
-        <v>0.3587454198054692</v>
+        <v>0.3745461005852787</v>
       </c>
       <c r="BV2">
-        <v>0.3437784470573777</v>
+        <v>175.4761680446868</v>
       </c>
       <c r="BW2">
-        <v>0.3333401294939678</v>
+        <v>21.42456425789839</v>
       </c>
       <c r="BX2">
-        <v>0.3334328028167161</v>
+        <v>99.00195374869334</v>
       </c>
       <c r="BY2">
-        <v>8.315362633600836</v>
+        <v>0.3441279662548459</v>
       </c>
       <c r="BZ2">
-        <v>18.33327337167821</v>
+        <v>146.9171421687607</v>
       </c>
       <c r="CA2">
-        <v>0.3333402883692045</v>
+        <v>7.922525554203935</v>
       </c>
       <c r="CB2">
-        <v>0.3335141239964619</v>
+        <v>32.99125864176786</v>
       </c>
       <c r="CC2">
-        <v>9.333285905848438</v>
+        <v>35.29374586981416</v>
       </c>
       <c r="CD2">
-        <v>0.3333980058086702</v>
+        <v>34.61107879277277</v>
       </c>
       <c r="CE2">
-        <v>0.3333606216564403</v>
+        <v>29.31411012502197</v>
       </c>
       <c r="CF2">
-        <v>8.315362633600836</v>
+        <v>47.27660855277528</v>
       </c>
       <c r="CG2">
-        <v>3.302465405549622</v>
+        <v>2.202796884649741</v>
       </c>
       <c r="CH2">
-        <v>12.9218383167613</v>
+        <v>18.22252005231642</v>
       </c>
       <c r="CI2">
-        <v>1.414243613666111</v>
+        <v>119.2513190860095</v>
       </c>
       <c r="CJ2">
-        <v>3.333284433933565</v>
+        <v>0.3351455182573292</v>
       </c>
       <c r="CK2">
-        <v>8.315362633600836</v>
+        <v>0.3391757079580525</v>
       </c>
       <c r="CL2">
-        <v>2.328827420050541</v>
+        <v>0.3739638949711828</v>
       </c>
       <c r="CM2">
-        <v>2.014412930085871</v>
+        <v>95.72440319193949</v>
       </c>
       <c r="CN2">
-        <v>0.3334041783718588</v>
+        <v>39.2200138226106</v>
       </c>
       <c r="CO2">
-        <v>0.3438192202706607</v>
+        <v>66.40031803748946</v>
       </c>
       <c r="CP2">
-        <v>3.370405648665449</v>
+        <v>21.15976476278772</v>
       </c>
       <c r="CQ2">
-        <v>0.3335582166868587</v>
+        <v>45.27417269149548</v>
       </c>
       <c r="CR2">
-        <v>8.315362633600836</v>
+        <v>156.8778671158232</v>
       </c>
       <c r="CS2">
-        <v>3.28911437947569</v>
+        <v>0.3402864978929309</v>
       </c>
       <c r="CT2">
-        <v>0.3333695763792908</v>
+        <v>519.9521194905968</v>
       </c>
       <c r="CU2">
-        <v>4.333285032748142</v>
+        <v>54.29061626478564</v>
       </c>
       <c r="CV2">
-        <v>1.33208387376683</v>
+        <v>77.2384218388087</v>
       </c>
       <c r="CW2">
-        <v>0.3333876789815124</v>
+        <v>12.87484917425908</v>
       </c>
       <c r="CX2">
-        <v>8.315362633600836</v>
+        <v>25.82185580776151</v>
       </c>
       <c r="CY2">
-        <v>0.3333402883692045</v>
+        <v>147.5284163416416</v>
       </c>
       <c r="CZ2">
-        <v>2.261601539198757</v>
+        <v>42.30653123914393</v>
       </c>
       <c r="DA2">
-        <v>0.3333402883692045</v>
+        <v>17.41078585490204</v>
       </c>
       <c r="DB2">
-        <v>0.3334031946018796</v>
+        <v>22.25836518831104</v>
       </c>
       <c r="DC2">
-        <v>6.212842967795281</v>
+        <v>0.3402479455570495</v>
       </c>
       <c r="DD2">
-        <v>0.3527213979232688</v>
+        <v>27.17736290940471</v>
       </c>
       <c r="DE2">
-        <v>10.34463390476252</v>
+        <v>36.68968919942612</v>
       </c>
       <c r="DF2">
-        <v>1.32732612311574</v>
+        <v>8.654345552546626</v>
       </c>
       <c r="DG2">
-        <v>8.315362633600836</v>
+        <v>72.72088089458821</v>
       </c>
       <c r="DH2">
-        <v>3.379962647664755</v>
+        <v>61.51510339718735</v>
       </c>
       <c r="DI2">
-        <v>3.425367799070917</v>
+        <v>384.6087227596821</v>
       </c>
       <c r="DJ2">
-        <v>0.3333402883692045</v>
+        <v>31.34833967625715</v>
       </c>
       <c r="DK2">
-        <v>0.3334072986900559</v>
+        <v>0.3591435949513286</v>
       </c>
       <c r="DL2">
-        <v>0.3542642071942728</v>
+        <v>71.30038161638045</v>
       </c>
       <c r="DM2">
-        <v>5.305998428408061</v>
+        <v>38.08965436883653</v>
       </c>
       <c r="DN2">
-        <v>0.3376201790176521</v>
+        <v>51.79198469343223</v>
       </c>
       <c r="DO2">
-        <v>0.3333401294939678</v>
+        <v>46.15774892235478</v>
       </c>
       <c r="DP2">
-        <v>0.5232111158025872</v>
+        <v>10.09297807232061</v>
       </c>
       <c r="DQ2">
-        <v>0.3333695763792908</v>
+        <v>95.31279760952611</v>
       </c>
       <c r="DR2">
-        <v>3.333284433933565</v>
+        <v>28.30993575403793</v>
       </c>
       <c r="DS2">
-        <v>0.3334009856789591</v>
+        <v>0.4335509445784578</v>
       </c>
       <c r="DT2">
-        <v>0.3333824168942693</v>
+        <v>10.0913335712123</v>
       </c>
       <c r="DU2">
-        <v>8.333285481528494</v>
+        <v>0.341067232196713</v>
       </c>
       <c r="DV2">
-        <v>4.115956571720915</v>
+        <v>6.793301760996949</v>
       </c>
       <c r="DW2">
-        <v>3.338972793413176</v>
+        <v>0.3488149888062649</v>
       </c>
       <c r="DX2">
-        <v>0.3333402883692045</v>
+        <v>58.69041350779556</v>
       </c>
       <c r="DY2">
-        <v>0.3333402883692045</v>
+        <v>95.30673399109797</v>
       </c>
       <c r="DZ2">
-        <v>0.3333593364285352</v>
+        <v>69.3012488300474</v>
       </c>
       <c r="EA2">
-        <v>1.468259626954729</v>
+        <v>20.23060362175811</v>
       </c>
       <c r="EB2">
-        <v>0.3333401294939678</v>
+        <v>31.87043913770206</v>
       </c>
       <c r="EC2">
-        <v>0.3333402883692045</v>
+        <v>0.3413879465570228</v>
       </c>
       <c r="ED2">
-        <v>0.3333406952754053</v>
+        <v>270.8355336850345</v>
       </c>
       <c r="EE2">
-        <v>0.3333622186231973</v>
+        <v>23.37095894882035</v>
       </c>
       <c r="EF2">
-        <v>0.3333622186231973</v>
+        <v>34.17092659799241</v>
       </c>
       <c r="EG2">
-        <v>0.3334523977651089</v>
+        <v>53.92051670298209</v>
       </c>
       <c r="EH2">
-        <v>0.3333406952754053</v>
+        <v>63.26969773181267</v>
       </c>
       <c r="EI2">
-        <v>0.3333401294939678</v>
+        <v>93.81105422619471</v>
       </c>
       <c r="EJ2">
-        <v>4.338021613496096</v>
+        <v>0.3383917303386463</v>
       </c>
       <c r="EK2">
-        <v>0.3333622186231973</v>
+        <v>0.3354375886809908</v>
       </c>
       <c r="EL2">
-        <v>8.315362633600836</v>
+        <v>9.567012580930674</v>
       </c>
       <c r="EM2">
-        <v>8.315362633600836</v>
+        <v>16.52921780921237</v>
       </c>
       <c r="EN2">
-        <v>0.3333402883692045</v>
+        <v>44.84803133154943</v>
       </c>
       <c r="EO2">
-        <v>0.3577772718199293</v>
+        <v>19.97017655417672</v>
       </c>
       <c r="EP2">
-        <v>0.3333406952754053</v>
+        <v>36.66900173983159</v>
       </c>
       <c r="EQ2">
-        <v>0.3333622186231973</v>
+        <v>196.9222652759646</v>
       </c>
       <c r="ER2">
-        <v>0.3333406952754053</v>
+        <v>0.3532776987539671</v>
       </c>
       <c r="ES2">
-        <v>0.3333406952754053</v>
+        <v>20.88222841445748</v>
       </c>
       <c r="ET2">
-        <v>0.3333622186231973</v>
+        <v>28.77443028820681</v>
       </c>
       <c r="EU2">
-        <v>0.3333406952754053</v>
+        <v>94.2291947265298</v>
       </c>
       <c r="EV2">
-        <v>3.333284433933565</v>
+        <v>43.37943543669177</v>
       </c>
       <c r="EW2">
-        <v>0.3333402883692045</v>
+        <v>36.7801259388018</v>
       </c>
       <c r="EX2">
-        <v>0.3334031946018796</v>
+        <v>19.41563898909999</v>
       </c>
       <c r="EY2">
-        <v>0.3333797171132993</v>
+        <v>9.499316695537923</v>
       </c>
       <c r="EZ2">
-        <v>0.3333402883692045</v>
+        <v>23.71407082044571</v>
       </c>
       <c r="FA2">
-        <v>0.3333401294939678</v>
+        <v>26.7457968710197</v>
       </c>
       <c r="FB2">
-        <v>0.3333406952754053</v>
+        <v>52.23781201810498</v>
       </c>
       <c r="FC2">
-        <v>5.131225092424915</v>
+        <v>127.2463377785479</v>
       </c>
       <c r="FD2">
-        <v>12.31545786247143</v>
+        <v>45.259150696626</v>
       </c>
       <c r="FE2">
-        <v>0.3333406952754053</v>
+        <v>49.96471617783241</v>
       </c>
       <c r="FF2">
-        <v>0.3333406952754053</v>
+        <v>50.16465012287059</v>
       </c>
       <c r="FG2">
-        <v>0.3333620838637166</v>
+        <v>83.27975309101967</v>
       </c>
       <c r="FH2">
-        <v>0.3333622186231973</v>
+        <v>28.27709005204333</v>
       </c>
       <c r="FI2">
-        <v>0.3333406952754053</v>
+        <v>80.70554438521711</v>
       </c>
       <c r="FJ2">
-        <v>0.3765783573117792</v>
+        <v>120.9371599680985</v>
       </c>
       <c r="FK2">
-        <v>0.3333406952754053</v>
+        <v>0.3386752875103573</v>
       </c>
       <c r="FL2">
-        <v>0.3333406952754053</v>
+        <v>0.339831417867219</v>
       </c>
       <c r="FM2">
-        <v>0.3364659972974587</v>
+        <v>0.3557972439560463</v>
       </c>
       <c r="FN2">
-        <v>3.305355078570103</v>
+        <v>0.3406205502468038</v>
       </c>
       <c r="FO2">
-        <v>1.703236414553167</v>
+        <v>4.202915695833734</v>
       </c>
       <c r="FP2">
-        <v>0.3333622186231973</v>
+        <v>59.92055250440019</v>
       </c>
       <c r="FQ2">
-        <v>0.3333622186231973</v>
+        <v>12.34780279142515</v>
       </c>
       <c r="FR2">
-        <v>0.3333622186231973</v>
+        <v>43.56769236591012</v>
       </c>
       <c r="FS2">
-        <v>0.3333406952754053</v>
+        <v>50.52764505087239</v>
       </c>
       <c r="FT2">
-        <v>0.3333622186231973</v>
+        <v>55.062249831567</v>
       </c>
       <c r="FU2">
-        <v>0.3333406952754053</v>
+        <v>34.42645609863499</v>
       </c>
       <c r="FV2">
-        <v>0.3333406952754053</v>
+        <v>26.98515478979733</v>
       </c>
       <c r="FW2">
-        <v>0.3333406952754053</v>
+        <v>105.6190743184649</v>
       </c>
       <c r="FX2">
-        <v>0.3333622186231973</v>
+        <v>30.10287463111235</v>
       </c>
       <c r="FY2">
-        <v>0.3333402883692045</v>
+        <v>121.2872398768655</v>
       </c>
       <c r="FZ2">
-        <v>0.3333402883692045</v>
+        <v>43.33769437293677</v>
       </c>
       <c r="GA2">
-        <v>0.3333406952754053</v>
+        <v>44.6290078162999</v>
       </c>
       <c r="GB2">
-        <v>0.3565790840547367</v>
+        <v>41.22297279470622</v>
       </c>
       <c r="GC2">
-        <v>0.3333406952754053</v>
+        <v>84.50094645025909</v>
       </c>
       <c r="GD2">
-        <v>0.3333402883692045</v>
+        <v>46.27098580491916</v>
       </c>
       <c r="GE2">
-        <v>0.3333406952754053</v>
+        <v>112.4355564519488</v>
       </c>
       <c r="GF2">
-        <v>0.3333406952754053</v>
+        <v>16.76980084039649</v>
       </c>
       <c r="GG2">
-        <v>12.31603071155164</v>
+        <v>0.3386056610718375</v>
       </c>
       <c r="GH2">
-        <v>0.3333406952754053</v>
+        <v>9.559915927605815</v>
       </c>
       <c r="GI2">
-        <v>0.3333622186231973</v>
+        <v>31.31196747468492</v>
       </c>
       <c r="GJ2">
-        <v>0.3333406952754053</v>
+        <v>38.26437451855328</v>
       </c>
       <c r="GK2">
-        <v>0.3333406952754053</v>
+        <v>0.3757021599078854</v>
       </c>
       <c r="GL2">
-        <v>0.3333622186231973</v>
+        <v>40.6498269936835</v>
       </c>
       <c r="GM2">
-        <v>0.3333406952754053</v>
+        <v>117.8160206920596</v>
       </c>
       <c r="GN2">
-        <v>0.3334523977651089</v>
+        <v>35.32118652020926</v>
       </c>
       <c r="GO2">
-        <v>5.100191363896763</v>
+        <v>141.1366632188677</v>
       </c>
       <c r="GP2">
-        <v>0.3333406952754053</v>
+        <v>43.18307364452338</v>
       </c>
       <c r="GQ2">
-        <v>0.3333406952754053</v>
+        <v>0.3566210208373485</v>
       </c>
       <c r="GR2">
-        <v>0.3335212076403745</v>
+        <v>212.310899757705</v>
       </c>
       <c r="GS2">
-        <v>0.3333701176399023</v>
+        <v>33.88015691304909</v>
       </c>
     </row>
     <row r="3" spans="1:201">
@@ -2198,604 +2198,604 @@
         <v>201</v>
       </c>
       <c r="B3">
-        <v>0.3333389492553377</v>
+        <v>28.71566059869366</v>
       </c>
       <c r="C3">
-        <v>0.3333389492553377</v>
+        <v>25.50456503668401</v>
       </c>
       <c r="D3">
-        <v>0.3333389492553377</v>
+        <v>0.3642192817545272</v>
       </c>
       <c r="E3">
-        <v>0.3333389492553377</v>
+        <v>22.68063629727865</v>
       </c>
       <c r="F3">
-        <v>0.351228932506056</v>
+        <v>220.1980747122803</v>
       </c>
       <c r="G3">
-        <v>3.275619810426519</v>
+        <v>144.2172789190228</v>
       </c>
       <c r="H3">
-        <v>9.33312398580102</v>
+        <v>20.25765933765998</v>
       </c>
       <c r="I3">
-        <v>0.3333389492553377</v>
+        <v>0.3795592882484152</v>
       </c>
       <c r="J3">
-        <v>0.3334174439779006</v>
+        <v>0.4933129906822618</v>
       </c>
       <c r="K3">
-        <v>3.33309733866655</v>
+        <v>0.3391322508326509</v>
       </c>
       <c r="L3">
-        <v>0.3333389492553377</v>
+        <v>0.3591927500023268</v>
       </c>
       <c r="M3">
-        <v>0.3333595014329364</v>
+        <v>0.3812094003279073</v>
       </c>
       <c r="N3">
-        <v>5.333121036847492</v>
+        <v>0.3813229560585981</v>
       </c>
       <c r="O3">
-        <v>0.3333386207726591</v>
+        <v>80.26727448824482</v>
       </c>
       <c r="P3">
-        <v>0.3333386848198401</v>
+        <v>73.9927008537061</v>
       </c>
       <c r="Q3">
-        <v>1.322865500972569</v>
+        <v>61.26563984769998</v>
       </c>
       <c r="R3">
-        <v>0.3333551989536982</v>
+        <v>6.645087762050362</v>
       </c>
       <c r="S3">
-        <v>2.330212079534135</v>
+        <v>0.3361410149331311</v>
       </c>
       <c r="T3">
-        <v>0.3333389492553377</v>
+        <v>6.276849150391639</v>
       </c>
       <c r="U3">
-        <v>2.332308278248666</v>
+        <v>0.3659832832662497</v>
       </c>
       <c r="V3">
-        <v>0.3333521262771557</v>
+        <v>11.08369513350637</v>
       </c>
       <c r="W3">
-        <v>2.334046028510156</v>
+        <v>0.3915472237103002</v>
       </c>
       <c r="X3">
-        <v>6.293991916584523</v>
+        <v>30.33803994037381</v>
       </c>
       <c r="Y3">
-        <v>6.311076863846063</v>
+        <v>0.3526311312519208</v>
       </c>
       <c r="Z3">
-        <v>13.59509142491811</v>
+        <v>10.88888578981466</v>
       </c>
       <c r="AA3">
-        <v>1.921849031332833</v>
+        <v>30.24811984375751</v>
       </c>
       <c r="AB3">
-        <v>7.33321239735592</v>
+        <v>118.3246999647816</v>
       </c>
       <c r="AC3">
-        <v>0.3333521262771557</v>
+        <v>0.3414080151719844</v>
       </c>
       <c r="AD3">
-        <v>0.351228932506056</v>
+        <v>33.94699378665013</v>
       </c>
       <c r="AE3">
-        <v>2.333178314649294</v>
+        <v>1.391063981224329</v>
       </c>
       <c r="AF3">
-        <v>7.508854058399017</v>
+        <v>20.29217276358141</v>
       </c>
       <c r="AG3">
-        <v>0.333338753785596</v>
+        <v>27.29941243302371</v>
       </c>
       <c r="AH3">
-        <v>4.746237594483849</v>
+        <v>18.38762972810981</v>
       </c>
       <c r="AI3">
-        <v>11.62516183777816</v>
+        <v>298.9428319555324</v>
       </c>
       <c r="AJ3">
-        <v>33.08707816285302</v>
+        <v>35.27667149682993</v>
       </c>
       <c r="AK3">
-        <v>11.6756831159688</v>
+        <v>146.7757701099011</v>
       </c>
       <c r="AL3">
-        <v>4.324139589231835</v>
+        <v>0.3357444227112014</v>
       </c>
       <c r="AM3">
-        <v>3.333107885418353</v>
+        <v>130.4593782901528</v>
       </c>
       <c r="AN3">
-        <v>1.327295008337474</v>
+        <v>28.52498657983702</v>
       </c>
       <c r="AO3">
-        <v>4.328297847164508</v>
+        <v>4.895681741703343</v>
       </c>
       <c r="AP3">
-        <v>2.333264731412453</v>
+        <v>0.3686532379272647</v>
       </c>
       <c r="AQ3">
-        <v>0.3333521262771557</v>
+        <v>5.028372066841803</v>
       </c>
       <c r="AR3">
-        <v>5.339665065024302</v>
+        <v>1.44140181823109</v>
       </c>
       <c r="AS3">
-        <v>18.30196483251093</v>
+        <v>14.06486785929211</v>
       </c>
       <c r="AT3">
-        <v>1.323052410079095</v>
+        <v>0.4648886048683147</v>
       </c>
       <c r="AU3">
-        <v>0.3333388209714337</v>
+        <v>6.210709497370344</v>
       </c>
       <c r="AV3">
-        <v>11.33320398700407</v>
+        <v>0.3575288712338989</v>
       </c>
       <c r="AW3">
-        <v>3.333116755041411</v>
+        <v>29.31881236413762</v>
       </c>
       <c r="AX3">
-        <v>2.333264731412453</v>
+        <v>12.83781236712915</v>
       </c>
       <c r="AY3">
-        <v>0.3333389492553377</v>
+        <v>11.81570491147033</v>
       </c>
       <c r="AZ3">
-        <v>5.333845061838607</v>
+        <v>1.844781596077048</v>
       </c>
       <c r="BA3">
-        <v>2.327882616631514</v>
+        <v>1.837593091543056</v>
       </c>
       <c r="BB3">
-        <v>0.3333521262771557</v>
+        <v>0.4340492287358119</v>
       </c>
       <c r="BC3">
-        <v>0.3537326492461008</v>
+        <v>237.8490234711849</v>
       </c>
       <c r="BD3">
-        <v>4.320508241803736</v>
+        <v>0.3811032061824611</v>
       </c>
       <c r="BE3">
-        <v>0.3333389492553377</v>
+        <v>164.7614924456677</v>
       </c>
       <c r="BF3">
-        <v>0.3333389492553377</v>
+        <v>93.2093544936189</v>
       </c>
       <c r="BG3">
-        <v>2.333264731412453</v>
+        <v>63.27464461492983</v>
       </c>
       <c r="BH3">
-        <v>0.3333389492553377</v>
+        <v>4.011249995936852</v>
       </c>
       <c r="BI3">
-        <v>17.62470924080564</v>
+        <v>0.3693106547612364</v>
       </c>
       <c r="BJ3">
-        <v>6.692278376738407</v>
+        <v>48.11279919880331</v>
       </c>
       <c r="BK3">
-        <v>0.3333389492553377</v>
+        <v>15.42788506391015</v>
       </c>
       <c r="BL3">
-        <v>0.3333389492553377</v>
+        <v>66.55387874359776</v>
       </c>
       <c r="BM3">
-        <v>0.3333557335396525</v>
+        <v>0.4131614719236362</v>
       </c>
       <c r="BN3">
-        <v>3.333116755041411</v>
+        <v>28.95930401628882</v>
       </c>
       <c r="BO3">
-        <v>3.333261510084671</v>
+        <v>0.3448254522283263</v>
       </c>
       <c r="BP3">
-        <v>0.3333388209714337</v>
+        <v>0.3461353449311916</v>
       </c>
       <c r="BQ3">
-        <v>2.333178314649294</v>
+        <v>0.3948267367621731</v>
       </c>
       <c r="BR3">
-        <v>5.332103323236183</v>
+        <v>91.28816917224172</v>
       </c>
       <c r="BS3">
-        <v>0.3333521262771557</v>
+        <v>0.3421246898806274</v>
       </c>
       <c r="BT3">
-        <v>3.333261510084671</v>
+        <v>0.3396136300624052</v>
       </c>
       <c r="BU3">
-        <v>13.30642004372889</v>
+        <v>0.3434799068690844</v>
       </c>
       <c r="BV3">
-        <v>5.329191738105525</v>
+        <v>397.1697898433785</v>
       </c>
       <c r="BW3">
-        <v>0.3333388209714337</v>
+        <v>116.1491474679035</v>
       </c>
       <c r="BX3">
-        <v>1.327295008337474</v>
+        <v>306.6461929568973</v>
       </c>
       <c r="BY3">
-        <v>0.351228932506056</v>
+        <v>0.3384704201450406</v>
       </c>
       <c r="BZ3">
-        <v>0.3333563117149816</v>
+        <v>13.28944215936365</v>
       </c>
       <c r="CA3">
-        <v>0.3333389492553377</v>
+        <v>2.800167279473906</v>
       </c>
       <c r="CB3">
-        <v>6.312520964490749</v>
+        <v>6.603828728225812</v>
       </c>
       <c r="CC3">
-        <v>0.3333517962882206</v>
+        <v>27.33244334289188</v>
       </c>
       <c r="CD3">
-        <v>1.329511159509187</v>
+        <v>4.051348676969125</v>
       </c>
       <c r="CE3">
-        <v>2.333264731412453</v>
+        <v>6.347698486367807</v>
       </c>
       <c r="CF3">
-        <v>0.351228932506056</v>
+        <v>0.3775094028145278</v>
       </c>
       <c r="CG3">
-        <v>0.3456592021970776</v>
+        <v>30.44697778615478</v>
       </c>
       <c r="CH3">
-        <v>2.742781676583349</v>
+        <v>7.297687361698966</v>
       </c>
       <c r="CI3">
-        <v>8.252297561765454</v>
+        <v>0.5752779319235574</v>
       </c>
       <c r="CJ3">
-        <v>0.3333521262771557</v>
+        <v>58.32145401552468</v>
       </c>
       <c r="CK3">
-        <v>0.351228932506056</v>
+        <v>0.3342904633757913</v>
       </c>
       <c r="CL3">
-        <v>18.3377017028073</v>
+        <v>24.2911707911893</v>
       </c>
       <c r="CM3">
-        <v>1.632792807805831</v>
+        <v>54.99948121754757</v>
       </c>
       <c r="CN3">
-        <v>7.330353227365423</v>
+        <v>20.41830046307391</v>
       </c>
       <c r="CO3">
-        <v>1.322412774419848</v>
+        <v>18.54757683022371</v>
       </c>
       <c r="CP3">
-        <v>1.680326964828604</v>
+        <v>0.35103612165993</v>
       </c>
       <c r="CQ3">
-        <v>1.422025758106332</v>
+        <v>0.3785433923831545</v>
       </c>
       <c r="CR3">
-        <v>0.351228932506056</v>
+        <v>28.7757796428951</v>
       </c>
       <c r="CS3">
-        <v>0.3426574455398221</v>
+        <v>69.32442880537346</v>
       </c>
       <c r="CT3">
-        <v>1.332544955876825</v>
+        <v>254.9312814241377</v>
       </c>
       <c r="CU3">
-        <v>0.3333518961576006</v>
+        <v>0.3598527030412313</v>
       </c>
       <c r="CV3">
-        <v>0.3333603027182511</v>
+        <v>4.89953726418116</v>
       </c>
       <c r="CW3">
-        <v>8.333202966615524</v>
+        <v>50.18710907042781</v>
       </c>
       <c r="CX3">
-        <v>0.351228932506056</v>
+        <v>231.8400293288507</v>
       </c>
       <c r="CY3">
-        <v>0.3333389492553377</v>
+        <v>15.18441113978961</v>
       </c>
       <c r="CZ3">
-        <v>3.399304983666534</v>
+        <v>0.3446987942703109</v>
       </c>
       <c r="DA3">
-        <v>0.3333389492553377</v>
+        <v>71.68182728164891</v>
       </c>
       <c r="DB3">
-        <v>2.333178314649294</v>
+        <v>27.59615080919503</v>
       </c>
       <c r="DC3">
-        <v>1.363789462058629</v>
+        <v>0.3343231594797168</v>
       </c>
       <c r="DD3">
-        <v>0.33640709715302</v>
+        <v>11.48602720473459</v>
       </c>
       <c r="DE3">
-        <v>5.321921050982924</v>
+        <v>25.94189038357922</v>
       </c>
       <c r="DF3">
-        <v>15.33921852918813</v>
+        <v>55.40633015131014</v>
       </c>
       <c r="DG3">
-        <v>0.351228932506056</v>
+        <v>19.7356950631408</v>
       </c>
       <c r="DH3">
-        <v>0.357200448745144</v>
+        <v>11.12064080160743</v>
       </c>
       <c r="DI3">
-        <v>6.241207412415799</v>
+        <v>84.67693678058731</v>
       </c>
       <c r="DJ3">
-        <v>0.3333389492553377</v>
+        <v>115.3049254530228</v>
       </c>
       <c r="DK3">
-        <v>3.333160162724651</v>
+        <v>0.3613548728333186</v>
       </c>
       <c r="DL3">
-        <v>2.311339728963514</v>
+        <v>0.3609461496492175</v>
       </c>
       <c r="DM3">
-        <v>1.355454102292781</v>
+        <v>0.4085807428313403</v>
       </c>
       <c r="DN3">
-        <v>8.328990001863779</v>
+        <v>0.3662784018265886</v>
       </c>
       <c r="DO3">
-        <v>0.3333388209714337</v>
+        <v>0.3603311371221488</v>
       </c>
       <c r="DP3">
-        <v>1.266286285473084</v>
+        <v>8.573199289008313</v>
       </c>
       <c r="DQ3">
-        <v>1.332544955876825</v>
+        <v>66.35389071440308</v>
       </c>
       <c r="DR3">
-        <v>0.3333521262771557</v>
+        <v>0.3486967353040548</v>
       </c>
       <c r="DS3">
-        <v>7.333174202398884</v>
+        <v>119.542004520466</v>
       </c>
       <c r="DT3">
-        <v>14.33321305377392</v>
+        <v>21.56941850081473</v>
       </c>
       <c r="DU3">
-        <v>0.3333524322373431</v>
+        <v>0.3403862794298008</v>
       </c>
       <c r="DV3">
-        <v>2.539998194950128</v>
+        <v>30.83928198984461</v>
       </c>
       <c r="DW3">
-        <v>1.327521572080785</v>
+        <v>58.31095452931122</v>
       </c>
       <c r="DX3">
-        <v>0.3333389492553377</v>
+        <v>1.95381528842011</v>
       </c>
       <c r="DY3">
-        <v>0.3333389492553377</v>
+        <v>0.3561443368657724</v>
       </c>
       <c r="DZ3">
-        <v>6.33326796269469</v>
+        <v>0.3570251001772877</v>
       </c>
       <c r="EA3">
-        <v>5.198294075039408</v>
+        <v>0.4348606775498739</v>
       </c>
       <c r="EB3">
-        <v>0.3333388209714337</v>
+        <v>28.78421254897065</v>
       </c>
       <c r="EC3">
-        <v>0.3333389492553377</v>
+        <v>2.823503853029183</v>
       </c>
       <c r="ED3">
-        <v>0.3333392778116292</v>
+        <v>354.3682787216655</v>
       </c>
       <c r="EE3">
-        <v>1.333260716329352</v>
+        <v>1.295338116887554</v>
       </c>
       <c r="EF3">
-        <v>1.333260716329352</v>
+        <v>6.90854670868567</v>
       </c>
       <c r="EG3">
-        <v>1.333077663029866</v>
+        <v>0.3957315175672197</v>
       </c>
       <c r="EH3">
-        <v>0.3333392778116292</v>
+        <v>0.395112631379873</v>
       </c>
       <c r="EI3">
-        <v>0.3333388209714337</v>
+        <v>6.32838933040925</v>
       </c>
       <c r="EJ3">
-        <v>1.328524246245808</v>
+        <v>0.3359394762426884</v>
       </c>
       <c r="EK3">
-        <v>1.333260716329352</v>
+        <v>0.3378113508626746</v>
       </c>
       <c r="EL3">
-        <v>0.351228932506056</v>
+        <v>6.139438070734193</v>
       </c>
       <c r="EM3">
-        <v>0.351228932506056</v>
+        <v>57.06161843587668</v>
       </c>
       <c r="EN3">
-        <v>0.3333389492553377</v>
+        <v>110.6799706596</v>
       </c>
       <c r="EO3">
-        <v>1.334883622762923</v>
+        <v>11.69272043048637</v>
       </c>
       <c r="EP3">
-        <v>0.3333392778116292</v>
+        <v>10.96054764009109</v>
       </c>
       <c r="EQ3">
-        <v>1.333260716329352</v>
+        <v>7.595068849861031</v>
       </c>
       <c r="ER3">
-        <v>0.3333392778116292</v>
+        <v>0.4164096707206293</v>
       </c>
       <c r="ES3">
-        <v>0.3333392778116292</v>
+        <v>22.76653037649463</v>
       </c>
       <c r="ET3">
-        <v>1.333260716329352</v>
+        <v>9.606302198997447</v>
       </c>
       <c r="EU3">
-        <v>0.3333392778116292</v>
+        <v>13.33423234024256</v>
       </c>
       <c r="EV3">
-        <v>0.3333521262771557</v>
+        <v>7.263647211861184</v>
       </c>
       <c r="EW3">
-        <v>0.3333389492553377</v>
+        <v>0.8836431318675821</v>
       </c>
       <c r="EX3">
-        <v>2.333178314649294</v>
+        <v>3.245456457887851</v>
       </c>
       <c r="EY3">
-        <v>8.333216216312906</v>
+        <v>40.16137249237057</v>
       </c>
       <c r="EZ3">
-        <v>0.3333389492553377</v>
+        <v>248.9122560192805</v>
       </c>
       <c r="FA3">
-        <v>0.3333388209714337</v>
+        <v>5.882486001364096</v>
       </c>
       <c r="FB3">
-        <v>0.3333392778116292</v>
+        <v>50.28612697769741</v>
       </c>
       <c r="FC3">
-        <v>1.3509332460012</v>
+        <v>0.386300232951341</v>
       </c>
       <c r="FD3">
-        <v>0.3511341751954675</v>
+        <v>0.3987556824191084</v>
       </c>
       <c r="FE3">
-        <v>0.3333392778116292</v>
+        <v>3.705998723933679</v>
       </c>
       <c r="FF3">
-        <v>0.3333392778116292</v>
+        <v>20.46437319910638</v>
       </c>
       <c r="FG3">
-        <v>3.333261510084671</v>
+        <v>20.29118905151561</v>
       </c>
       <c r="FH3">
-        <v>1.333260716329352</v>
+        <v>0.3609447232062852</v>
       </c>
       <c r="FI3">
-        <v>0.3333392778116292</v>
+        <v>7.97073196659061</v>
       </c>
       <c r="FJ3">
-        <v>2.835787345871969</v>
+        <v>4.696998219778889</v>
       </c>
       <c r="FK3">
-        <v>0.3333392778116292</v>
+        <v>0.3389396858245851</v>
       </c>
       <c r="FL3">
-        <v>0.3333392778116292</v>
+        <v>0.338610029215255</v>
       </c>
       <c r="FM3">
-        <v>11.33008155538704</v>
+        <v>0.3617111457197922</v>
       </c>
       <c r="FN3">
-        <v>55.2296273741337</v>
+        <v>0.3364933737399779</v>
       </c>
       <c r="FO3">
-        <v>41.9576835147445</v>
+        <v>18.45460019872505</v>
       </c>
       <c r="FP3">
-        <v>1.333260716329352</v>
+        <v>0.5181266070079795</v>
       </c>
       <c r="FQ3">
-        <v>1.333260716329352</v>
+        <v>119.9464520314141</v>
       </c>
       <c r="FR3">
-        <v>1.333260716329352</v>
+        <v>12.02938169164707</v>
       </c>
       <c r="FS3">
-        <v>0.3333392778116292</v>
+        <v>12.12908803545273</v>
       </c>
       <c r="FT3">
-        <v>1.333260716329352</v>
+        <v>28.1480177598891</v>
       </c>
       <c r="FU3">
-        <v>0.3333392778116292</v>
+        <v>41.95958534600927</v>
       </c>
       <c r="FV3">
-        <v>0.3333392778116292</v>
+        <v>21.66864650344989</v>
       </c>
       <c r="FW3">
-        <v>0.3333392778116292</v>
+        <v>5.035997798619407</v>
       </c>
       <c r="FX3">
-        <v>1.333260716329352</v>
+        <v>34.86643296469513</v>
       </c>
       <c r="FY3">
-        <v>0.3333389492553377</v>
+        <v>132.573659911368</v>
       </c>
       <c r="FZ3">
-        <v>0.3333389492553377</v>
+        <v>23.30498008905768</v>
       </c>
       <c r="GA3">
-        <v>0.3333392778116292</v>
+        <v>0.4508761595988506</v>
       </c>
       <c r="GB3">
-        <v>0.3517797841285548</v>
+        <v>0.6132541448124049</v>
       </c>
       <c r="GC3">
-        <v>0.3333392778116292</v>
+        <v>25.92697585073393</v>
       </c>
       <c r="GD3">
-        <v>0.3333389492553377</v>
+        <v>0.3948140653301303</v>
       </c>
       <c r="GE3">
-        <v>0.3333392778116292</v>
+        <v>88.21996663231643</v>
       </c>
       <c r="GF3">
-        <v>0.3333392778116292</v>
+        <v>27.88527860703365</v>
       </c>
       <c r="GG3">
-        <v>0.3511376724216662</v>
+        <v>0.3386597908016962</v>
       </c>
       <c r="GH3">
-        <v>0.3333392778116292</v>
+        <v>0.372439922696407</v>
       </c>
       <c r="GI3">
-        <v>1.333260716329352</v>
+        <v>0.3538418962129614</v>
       </c>
       <c r="GJ3">
-        <v>0.3333392778116292</v>
+        <v>0.3499324827268492</v>
       </c>
       <c r="GK3">
-        <v>0.3333392778116292</v>
+        <v>0.4111181343495602</v>
       </c>
       <c r="GL3">
-        <v>1.333260716329352</v>
+        <v>35.38616314352119</v>
       </c>
       <c r="GM3">
-        <v>0.3333392778116292</v>
+        <v>44.06234311335644</v>
       </c>
       <c r="GN3">
-        <v>1.333077663029866</v>
+        <v>0.3425440105508993</v>
       </c>
       <c r="GO3">
-        <v>14.3501269464368</v>
+        <v>0.3685296636405627</v>
       </c>
       <c r="GP3">
-        <v>0.3333392778116292</v>
+        <v>4.559218624302351</v>
       </c>
       <c r="GQ3">
-        <v>0.3333392778116292</v>
+        <v>0.3997104730667262</v>
       </c>
       <c r="GR3">
-        <v>0.3776459605423517</v>
+        <v>0.3517774341140202</v>
       </c>
       <c r="GS3">
-        <v>4.33294591079204</v>
+        <v>7.778101473538864</v>
       </c>
     </row>
     <row r="4" spans="1:201">
@@ -2803,604 +2803,604 @@
         <v>202</v>
       </c>
       <c r="B4">
-        <v>2.333320762375387</v>
+        <v>92.87889160236865</v>
       </c>
       <c r="C4">
-        <v>2.333320762375387</v>
+        <v>10.39915748560376</v>
       </c>
       <c r="D4">
-        <v>2.333320762375387</v>
+        <v>9.562036077772765</v>
       </c>
       <c r="E4">
-        <v>2.333320762375387</v>
+        <v>7.005477649293466</v>
       </c>
       <c r="F4">
-        <v>0.3334084338929563</v>
+        <v>0.4238325535330039</v>
       </c>
       <c r="G4">
-        <v>0.3907609793644453</v>
+        <v>0.3892047399660965</v>
       </c>
       <c r="H4">
-        <v>0.3334601617160313</v>
+        <v>0.3376939754057284</v>
       </c>
       <c r="I4">
-        <v>2.333320762375387</v>
+        <v>0.3470294696144861</v>
       </c>
       <c r="J4">
-        <v>0.3431405002124434</v>
+        <v>22.60984354495472</v>
       </c>
       <c r="K4">
-        <v>0.3334594256184578</v>
+        <v>0.3508524528054119</v>
       </c>
       <c r="L4">
-        <v>2.333320762375387</v>
+        <v>0.3345258370259641</v>
       </c>
       <c r="M4">
-        <v>0.3333767841047823</v>
+        <v>93.27225540283594</v>
       </c>
       <c r="N4">
-        <v>0.3334619485910955</v>
+        <v>95.11584002996713</v>
       </c>
       <c r="O4">
-        <v>11.33332149767246</v>
+        <v>0.3339659790894784</v>
       </c>
       <c r="P4">
-        <v>6.33332135430512</v>
+        <v>2.894178699223305</v>
       </c>
       <c r="Q4">
-        <v>6.286827830898726</v>
+        <v>0.3438468536707487</v>
       </c>
       <c r="R4">
-        <v>0.3333679628655304</v>
+        <v>0.3570927974545692</v>
       </c>
       <c r="S4">
-        <v>1.336342768777876</v>
+        <v>0.3582612622717144</v>
       </c>
       <c r="T4">
-        <v>2.333320762375387</v>
+        <v>0.3341759792093966</v>
       </c>
       <c r="U4">
-        <v>0.333500202101704</v>
+        <v>0.3335294551555545</v>
       </c>
       <c r="V4">
-        <v>0.3333634397891718</v>
+        <v>7.829885184684837</v>
       </c>
       <c r="W4">
-        <v>0.3334261291981057</v>
+        <v>0.4086835632737001</v>
       </c>
       <c r="X4">
-        <v>0.3334131531520631</v>
+        <v>3.67174245292484</v>
       </c>
       <c r="Y4">
-        <v>0.3552643568197743</v>
+        <v>0.3341550456145423</v>
       </c>
       <c r="Z4">
-        <v>0.3419904792161587</v>
+        <v>19.3953855325468</v>
       </c>
       <c r="AA4">
-        <v>1.727307114247887</v>
+        <v>0.3608030870886494</v>
       </c>
       <c r="AB4">
-        <v>0.3334065467333693</v>
+        <v>0.3700495882072674</v>
       </c>
       <c r="AC4">
-        <v>0.3333634397891718</v>
+        <v>45.31781779026057</v>
       </c>
       <c r="AD4">
-        <v>0.3334084338929563</v>
+        <v>0.3384970576782327</v>
       </c>
       <c r="AE4">
-        <v>0.3334184907486762</v>
+        <v>87.25163810680007</v>
       </c>
       <c r="AF4">
-        <v>0.3687973350970702</v>
+        <v>4.80913410435361</v>
       </c>
       <c r="AG4">
-        <v>4.333321199927695</v>
+        <v>9.122097769259762</v>
       </c>
       <c r="AH4">
-        <v>0.3360497346699826</v>
+        <v>11.86990075098797</v>
       </c>
       <c r="AI4">
-        <v>5.062960457871207</v>
+        <v>292.8618585646805</v>
       </c>
       <c r="AJ4">
-        <v>0.336128459303891</v>
+        <v>0.3363233835674052</v>
       </c>
       <c r="AK4">
-        <v>2.953796303415301</v>
+        <v>73.14646708545234</v>
       </c>
       <c r="AL4">
-        <v>0.3334764112457013</v>
+        <v>0.3348949848793036</v>
       </c>
       <c r="AM4">
-        <v>0.3334563814654564</v>
+        <v>182.0984273359221</v>
       </c>
       <c r="AN4">
-        <v>2.339272188845579</v>
+        <v>0.3743813378160594</v>
       </c>
       <c r="AO4">
-        <v>2.338268580188008</v>
+        <v>0.3444382874964735</v>
       </c>
       <c r="AP4">
-        <v>0.3333746469309563</v>
+        <v>161.3712686517544</v>
       </c>
       <c r="AQ4">
-        <v>0.3333634397891718</v>
+        <v>0.3784796401891581</v>
       </c>
       <c r="AR4">
-        <v>0.3335053284487079</v>
+        <v>16.28599133044858</v>
       </c>
       <c r="AS4">
-        <v>0.3334155817619426</v>
+        <v>72.47256677991896</v>
       </c>
       <c r="AT4">
-        <v>0.3334997595926746</v>
+        <v>0.3335983685178351</v>
       </c>
       <c r="AU4">
-        <v>3.333321049534529</v>
+        <v>1.302790519206777</v>
       </c>
       <c r="AV4">
-        <v>0.3334107243986406</v>
+        <v>0.3474423598657833</v>
       </c>
       <c r="AW4">
-        <v>0.3334645431043901</v>
+        <v>0.3359375167282455</v>
       </c>
       <c r="AX4">
-        <v>0.3333746469309563</v>
+        <v>4.261711444663374</v>
       </c>
       <c r="AY4">
-        <v>2.333320762375387</v>
+        <v>0.3533287963236945</v>
       </c>
       <c r="AZ4">
-        <v>0.3334826498651319</v>
+        <v>7.222228440716122</v>
       </c>
       <c r="BA4">
-        <v>0.3334481323969817</v>
+        <v>0.3529802762412963</v>
       </c>
       <c r="BB4">
-        <v>0.3333634397891718</v>
+        <v>0.3849946389262283</v>
       </c>
       <c r="BC4">
-        <v>1.444150716507393</v>
+        <v>335.2154507812912</v>
       </c>
       <c r="BD4">
-        <v>3.337057555061268</v>
+        <v>127.0180112298483</v>
       </c>
       <c r="BE4">
-        <v>2.333320762375387</v>
+        <v>1541.319012768611</v>
       </c>
       <c r="BF4">
-        <v>2.333320762375387</v>
+        <v>14.98936013401234</v>
       </c>
       <c r="BG4">
-        <v>0.3333746469309563</v>
+        <v>0.3389517998486558</v>
       </c>
       <c r="BH4">
-        <v>2.333320762375387</v>
+        <v>0.3339656803344496</v>
       </c>
       <c r="BI4">
-        <v>0.347215085123512</v>
+        <v>0.3346675745583806</v>
       </c>
       <c r="BJ4">
-        <v>0.3563006656359862</v>
+        <v>21.0466605081257</v>
       </c>
       <c r="BK4">
-        <v>2.333320762375387</v>
+        <v>32.45968933698465</v>
       </c>
       <c r="BL4">
-        <v>2.333320762375387</v>
+        <v>76.98314453530729</v>
       </c>
       <c r="BM4">
-        <v>0.3333691302731669</v>
+        <v>1.321850348037644</v>
       </c>
       <c r="BN4">
-        <v>0.3334645431043901</v>
+        <v>0.3512370821148115</v>
       </c>
       <c r="BO4">
-        <v>0.3333764060514671</v>
+        <v>0.3555566054532152</v>
       </c>
       <c r="BP4">
-        <v>3.333321049534529</v>
+        <v>0.340865146156618</v>
       </c>
       <c r="BQ4">
-        <v>0.3334184907486762</v>
+        <v>96.18643745152198</v>
       </c>
       <c r="BR4">
-        <v>0.3334718647368092</v>
+        <v>31.09733703644781</v>
       </c>
       <c r="BS4">
-        <v>0.3333634397891718</v>
+        <v>86.31013115465218</v>
       </c>
       <c r="BT4">
-        <v>0.3333764060514671</v>
+        <v>377.3220730934136</v>
       </c>
       <c r="BU4">
-        <v>2.334834536465385</v>
+        <v>66.28197399254091</v>
       </c>
       <c r="BV4">
-        <v>4.32702981483686</v>
+        <v>0.3540421119294743</v>
       </c>
       <c r="BW4">
-        <v>3.333321049534529</v>
+        <v>0.4262882741911703</v>
       </c>
       <c r="BX4">
-        <v>2.339272188845579</v>
+        <v>0.3518532944042478</v>
       </c>
       <c r="BY4">
-        <v>0.3334084338929563</v>
+        <v>87.31740161359676</v>
       </c>
       <c r="BZ4">
-        <v>0.3333703166067035</v>
+        <v>59.79341567186868</v>
       </c>
       <c r="CA4">
-        <v>2.333320762375387</v>
+        <v>162.2773071663152</v>
       </c>
       <c r="CB4">
-        <v>0.3539649115126158</v>
+        <v>0.4049126299996244</v>
       </c>
       <c r="CC4">
-        <v>0.3333622978632387</v>
+        <v>0.3738107872879699</v>
       </c>
       <c r="CD4">
-        <v>2.337090834681913</v>
+        <v>31.33757253025117</v>
       </c>
       <c r="CE4">
-        <v>0.3333746469309563</v>
+        <v>0.3381913886056017</v>
       </c>
       <c r="CF4">
-        <v>0.3334084338929563</v>
+        <v>0.3458820444057167</v>
       </c>
       <c r="CG4">
-        <v>0.3518753922531261</v>
+        <v>0.3502253291901282</v>
       </c>
       <c r="CH4">
-        <v>0.3353800066550962</v>
+        <v>4.479792585977602</v>
       </c>
       <c r="CI4">
-        <v>0.3334588245681777</v>
+        <v>42.17340298206022</v>
       </c>
       <c r="CJ4">
-        <v>0.3333634397891718</v>
+        <v>0.3434004662158057</v>
       </c>
       <c r="CK4">
-        <v>0.3334084338929563</v>
+        <v>61.32653382866317</v>
       </c>
       <c r="CL4">
-        <v>0.3334708771419102</v>
+        <v>0.3348653138361295</v>
       </c>
       <c r="CM4">
-        <v>0.3527942621079983</v>
+        <v>34.27611559050605</v>
       </c>
       <c r="CN4">
-        <v>2.336242594262506</v>
+        <v>0.3616857143098908</v>
       </c>
       <c r="CO4">
-        <v>4.333768005309238</v>
+        <v>23.05210513227988</v>
       </c>
       <c r="CP4">
-        <v>9.949267386505619</v>
+        <v>2.489199115546287</v>
       </c>
       <c r="CQ4">
-        <v>4.244416025206579</v>
+        <v>0.3472839161168316</v>
       </c>
       <c r="CR4">
-        <v>0.3334084338929563</v>
+        <v>17.3463532412747</v>
       </c>
       <c r="CS4">
-        <v>0.3682281749843064</v>
+        <v>0.3352846967315547</v>
       </c>
       <c r="CT4">
-        <v>1.334085467743651</v>
+        <v>79.1165990852587</v>
       </c>
       <c r="CU4">
-        <v>0.3333630710941508</v>
+        <v>0.3495310321688198</v>
       </c>
       <c r="CV4">
-        <v>2.334555823514732</v>
+        <v>2.862040897003034</v>
       </c>
       <c r="CW4">
-        <v>0.3334093544028191</v>
+        <v>4.938041755306106</v>
       </c>
       <c r="CX4">
-        <v>0.3334084338929563</v>
+        <v>0.3381148633832096</v>
       </c>
       <c r="CY4">
-        <v>2.333320762375387</v>
+        <v>897.2871725185613</v>
       </c>
       <c r="CZ4">
-        <v>3.339093477134384</v>
+        <v>0.3487699665818431</v>
       </c>
       <c r="DA4">
-        <v>2.333320762375387</v>
+        <v>12.90738686344207</v>
       </c>
       <c r="DB4">
-        <v>0.3334184907486762</v>
+        <v>7.145484002486948</v>
       </c>
       <c r="DC4">
-        <v>7.423367570145755</v>
+        <v>64.32542889496021</v>
       </c>
       <c r="DD4">
-        <v>5.310871504923592</v>
+        <v>0.3366098858561822</v>
       </c>
       <c r="DE4">
-        <v>0.3334450442543123</v>
+        <v>0.368420416988829</v>
       </c>
       <c r="DF4">
-        <v>0.3334553476958731</v>
+        <v>1.939324296136135</v>
       </c>
       <c r="DG4">
-        <v>0.3334084338929563</v>
+        <v>23.54342404226409</v>
       </c>
       <c r="DH4">
-        <v>3.262836903589856</v>
+        <v>0.3642558011995504</v>
       </c>
       <c r="DI4">
-        <v>0.3334247885130341</v>
+        <v>54.71434045972361</v>
       </c>
       <c r="DJ4">
-        <v>2.333320762375387</v>
+        <v>0.3467348707150716</v>
       </c>
       <c r="DK4">
-        <v>0.3334325385851464</v>
+        <v>31.27950153221072</v>
       </c>
       <c r="DL4">
-        <v>1.334396063841948</v>
+        <v>0.3386722339665091</v>
       </c>
       <c r="DM4">
-        <v>0.3385474692988817</v>
+        <v>32.5017648883254</v>
       </c>
       <c r="DN4">
-        <v>0.3333898191184176</v>
+        <v>18.84173690473495</v>
       </c>
       <c r="DO4">
-        <v>3.333321049534529</v>
+        <v>9.481919940516951</v>
       </c>
       <c r="DP4">
-        <v>4.210502598723973</v>
+        <v>0.3338226386667025</v>
       </c>
       <c r="DQ4">
-        <v>1.334085467743651</v>
+        <v>31.33331167606388</v>
       </c>
       <c r="DR4">
-        <v>0.3333634397891718</v>
+        <v>0.3413675106543291</v>
       </c>
       <c r="DS4">
-        <v>0.3334248119220143</v>
+        <v>41.02444453494899</v>
       </c>
       <c r="DT4">
-        <v>0.3334045293316715</v>
+        <v>0.3392479279682934</v>
       </c>
       <c r="DU4">
-        <v>0.3333620862340604</v>
+        <v>76.31854648837017</v>
       </c>
       <c r="DV4">
-        <v>0.3440452333286821</v>
+        <v>0.3674162491525965</v>
       </c>
       <c r="DW4">
-        <v>0.3335056345057717</v>
+        <v>0.3402304818797671</v>
       </c>
       <c r="DX4">
-        <v>2.333320762375387</v>
+        <v>0.355771203778982</v>
       </c>
       <c r="DY4">
-        <v>2.333320762375387</v>
+        <v>0.3371216720326167</v>
       </c>
       <c r="DZ4">
-        <v>0.3333727008766314</v>
+        <v>0.3417260697714216</v>
       </c>
       <c r="EA4">
-        <v>0.3334462980056027</v>
+        <v>0.3345357006875785</v>
       </c>
       <c r="EB4">
-        <v>3.333321049534529</v>
+        <v>0.3453483133223317</v>
       </c>
       <c r="EC4">
-        <v>2.333320762375387</v>
+        <v>77.8351082004091</v>
       </c>
       <c r="ED4">
-        <v>1.333320026912891</v>
+        <v>360.796187593293</v>
       </c>
       <c r="EE4">
-        <v>0.333377065047292</v>
+        <v>0.3337029342871484</v>
       </c>
       <c r="EF4">
-        <v>0.333377065047292</v>
+        <v>9.920526693314985</v>
       </c>
       <c r="EG4">
-        <v>0.3334699392048647</v>
+        <v>13.68375177944404</v>
       </c>
       <c r="EH4">
-        <v>1.333320026912891</v>
+        <v>0.3351896368033215</v>
       </c>
       <c r="EI4">
-        <v>3.333321049534529</v>
+        <v>18.86055644338902</v>
       </c>
       <c r="EJ4">
-        <v>0.3334541402578299</v>
+        <v>139.3256687934157</v>
       </c>
       <c r="EK4">
-        <v>0.333377065047292</v>
+        <v>58.32675106045345</v>
       </c>
       <c r="EL4">
-        <v>0.3334084338929563</v>
+        <v>151.2935493483282</v>
       </c>
       <c r="EM4">
-        <v>0.3334084338929563</v>
+        <v>0.4091637549042141</v>
       </c>
       <c r="EN4">
-        <v>2.333320762375387</v>
+        <v>31.47199800884372</v>
       </c>
       <c r="EO4">
-        <v>2.307339105416869</v>
+        <v>0.3371030153323692</v>
       </c>
       <c r="EP4">
-        <v>1.333320026912891</v>
+        <v>0.3704506200714514</v>
       </c>
       <c r="EQ4">
-        <v>0.333377065047292</v>
+        <v>139.4826658741674</v>
       </c>
       <c r="ER4">
-        <v>1.333320026912891</v>
+        <v>53.2303126305203</v>
       </c>
       <c r="ES4">
-        <v>1.333320026912891</v>
+        <v>144.3512412090409</v>
       </c>
       <c r="ET4">
-        <v>0.333377065047292</v>
+        <v>5.619267512788732</v>
       </c>
       <c r="EU4">
-        <v>1.333320026912891</v>
+        <v>0.4365729332206228</v>
       </c>
       <c r="EV4">
-        <v>0.3333634397891718</v>
+        <v>0.3569173514416074</v>
       </c>
       <c r="EW4">
-        <v>2.333320762375387</v>
+        <v>0.3362309293256207</v>
       </c>
       <c r="EX4">
-        <v>0.3334184907486762</v>
+        <v>0.3389045530074242</v>
       </c>
       <c r="EY4">
-        <v>0.3334040665736527</v>
+        <v>0.3393108120868337</v>
       </c>
       <c r="EZ4">
-        <v>2.333320762375387</v>
+        <v>0.3736731602678861</v>
       </c>
       <c r="FA4">
-        <v>3.333321049534529</v>
+        <v>0.3717171276102147</v>
       </c>
       <c r="FB4">
-        <v>1.333320026912891</v>
+        <v>3.476061004190594</v>
       </c>
       <c r="FC4">
-        <v>3.517841661573552</v>
+        <v>0.3673619884953198</v>
       </c>
       <c r="FD4">
-        <v>0.3334079623329548</v>
+        <v>0.3420936209503428</v>
       </c>
       <c r="FE4">
-        <v>1.333320026912891</v>
+        <v>4.329285098226849</v>
       </c>
       <c r="FF4">
-        <v>1.333320026912891</v>
+        <v>0.3709766780171047</v>
       </c>
       <c r="FG4">
-        <v>0.3333764060514671</v>
+        <v>7.429057857457795</v>
       </c>
       <c r="FH4">
-        <v>0.333377065047292</v>
+        <v>0.3619652247455828</v>
       </c>
       <c r="FI4">
-        <v>1.333320026912891</v>
+        <v>8.323723648185284</v>
       </c>
       <c r="FJ4">
-        <v>6.787634296815964</v>
+        <v>0.365841812116821</v>
       </c>
       <c r="FK4">
-        <v>1.333320026912891</v>
+        <v>66.32238502666198</v>
       </c>
       <c r="FL4">
-        <v>1.333320026912891</v>
+        <v>53.32155855291438</v>
       </c>
       <c r="FM4">
-        <v>0.3334524473153573</v>
+        <v>88.28249161031971</v>
       </c>
       <c r="FN4">
-        <v>2.465017547295888</v>
+        <v>126.3228860760101</v>
       </c>
       <c r="FO4">
-        <v>0.3390800707020684</v>
+        <v>0.342484105436334</v>
       </c>
       <c r="FP4">
-        <v>0.333377065047292</v>
+        <v>4.561320888585167</v>
       </c>
       <c r="FQ4">
-        <v>0.333377065047292</v>
+        <v>31.70574517715376</v>
       </c>
       <c r="FR4">
-        <v>0.333377065047292</v>
+        <v>0.4029259424361988</v>
       </c>
       <c r="FS4">
-        <v>1.333320026912891</v>
+        <v>0.3432669136700268</v>
       </c>
       <c r="FT4">
-        <v>0.333377065047292</v>
+        <v>6.789732408536953</v>
       </c>
       <c r="FU4">
-        <v>1.333320026912891</v>
+        <v>18.61395855534881</v>
       </c>
       <c r="FV4">
-        <v>1.333320026912891</v>
+        <v>0.3461987067477699</v>
       </c>
       <c r="FW4">
-        <v>1.333320026912891</v>
+        <v>0.3449278829108072</v>
       </c>
       <c r="FX4">
-        <v>0.333377065047292</v>
+        <v>81.03069240418564</v>
       </c>
       <c r="FY4">
-        <v>2.333320762375387</v>
+        <v>33.1391002117596</v>
       </c>
       <c r="FZ4">
-        <v>2.333320762375387</v>
+        <v>0.3573255380000859</v>
       </c>
       <c r="GA4">
-        <v>1.333320026912891</v>
+        <v>1.920116024093988</v>
       </c>
       <c r="GB4">
-        <v>7.291641131816542</v>
+        <v>7.16377306047393</v>
       </c>
       <c r="GC4">
-        <v>1.333320026912891</v>
+        <v>33.57207769900005</v>
       </c>
       <c r="GD4">
-        <v>2.333320762375387</v>
+        <v>0.3342001297466197</v>
       </c>
       <c r="GE4">
-        <v>1.333320026912891</v>
+        <v>0.3444769157298855</v>
       </c>
       <c r="GF4">
-        <v>1.333320026912891</v>
+        <v>0.3449205525647849</v>
       </c>
       <c r="GG4">
-        <v>1.332831616026469</v>
+        <v>76.32273454812338</v>
       </c>
       <c r="GH4">
-        <v>1.333320026912891</v>
+        <v>201.0676441496915</v>
       </c>
       <c r="GI4">
-        <v>0.333377065047292</v>
+        <v>0.3341906290987187</v>
       </c>
       <c r="GJ4">
-        <v>1.333320026912891</v>
+        <v>0.3856929987146723</v>
       </c>
       <c r="GK4">
-        <v>1.333320026912891</v>
+        <v>331.2131797057368</v>
       </c>
       <c r="GL4">
-        <v>0.333377065047292</v>
+        <v>1552.964009862788</v>
       </c>
       <c r="GM4">
-        <v>1.333320026912891</v>
+        <v>1100.121636194577</v>
       </c>
       <c r="GN4">
-        <v>0.3334699392048647</v>
+        <v>0.3362694692366124</v>
       </c>
       <c r="GO4">
-        <v>1.549681689666117</v>
+        <v>14.49480711748539</v>
       </c>
       <c r="GP4">
-        <v>1.333320026912891</v>
+        <v>4.257707731167216</v>
       </c>
       <c r="GQ4">
-        <v>1.333320026912891</v>
+        <v>248.2436685060909</v>
       </c>
       <c r="GR4">
-        <v>4.288832831817105</v>
+        <v>0.3373228081774849</v>
       </c>
       <c r="GS4">
-        <v>1.333683971567838</v>
+        <v>0.3417416134072622</v>
       </c>
     </row>
   </sheetData>

--- a/word_features/季/ENG,2020-10~2021-1,主题_词矩阵.xlsx
+++ b/word_features/季/ENG,2020-10~2021-1,主题_词矩阵.xlsx
@@ -14,27 +14,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="403">
+  <si>
+    <t>acceler</t>
+  </si>
   <si>
     <t>access</t>
   </si>
   <si>
-    <t>achieve</t>
-  </si>
-  <si>
-    <t>actively</t>
-  </si>
-  <si>
-    <t>advanced</t>
-  </si>
-  <si>
-    <t>africa</t>
-  </si>
-  <si>
-    <t>african</t>
-  </si>
-  <si>
-    <t>africas</t>
+    <t>achiev</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>activ</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>adopt</t>
+  </si>
+  <si>
+    <t>advanc</t>
+  </si>
+  <si>
+    <t>advantag</t>
   </si>
   <si>
     <t>agenda</t>
@@ -43,16 +49,25 @@
     <t>agreement</t>
   </si>
   <si>
-    <t>ai</t>
-  </si>
-  <si>
-    <t>apec</t>
-  </si>
-  <si>
-    <t>approval</t>
-  </si>
-  <si>
-    <t>approved</t>
+    <t>aim</t>
+  </si>
+  <si>
+    <t>alreadi</t>
+  </si>
+  <si>
+    <t>alway</t>
+  </si>
+  <si>
+    <t>ambassador</t>
+  </si>
+  <si>
+    <t>anniversari</t>
+  </si>
+  <si>
+    <t>articl</t>
+  </si>
+  <si>
+    <t>artifici</t>
   </si>
   <si>
     <t>asean</t>
@@ -64,55 +79,97 @@
     <t>asian</t>
   </si>
   <si>
-    <t>asiapacific</t>
-  </si>
-  <si>
-    <t>bangladesh</t>
+    <t>asiapacif</t>
+  </si>
+  <si>
+    <t>aspir</t>
+  </si>
+  <si>
+    <t>assist</t>
+  </si>
+  <si>
+    <t>associ</t>
+  </si>
+  <si>
+    <t>attract</t>
+  </si>
+  <si>
+    <t>balanc</t>
+  </si>
+  <si>
+    <t>ban</t>
+  </si>
+  <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>bar</t>
+  </si>
+  <si>
+    <t>becaus</t>
+  </si>
+  <si>
+    <t>becom</t>
   </si>
   <si>
     <t>belt</t>
   </si>
   <si>
-    <t>beneficial</t>
+    <t>benefici</t>
   </si>
   <si>
     <t>benefit</t>
   </si>
   <si>
-    <t>bilateral</t>
+    <t>bilater</t>
+  </si>
+  <si>
+    <t>billion</t>
+  </si>
+  <si>
+    <t>bolster</t>
   </si>
   <si>
     <t>boost</t>
   </si>
   <si>
-    <t>brics</t>
+    <t>bric</t>
+  </si>
+  <si>
+    <t>brighter</t>
   </si>
   <si>
     <t>build</t>
   </si>
   <si>
-    <t>building</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>candidates</t>
+    <t>busi</t>
+  </si>
+  <si>
+    <t>call</t>
   </si>
   <si>
     <t>carbon</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>cdc</t>
   </si>
   <si>
-    <t>chains</t>
-  </si>
-  <si>
-    <t>challenges</t>
-  </si>
-  <si>
-    <t>change</t>
+    <t>centuri</t>
+  </si>
+  <si>
+    <t>chain</t>
+  </si>
+  <si>
+    <t>challeng</t>
+  </si>
+  <si>
+    <t>chang</t>
+  </si>
+  <si>
+    <t>chart</t>
   </si>
   <si>
     <t>china</t>
@@ -121,76 +178,133 @@
     <t>chinaafrica</t>
   </si>
   <si>
-    <t>chinas</t>
-  </si>
-  <si>
-    <t>chinaus</t>
-  </si>
-  <si>
-    <t>chinese</t>
-  </si>
-  <si>
-    <t>circulation</t>
-  </si>
-  <si>
-    <t>climate</t>
-  </si>
-  <si>
-    <t>clinical</t>
-  </si>
-  <si>
-    <t>committed</t>
+    <t>chines</t>
+  </si>
+  <si>
+    <t>christma</t>
+  </si>
+  <si>
+    <t>circul</t>
+  </si>
+  <si>
+    <t>climat</t>
+  </si>
+  <si>
+    <t>closer</t>
+  </si>
+  <si>
+    <t>collabor</t>
+  </si>
+  <si>
+    <t>combat</t>
+  </si>
+  <si>
+    <t>commentchinadaili</t>
+  </si>
+  <si>
+    <t>commit</t>
   </si>
   <si>
     <t>common</t>
   </si>
   <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>connectivity</t>
-  </si>
-  <si>
-    <t>consensus</t>
-  </si>
-  <si>
-    <t>consultation</t>
-  </si>
-  <si>
-    <t>consumption</t>
-  </si>
-  <si>
-    <t>contribute</t>
-  </si>
-  <si>
-    <t>cooperation</t>
-  </si>
-  <si>
-    <t>coordination</t>
+    <t>commun</t>
+  </si>
+  <si>
+    <t>communist</t>
+  </si>
+  <si>
+    <t>competit</t>
+  </si>
+  <si>
+    <t>comprehens</t>
+  </si>
+  <si>
+    <t>concern</t>
+  </si>
+  <si>
+    <t>confid</t>
+  </si>
+  <si>
+    <t>conflict</t>
+  </si>
+  <si>
+    <t>confront</t>
+  </si>
+  <si>
+    <t>connect</t>
+  </si>
+  <si>
+    <t>consensu</t>
+  </si>
+  <si>
+    <t>consolid</t>
+  </si>
+  <si>
+    <t>construct</t>
+  </si>
+  <si>
+    <t>consult</t>
+  </si>
+  <si>
+    <t>consum</t>
+  </si>
+  <si>
+    <t>consumpt</t>
+  </si>
+  <si>
+    <t>continu</t>
+  </si>
+  <si>
+    <t>contribut</t>
+  </si>
+  <si>
+    <t>cooper</t>
+  </si>
+  <si>
+    <t>coordin</t>
   </si>
   <si>
     <t>core</t>
   </si>
   <si>
+    <t>corpor</t>
+  </si>
+  <si>
     <t>councilor</t>
   </si>
   <si>
-    <t>countries</t>
-  </si>
-  <si>
-    <t>covax</t>
-  </si>
-  <si>
-    <t>covid</t>
-  </si>
-  <si>
-    <t>crisis</t>
+    <t>cpc</t>
+  </si>
+  <si>
+    <t>creat</t>
+  </si>
+  <si>
+    <t>crisi</t>
+  </si>
+  <si>
+    <t>crossbord</t>
+  </si>
+  <si>
+    <t>curfew</t>
+  </si>
+  <si>
+    <t>daili</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>death</t>
   </si>
   <si>
     <t>debt</t>
   </si>
   <si>
-    <t>decoupling</t>
+    <t>decad</t>
+  </si>
+  <si>
+    <t>decoupl</t>
   </si>
   <si>
     <t>deepen</t>
@@ -199,93 +313,189 @@
     <t>demand</t>
   </si>
   <si>
-    <t>developing</t>
-  </si>
-  <si>
-    <t>development</t>
-  </si>
-  <si>
-    <t>differences</t>
-  </si>
-  <si>
-    <t>digital</t>
-  </si>
-  <si>
-    <t>diplomacy</t>
-  </si>
-  <si>
-    <t>diplomatic</t>
-  </si>
-  <si>
-    <t>distribution</t>
-  </si>
-  <si>
-    <t>domestic</t>
-  </si>
-  <si>
-    <t>dose</t>
-  </si>
-  <si>
-    <t>doses</t>
-  </si>
-  <si>
-    <t>drug</t>
-  </si>
-  <si>
-    <t>economic</t>
-  </si>
-  <si>
-    <t>economies</t>
-  </si>
-  <si>
-    <t>economy</t>
-  </si>
-  <si>
-    <t>efficacy</t>
-  </si>
-  <si>
-    <t>efforts</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>enhance</t>
-  </si>
-  <si>
-    <t>environment</t>
-  </si>
-  <si>
-    <t>equitable</t>
+    <t>demonstr</t>
+  </si>
+  <si>
+    <t>despit</t>
+  </si>
+  <si>
+    <t>develop</t>
+  </si>
+  <si>
+    <t>dialogu</t>
+  </si>
+  <si>
+    <t>difficulti</t>
+  </si>
+  <si>
+    <t>digit</t>
+  </si>
+  <si>
+    <t>diplomaci</t>
+  </si>
+  <si>
+    <t>diplomat</t>
+  </si>
+  <si>
+    <t>direct</t>
+  </si>
+  <si>
+    <t>disrupt</t>
+  </si>
+  <si>
+    <t>distanc</t>
+  </si>
+  <si>
+    <t>diversifi</t>
+  </si>
+  <si>
+    <t>domest</t>
+  </si>
+  <si>
+    <t>dont</t>
+  </si>
+  <si>
+    <t>dual</t>
+  </si>
+  <si>
+    <t>ecommerc</t>
+  </si>
+  <si>
+    <t>econom</t>
+  </si>
+  <si>
+    <t>economi</t>
+  </si>
+  <si>
+    <t>educ</t>
+  </si>
+  <si>
+    <t>effort</t>
+  </si>
+  <si>
+    <t>embrac</t>
+  </si>
+  <si>
+    <t>emerg</t>
+  </si>
+  <si>
+    <t>emiss</t>
+  </si>
+  <si>
+    <t>enabl</t>
+  </si>
+  <si>
+    <t>energi</t>
+  </si>
+  <si>
+    <t>engag</t>
+  </si>
+  <si>
+    <t>england</t>
+  </si>
+  <si>
+    <t>enhanc</t>
+  </si>
+  <si>
+    <t>enterpris</t>
+  </si>
+  <si>
+    <t>environ</t>
+  </si>
+  <si>
+    <t>equit</t>
   </si>
   <si>
     <t>era</t>
   </si>
   <si>
-    <t>exchanges</t>
-  </si>
-  <si>
-    <t>exports</t>
-  </si>
-  <si>
-    <t>extraordinary</t>
+    <t>especi</t>
+  </si>
+  <si>
+    <t>establish</t>
+  </si>
+  <si>
+    <t>exampl</t>
+  </si>
+  <si>
+    <t>exchang</t>
+  </si>
+  <si>
+    <t>expand</t>
+  </si>
+  <si>
+    <t>expans</t>
+  </si>
+  <si>
+    <t>expect</t>
+  </si>
+  <si>
+    <t>experi</t>
+  </si>
+  <si>
+    <t>expertis</t>
+  </si>
+  <si>
+    <t>explor</t>
+  </si>
+  <si>
+    <t>expo</t>
+  </si>
+  <si>
+    <t>export</t>
+  </si>
+  <si>
+    <t>extern</t>
+  </si>
+  <si>
+    <t>extraordinari</t>
+  </si>
+  <si>
+    <t>facilit</t>
+  </si>
+  <si>
+    <t>fair</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>field</t>
   </si>
   <si>
     <t>fight</t>
   </si>
   <si>
-    <t>fiscal</t>
-  </si>
-  <si>
-    <t>flu</t>
-  </si>
-  <si>
-    <t>focac</t>
+    <t>financ</t>
+  </si>
+  <si>
+    <t>financi</t>
+  </si>
+  <si>
+    <t>firm</t>
+  </si>
+  <si>
+    <t>firmli</t>
+  </si>
+  <si>
+    <t>fiveyear</t>
+  </si>
+  <si>
+    <t>focu</t>
+  </si>
+  <si>
+    <t>forecast</t>
   </si>
   <si>
     <t>foreign</t>
   </si>
   <si>
+    <t>forg</t>
+  </si>
+  <si>
+    <t>form</t>
+  </si>
+  <si>
     <t>forum</t>
   </si>
   <si>
@@ -295,207 +505,462 @@
     <t>foster</t>
   </si>
   <si>
+    <t>foundat</t>
+  </si>
+  <si>
+    <t>framework</t>
+  </si>
+  <si>
     <t>friendship</t>
   </si>
   <si>
-    <t>future</t>
+    <t>fund</t>
+  </si>
+  <si>
+    <t>fundament</t>
+  </si>
+  <si>
+    <t>futur</t>
+  </si>
+  <si>
+    <t>gain</t>
   </si>
   <si>
     <t>gdp</t>
   </si>
   <si>
+    <t>gener</t>
+  </si>
+  <si>
     <t>global</t>
   </si>
   <si>
-    <t>globalization</t>
-  </si>
-  <si>
-    <t>governance</t>
+    <t>goal</t>
+  </si>
+  <si>
+    <t>govern</t>
   </si>
   <si>
     <t>green</t>
   </si>
   <si>
+    <t>grow</t>
+  </si>
+  <si>
     <t>growth</t>
   </si>
   <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>humanity</t>
+    <t>guangdonghong</t>
+  </si>
+  <si>
+    <t>highend</t>
+  </si>
+  <si>
+    <t>highlevel</t>
+  </si>
+  <si>
+    <t>highlight</t>
+  </si>
+  <si>
+    <t>highqual</t>
+  </si>
+  <si>
+    <t>histor</t>
+  </si>
+  <si>
+    <t>hit</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>hopkin</t>
+  </si>
+  <si>
+    <t>hospit</t>
+  </si>
+  <si>
+    <t>huge</t>
+  </si>
+  <si>
+    <t>human</t>
   </si>
   <si>
     <t>impact</t>
   </si>
   <si>
-    <t>improve</t>
-  </si>
-  <si>
-    <t>inactivated</t>
-  </si>
-  <si>
-    <t>inclusive</t>
-  </si>
-  <si>
-    <t>industrial</t>
-  </si>
-  <si>
-    <t>infrastructure</t>
-  </si>
-  <si>
-    <t>initiative</t>
-  </si>
-  <si>
-    <t>innovation</t>
-  </si>
-  <si>
-    <t>international</t>
-  </si>
-  <si>
-    <t>investment</t>
-  </si>
-  <si>
-    <t>israel</t>
-  </si>
-  <si>
-    <t>jinping</t>
-  </si>
-  <si>
-    <t>joined</t>
+    <t>impetu</t>
+  </si>
+  <si>
+    <t>implement</t>
+  </si>
+  <si>
+    <t>import</t>
+  </si>
+  <si>
+    <t>improv</t>
+  </si>
+  <si>
+    <t>inclus</t>
+  </si>
+  <si>
+    <t>increas</t>
+  </si>
+  <si>
+    <t>industri</t>
+  </si>
+  <si>
+    <t>infect</t>
+  </si>
+  <si>
+    <t>infrastructur</t>
+  </si>
+  <si>
+    <t>initi</t>
+  </si>
+  <si>
+    <t>innov</t>
+  </si>
+  <si>
+    <t>institut</t>
+  </si>
+  <si>
+    <t>integr</t>
+  </si>
+  <si>
+    <t>intellig</t>
+  </si>
+  <si>
+    <t>intern</t>
+  </si>
+  <si>
+    <t>invest</t>
+  </si>
+  <si>
+    <t>investor</t>
+  </si>
+  <si>
+    <t>issu</t>
+  </si>
+  <si>
+    <t>jinp</t>
+  </si>
+  <si>
+    <t>john</t>
+  </si>
+  <si>
+    <t>join</t>
   </si>
   <si>
     <t>joint</t>
   </si>
   <si>
-    <t>jointly</t>
-  </si>
-  <si>
-    <t>macroeconomic</t>
+    <t>jointli</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>kongmacao</t>
+  </si>
+  <si>
+    <t>larg</t>
+  </si>
+  <si>
+    <t>largest</t>
+  </si>
+  <si>
+    <t>launch</t>
+  </si>
+  <si>
+    <t>lead</t>
+  </si>
+  <si>
+    <t>leader</t>
+  </si>
+  <si>
+    <t>leadership</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>limit</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>livelihood</t>
+  </si>
+  <si>
+    <t>lockdown</t>
+  </si>
+  <si>
+    <t>longterm</t>
+  </si>
+  <si>
+    <t>macroeconom</t>
+  </si>
+  <si>
+    <t>mainstay</t>
+  </si>
+  <si>
+    <t>maintain</t>
   </si>
   <si>
     <t>major</t>
   </si>
   <si>
+    <t>mani</t>
+  </si>
+  <si>
     <t>mankind</t>
   </si>
   <si>
     <t>market</t>
   </si>
   <si>
-    <t>meetings</t>
-  </si>
-  <si>
-    <t>moderna</t>
+    <t>meet</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>moder</t>
+  </si>
+  <si>
+    <t>modern</t>
   </si>
   <si>
     <t>momentum</t>
   </si>
   <si>
-    <t>monetary</t>
-  </si>
-  <si>
-    <t>multilateral</t>
-  </si>
-  <si>
-    <t>multilateralism</t>
+    <t>monetari</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>multilater</t>
   </si>
   <si>
     <t>mutual</t>
   </si>
   <si>
-    <t>mutually</t>
-  </si>
-  <si>
-    <t>opportunities</t>
-  </si>
-  <si>
-    <t>oxford</t>
-  </si>
-  <si>
-    <t>pandemic</t>
+    <t>nation</t>
+  </si>
+  <si>
+    <t>nearli</t>
+  </si>
+  <si>
+    <t>necessarili</t>
+  </si>
+  <si>
+    <t>network</t>
+  </si>
+  <si>
+    <t>offer</t>
+  </si>
+  <si>
+    <t>onli</t>
+  </si>
+  <si>
+    <t>openingup</t>
+  </si>
+  <si>
+    <t>opinionchinadaili</t>
+  </si>
+  <si>
+    <t>opportun</t>
+  </si>
+  <si>
+    <t>outlook</t>
+  </si>
+  <si>
+    <t>overcom</t>
+  </si>
+  <si>
+    <t>pandem</t>
   </si>
   <si>
     <t>paradigm</t>
   </si>
   <si>
-    <t>partners</t>
+    <t>parti</t>
+  </si>
+  <si>
+    <t>partner</t>
   </si>
   <si>
     <t>partnership</t>
   </si>
   <si>
-    <t>peace</t>
-  </si>
-  <si>
-    <t>peoples</t>
-  </si>
-  <si>
-    <t>pfizer</t>
-  </si>
-  <si>
-    <t>pfizerbiontech</t>
-  </si>
-  <si>
-    <t>phase</t>
-  </si>
-  <si>
-    <t>policies</t>
-  </si>
-  <si>
-    <t>policy</t>
-  </si>
-  <si>
-    <t>postpandemic</t>
-  </si>
-  <si>
-    <t>poverty</t>
-  </si>
-  <si>
-    <t>president</t>
-  </si>
-  <si>
-    <t>produced</t>
-  </si>
-  <si>
-    <t>production</t>
-  </si>
-  <si>
-    <t>projects</t>
-  </si>
-  <si>
-    <t>promote</t>
-  </si>
-  <si>
-    <t>promoting</t>
-  </si>
-  <si>
-    <t>prosperity</t>
-  </si>
-  <si>
-    <t>pursue</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>recovery</t>
+    <t>path</t>
+  </si>
+  <si>
+    <t>pattern</t>
+  </si>
+  <si>
+    <t>peac</t>
+  </si>
+  <si>
+    <t>peopletopeopl</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t>philosophi</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>play</t>
+  </si>
+  <si>
+    <t>pleas</t>
+  </si>
+  <si>
+    <t>plenari</t>
+  </si>
+  <si>
+    <t>polici</t>
+  </si>
+  <si>
+    <t>polit</t>
+  </si>
+  <si>
+    <t>postpandem</t>
+  </si>
+  <si>
+    <t>potenti</t>
+  </si>
+  <si>
+    <t>poverti</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>pragmat</t>
+  </si>
+  <si>
+    <t>presid</t>
+  </si>
+  <si>
+    <t>principl</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>professor</t>
+  </si>
+  <si>
+    <t>progress</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>promot</t>
+  </si>
+  <si>
+    <t>propos</t>
+  </si>
+  <si>
+    <t>prospect</t>
+  </si>
+  <si>
+    <t>prosper</t>
+  </si>
+  <si>
+    <t>protection</t>
+  </si>
+  <si>
+    <t>provid</t>
+  </si>
+  <si>
+    <t>pursu</t>
+  </si>
+  <si>
+    <t>push</t>
+  </si>
+  <si>
+    <t>qualiti</t>
+  </si>
+  <si>
+    <t>quarter</t>
+  </si>
+  <si>
+    <t>rcep</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>realiz</t>
+  </si>
+  <si>
+    <t>recess</t>
+  </si>
+  <si>
+    <t>record</t>
+  </si>
+  <si>
+    <t>recoveri</t>
+  </si>
+  <si>
+    <t>reduct</t>
+  </si>
+  <si>
+    <t>reflect</t>
   </si>
   <si>
     <t>reform</t>
   </si>
   <si>
-    <t>regional</t>
-  </si>
-  <si>
-    <t>relations</t>
+    <t>region</t>
+  </si>
+  <si>
+    <t>reinforc</t>
+  </si>
+  <si>
+    <t>relat</t>
   </si>
   <si>
     <t>relationship</t>
   </si>
   <si>
+    <t>repres</t>
+  </si>
+  <si>
+    <t>resili</t>
+  </si>
+  <si>
+    <t>resourc</t>
+  </si>
+  <si>
     <t>respect</t>
   </si>
   <si>
+    <t>restaur</t>
+  </si>
+  <si>
+    <t>restrict</t>
+  </si>
+  <si>
+    <t>revolut</t>
+  </si>
+  <si>
+    <t>rise</t>
+  </si>
+  <si>
     <t>road</t>
   </si>
   <si>
@@ -505,115 +970,250 @@
     <t>safeguard</t>
   </si>
   <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>shared</t>
-  </si>
-  <si>
-    <t>shot</t>
-  </si>
-  <si>
-    <t>shots</t>
-  </si>
-  <si>
-    <t>sinopharm</t>
-  </si>
-  <si>
-    <t>sinovac</t>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>sector</t>
+  </si>
+  <si>
+    <t>secur</t>
+  </si>
+  <si>
+    <t>seek</t>
+  </si>
+  <si>
+    <t>seiz</t>
+  </si>
+  <si>
+    <t>serv</t>
+  </si>
+  <si>
+    <t>servic</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>signific</t>
+  </si>
+  <si>
+    <t>sincer</t>
+  </si>
+  <si>
+    <t>smart</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>socialist</t>
+  </si>
+  <si>
+    <t>societi</t>
   </si>
   <si>
     <t>solid</t>
   </si>
   <si>
-    <t>solidarity</t>
-  </si>
-  <si>
-    <t>south</t>
-  </si>
-  <si>
-    <t>stability</t>
-  </si>
-  <si>
-    <t>strategic</t>
+    <t>solidar</t>
+  </si>
+  <si>
+    <t>solut</t>
+  </si>
+  <si>
+    <t>speech</t>
+  </si>
+  <si>
+    <t>spirit</t>
+  </si>
+  <si>
+    <t>spread</t>
+  </si>
+  <si>
+    <t>stabil</t>
+  </si>
+  <si>
+    <t>stabl</t>
+  </si>
+  <si>
+    <t>steadi</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>strateg</t>
+  </si>
+  <si>
+    <t>strategi</t>
+  </si>
+  <si>
+    <t>strength</t>
   </si>
   <si>
     <t>strengthen</t>
   </si>
   <si>
+    <t>strive</t>
+  </si>
+  <si>
     <t>strong</t>
   </si>
   <si>
     <t>stronger</t>
   </si>
   <si>
+    <t>structur</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
     <t>summit</t>
   </si>
   <si>
-    <t>supply</t>
+    <t>suppli</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>sustainable</t>
-  </si>
-  <si>
-    <t>technological</t>
-  </si>
-  <si>
-    <t>technologies</t>
-  </si>
-  <si>
-    <t>technology</t>
-  </si>
-  <si>
-    <t>ties</t>
+    <t>sustain</t>
+  </si>
+  <si>
+    <t>synergi</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>tackl</t>
+  </si>
+  <si>
+    <t>tank</t>
+  </si>
+  <si>
+    <t>tap</t>
+  </si>
+  <si>
+    <t>technolog</t>
+  </si>
+  <si>
+    <t>thi</t>
+  </si>
+  <si>
+    <t>thu</t>
+  </si>
+  <si>
+    <t>tie</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>togeth</t>
+  </si>
+  <si>
+    <t>told</t>
   </si>
   <si>
     <t>trade</t>
   </si>
   <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>trial</t>
-  </si>
-  <si>
-    <t>trials</t>
-  </si>
-  <si>
-    <t>unilateralism</t>
+    <t>transform</t>
+  </si>
+  <si>
+    <t>travel</t>
+  </si>
+  <si>
+    <t>trend</t>
+  </si>
+  <si>
+    <t>trillion</t>
+  </si>
+  <si>
+    <t>trust</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>uncertainti</t>
+  </si>
+  <si>
+    <t>underpin</t>
+  </si>
+  <si>
+    <t>understand</t>
+  </si>
+  <si>
+    <t>unilater</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>univers</t>
+  </si>
+  <si>
+    <t>unpreced</t>
+  </si>
+  <si>
+    <t>upgrad</t>
   </si>
   <si>
     <t>uphold</t>
   </si>
   <si>
-    <t>vaccination</t>
-  </si>
-  <si>
-    <t>vaccine</t>
-  </si>
-  <si>
-    <t>vaccines</t>
+    <t>usher</t>
+  </si>
+  <si>
+    <t>valu</t>
+  </si>
+  <si>
+    <t>veri</t>
+  </si>
+  <si>
+    <t>view</t>
+  </si>
+  <si>
+    <t>viru</t>
   </si>
   <si>
     <t>vision</t>
   </si>
   <si>
-    <t>wang</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>workers</t>
+    <t>vital</t>
+  </si>
+  <si>
+    <t>warn</t>
+  </si>
+  <si>
+    <t>wave</t>
+  </si>
+  <si>
+    <t>wear</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>wider</t>
+  </si>
+  <si>
+    <t>winwin</t>
   </si>
   <si>
     <t>xi</t>
   </si>
   <si>
     <t>yi</t>
+  </si>
+  <si>
+    <t>zerosum</t>
   </si>
   <si>
     <t>主题1</t>
@@ -980,13 +1580,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GS4"/>
+  <dimension ref="A1:OK4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:201">
+    <row r="1" spans="1:401">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1587,1820 +2187,4220 @@
       <c r="GS1" s="1" t="s">
         <v>199</v>
       </c>
+      <c r="GT1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="GU1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="GV1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="GW1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="GX1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="GY1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="GZ1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="HA1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="HB1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="HC1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="HD1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="HE1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="HF1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="HG1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="HH1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="HI1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="HJ1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="HK1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="HL1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="HM1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="HN1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="HO1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="HP1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="HQ1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="HR1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="HS1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="HT1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="HU1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="HV1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="HW1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="HX1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="HY1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="HZ1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="IA1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="IB1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="IC1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="ID1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="IE1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="IF1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="IG1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="IH1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="II1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="IJ1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="IK1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="IL1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="IM1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="IN1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="IO1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="IP1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="IQ1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="IR1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="IS1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="IT1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="IU1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="IV1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="IW1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="IX1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="IY1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="IZ1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="JA1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="JB1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="JC1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="JD1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="JE1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="JF1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="JG1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="JH1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="JI1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="JJ1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="JK1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="JL1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="JM1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="JN1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="JO1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="JP1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="JQ1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="JR1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="JS1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="JT1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="JU1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="JV1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="JW1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="JX1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="JY1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="JZ1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="KA1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="KB1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="KC1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="KD1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="KE1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="KF1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="KG1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="KH1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="KI1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="KJ1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="KK1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="KL1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="KM1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="KN1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="KO1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="KP1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="KQ1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="KR1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="KS1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="KT1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="KU1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="KV1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="KW1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="KX1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="KY1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="KZ1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="LA1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="LB1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="LC1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="LD1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="LE1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="LF1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="LG1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="LH1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="LI1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="LJ1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="LK1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="LL1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="LM1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="LN1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="LO1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="LP1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="LQ1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="LR1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="LS1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="LT1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="LU1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="LV1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="LW1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="LX1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="LY1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="LZ1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="MA1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="MB1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="MC1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="MD1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="ME1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="MF1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="MG1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="MH1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="MI1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="MJ1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="MK1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="ML1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="MM1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="MN1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="MO1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="MP1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="MQ1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="MR1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="MS1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="MT1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="MU1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="MV1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="MW1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="MX1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="MY1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="MZ1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="NA1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="NB1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="NC1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="ND1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="NE1" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="NF1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="NG1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="NH1" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="NI1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="NJ1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="NK1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="NL1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="NM1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="NN1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="NO1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="NP1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="NQ1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="NR1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="NS1" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="NT1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="NU1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="NV1" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="NW1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="NX1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="NY1" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="NZ1" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="OA1" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="OB1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="OC1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="OD1" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="OE1" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="OF1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="OG1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="OH1" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="OI1" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="OJ1" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="OK1" s="1" t="s">
+        <v>399</v>
+      </c>
     </row>
-    <row r="2" spans="1:201">
+    <row r="2" spans="1:401">
       <c r="A2" s="1" t="s">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="B2">
-        <v>29.40544779893082</v>
+        <v>176.9334205661119</v>
       </c>
       <c r="C2">
-        <v>26.09627747770528</v>
+        <v>184.341775256846</v>
       </c>
       <c r="D2">
-        <v>35.07374464046651</v>
+        <v>251.337148129578</v>
       </c>
       <c r="E2">
-        <v>13.31388605342087</v>
+        <v>153.632815601022</v>
       </c>
       <c r="F2">
-        <v>0.3780927341806673</v>
+        <v>211.0686557566645</v>
       </c>
       <c r="G2">
-        <v>0.3935163410052511</v>
+        <v>157.9440893138514</v>
       </c>
       <c r="H2">
-        <v>0.4046466869300358</v>
+        <v>76.44715501815425</v>
       </c>
       <c r="I2">
-        <v>37.2734112421325</v>
+        <v>192.2404352926143</v>
       </c>
       <c r="J2">
-        <v>66.89684346435621</v>
+        <v>85.92430586454188</v>
       </c>
       <c r="K2">
-        <v>42.3100152963581</v>
+        <v>76.23861153992546</v>
       </c>
       <c r="L2">
-        <v>20.30628141296816</v>
+        <v>177.6063073242006</v>
       </c>
       <c r="M2">
-        <v>0.3465351968316808</v>
+        <v>121.5741305052581</v>
       </c>
       <c r="N2">
-        <v>1.502837013967507</v>
+        <v>29.87900131501812</v>
       </c>
       <c r="O2">
-        <v>0.398759532661792</v>
+        <v>105.325966008829</v>
       </c>
       <c r="P2">
-        <v>4.113120447063534</v>
+        <v>68.17952292189786</v>
       </c>
       <c r="Q2">
-        <v>0.3905132986249668</v>
+        <v>94.24637479422358</v>
       </c>
       <c r="R2">
-        <v>24.99781944048962</v>
+        <v>72.60505102120062</v>
       </c>
       <c r="S2">
-        <v>25.30559772279112</v>
+        <v>55.27572057042568</v>
       </c>
       <c r="T2">
-        <v>46.38897487039458</v>
+        <v>36.3193894983741</v>
       </c>
       <c r="U2">
-        <v>25.30048726157457</v>
+        <v>105.3168725552198</v>
       </c>
       <c r="V2">
-        <v>37.08641968180184</v>
+        <v>86.56024362946168</v>
       </c>
       <c r="W2">
-        <v>73.19976921300965</v>
+        <v>40.77114457630962</v>
       </c>
       <c r="X2">
-        <v>10.99021760669432</v>
+        <v>38.28188736753571</v>
       </c>
       <c r="Y2">
-        <v>53.31321382313017</v>
+        <v>114.4805982429052</v>
       </c>
       <c r="Z2">
-        <v>77.7157286776316</v>
+        <v>74.19690782632567</v>
       </c>
       <c r="AA2">
-        <v>96.39107706914824</v>
+        <v>56.38408765615092</v>
       </c>
       <c r="AB2">
-        <v>8.305250447005156</v>
+        <v>78.54771635451763</v>
       </c>
       <c r="AC2">
-        <v>0.3407741945641214</v>
+        <v>7.583261699285744</v>
       </c>
       <c r="AD2">
-        <v>12.71450915566702</v>
+        <v>105.26138146678</v>
       </c>
       <c r="AE2">
-        <v>0.3572979119701374</v>
+        <v>0.364271494372423</v>
       </c>
       <c r="AF2">
-        <v>28.89869313205798</v>
+        <v>53.41078419695436</v>
       </c>
       <c r="AG2">
-        <v>118.5784897977096</v>
+        <v>179.0356719582628</v>
       </c>
       <c r="AH2">
-        <v>101.7424695208952</v>
+        <v>116.3523264695109</v>
       </c>
       <c r="AI2">
-        <v>1081.195309479779</v>
+        <v>45.28659892078479</v>
       </c>
       <c r="AJ2">
-        <v>0.3870051195988632</v>
+        <v>254.1371881085443</v>
       </c>
       <c r="AK2">
-        <v>209.0777628046397</v>
+        <v>125.2587705196568</v>
       </c>
       <c r="AL2">
-        <v>22.32936059240653</v>
+        <v>208.9648553260878</v>
       </c>
       <c r="AM2">
-        <v>215.4421943739183</v>
+        <v>46.26069950796875</v>
       </c>
       <c r="AN2">
-        <v>8.100632082340908</v>
+        <v>186.0348541011722</v>
       </c>
       <c r="AO2">
-        <v>117.7598799707952</v>
+        <v>27.32536870602225</v>
       </c>
       <c r="AP2">
-        <v>6.260078110312107</v>
+        <v>28.30126390657715</v>
       </c>
       <c r="AQ2">
-        <v>34.59314829296288</v>
+        <v>288.5890249387548</v>
       </c>
       <c r="AR2">
-        <v>83.27260685131334</v>
+        <v>197.599734270594</v>
       </c>
       <c r="AS2">
-        <v>141.462565360782</v>
+        <v>174.8903121741264</v>
       </c>
       <c r="AT2">
-        <v>23.20151302660934</v>
+        <v>46.30432666829563</v>
       </c>
       <c r="AU2">
-        <v>31.48649998341561</v>
+        <v>18.13482391309875</v>
       </c>
       <c r="AV2">
-        <v>20.29502876889613</v>
+        <v>0.4012641229452762</v>
       </c>
       <c r="AW2">
-        <v>0.3452501191317761</v>
+        <v>78.13142402470338</v>
       </c>
       <c r="AX2">
-        <v>34.90047618820049</v>
+        <v>134.1993613804608</v>
       </c>
       <c r="AY2">
-        <v>509.8309662922006</v>
+        <v>263.5270798487447</v>
       </c>
       <c r="AZ2">
-        <v>32.93298996319979</v>
+        <v>226.2885502246754</v>
       </c>
       <c r="BA2">
-        <v>25.80942663221025</v>
+        <v>27.28615062874346</v>
       </c>
       <c r="BB2">
-        <v>31.18095613233167</v>
+        <v>389.2695006761276</v>
       </c>
       <c r="BC2">
-        <v>574.9355257475172</v>
+        <v>32.3249779017101</v>
       </c>
       <c r="BD2">
-        <v>38.60088556396284</v>
+        <v>309.9161449217331</v>
       </c>
       <c r="BE2">
-        <v>319.9194947857145</v>
+        <v>0.3405345706294075</v>
       </c>
       <c r="BF2">
-        <v>46.80128537236178</v>
+        <v>81.73419302146495</v>
       </c>
       <c r="BG2">
-        <v>0.3864035852175685</v>
+        <v>135.2775626575758</v>
       </c>
       <c r="BH2">
-        <v>12.65478432372427</v>
+        <v>67.48152979279089</v>
       </c>
       <c r="BI2">
-        <v>31.29602177067663</v>
+        <v>116.4932047879157</v>
       </c>
       <c r="BJ2">
-        <v>4.840540293064026</v>
+        <v>98.80434114023626</v>
       </c>
       <c r="BK2">
-        <v>138.1124255990983</v>
+        <v>37.26071987551432</v>
       </c>
       <c r="BL2">
-        <v>497.462976721088</v>
+        <v>208.1829108755439</v>
       </c>
       <c r="BM2">
-        <v>28.26498818003162</v>
+        <v>138.956986367795</v>
       </c>
       <c r="BN2">
-        <v>91.68945890159114</v>
+        <v>239.0449961685008</v>
       </c>
       <c r="BO2">
-        <v>28.29961794231426</v>
+        <v>70.2518195053122</v>
       </c>
       <c r="BP2">
-        <v>27.3129995089086</v>
+        <v>83.42828566947644</v>
       </c>
       <c r="BQ2">
-        <v>23.41873581170922</v>
+        <v>128.7053868987431</v>
       </c>
       <c r="BR2">
-        <v>17.61449379130356</v>
+        <v>72.72125215754114</v>
       </c>
       <c r="BS2">
-        <v>0.3477441554634568</v>
+        <v>128.9110648563488</v>
       </c>
       <c r="BT2">
-        <v>0.3383132765209347</v>
+        <v>55.12785820533866</v>
       </c>
       <c r="BU2">
-        <v>0.3745461005852787</v>
+        <v>72.14351801252637</v>
       </c>
       <c r="BV2">
-        <v>175.4761680446868</v>
+        <v>97.56461323974703</v>
       </c>
       <c r="BW2">
-        <v>21.42456425789839</v>
+        <v>66.26532809244257</v>
       </c>
       <c r="BX2">
-        <v>99.00195374869334</v>
+        <v>40.30378657903999</v>
       </c>
       <c r="BY2">
-        <v>0.3441279662548459</v>
+        <v>137.514283439219</v>
       </c>
       <c r="BZ2">
-        <v>146.9171421687607</v>
+        <v>87.67331800497925</v>
       </c>
       <c r="CA2">
-        <v>7.922525554203935</v>
+        <v>87.3621760447257</v>
       </c>
       <c r="CB2">
-        <v>32.99125864176786</v>
+        <v>92.24591560392788</v>
       </c>
       <c r="CC2">
-        <v>35.29374586981416</v>
+        <v>289.2151221873437</v>
       </c>
       <c r="CD2">
-        <v>34.61107879277277</v>
+        <v>235.324441923957</v>
       </c>
       <c r="CE2">
-        <v>29.31411012502197</v>
+        <v>391.2906496171016</v>
       </c>
       <c r="CF2">
-        <v>47.27660855277528</v>
+        <v>158.5505207151967</v>
       </c>
       <c r="CG2">
-        <v>2.202796884649741</v>
+        <v>88.21224548911442</v>
       </c>
       <c r="CH2">
-        <v>18.22252005231642</v>
+        <v>85.18907906125089</v>
       </c>
       <c r="CI2">
-        <v>119.2513190860095</v>
+        <v>54.30931046507808</v>
       </c>
       <c r="CJ2">
-        <v>0.3351455182573292</v>
+        <v>37.32205324066089</v>
       </c>
       <c r="CK2">
-        <v>0.3391757079580525</v>
+        <v>185.6392617121793</v>
       </c>
       <c r="CL2">
-        <v>0.3739638949711828</v>
+        <v>158.8862856492967</v>
       </c>
       <c r="CM2">
-        <v>95.72440319193949</v>
+        <v>48.50801968501509</v>
       </c>
       <c r="CN2">
-        <v>39.2200138226106</v>
+        <v>0.3369945262306163</v>
       </c>
       <c r="CO2">
-        <v>66.40031803748946</v>
+        <v>143.516952306626</v>
       </c>
       <c r="CP2">
-        <v>21.15976476278772</v>
+        <v>19.16113978773317</v>
       </c>
       <c r="CQ2">
-        <v>45.27417269149548</v>
+        <v>0.3544555427226844</v>
       </c>
       <c r="CR2">
-        <v>156.8778671158232</v>
+        <v>85.2289964376949</v>
       </c>
       <c r="CS2">
-        <v>0.3402864978929309</v>
+        <v>113.014270215812</v>
       </c>
       <c r="CT2">
-        <v>519.9521194905968</v>
+        <v>22.32632622603325</v>
       </c>
       <c r="CU2">
-        <v>54.29061626478564</v>
+        <v>112.2874318590832</v>
       </c>
       <c r="CV2">
-        <v>77.2384218388087</v>
+        <v>126.1648100242565</v>
       </c>
       <c r="CW2">
-        <v>12.87484917425908</v>
+        <v>144.7701656773067</v>
       </c>
       <c r="CX2">
-        <v>25.82185580776151</v>
+        <v>111.2451205553772</v>
       </c>
       <c r="CY2">
-        <v>147.5284163416416</v>
+        <v>442.8196183023303</v>
       </c>
       <c r="CZ2">
-        <v>42.30653123914393</v>
+        <v>66.31282770097965</v>
       </c>
       <c r="DA2">
-        <v>17.41078585490204</v>
+        <v>94.699926984613</v>
       </c>
       <c r="DB2">
-        <v>22.25836518831104</v>
+        <v>154.9197816568221</v>
       </c>
       <c r="DC2">
-        <v>0.3402479455570495</v>
+        <v>44.30975934283305</v>
       </c>
       <c r="DD2">
-        <v>27.17736290940471</v>
+        <v>86.27139344596939</v>
       </c>
       <c r="DE2">
-        <v>36.68968919942612</v>
+        <v>96.39709232674633</v>
       </c>
       <c r="DF2">
-        <v>8.654345552546626</v>
+        <v>73.67684712071099</v>
       </c>
       <c r="DG2">
-        <v>72.72088089458821</v>
+        <v>0.3695892701352385</v>
       </c>
       <c r="DH2">
-        <v>61.51510339718735</v>
+        <v>31.29199526327844</v>
       </c>
       <c r="DI2">
-        <v>384.6087227596821</v>
+        <v>159.5813345999206</v>
       </c>
       <c r="DJ2">
-        <v>31.34833967625715</v>
+        <v>29.01629573036056</v>
       </c>
       <c r="DK2">
-        <v>0.3591435949513286</v>
+        <v>60.55677101347139</v>
       </c>
       <c r="DL2">
-        <v>71.30038161638045</v>
+        <v>62.22111715022611</v>
       </c>
       <c r="DM2">
-        <v>38.08965436883653</v>
+        <v>489.0949482196372</v>
       </c>
       <c r="DN2">
-        <v>51.79198469343223</v>
+        <v>438.4246944611976</v>
       </c>
       <c r="DO2">
-        <v>46.15774892235478</v>
+        <v>74.84263427574294</v>
       </c>
       <c r="DP2">
-        <v>10.09297807232061</v>
+        <v>255.5265261805617</v>
       </c>
       <c r="DQ2">
-        <v>95.31279760952611</v>
+        <v>70.86099660917762</v>
       </c>
       <c r="DR2">
-        <v>28.30993575403793</v>
+        <v>108.8291417093621</v>
       </c>
       <c r="DS2">
-        <v>0.4335509445784578</v>
+        <v>40.49753976379537</v>
       </c>
       <c r="DT2">
-        <v>10.0913335712123</v>
+        <v>85.2543533263969</v>
       </c>
       <c r="DU2">
-        <v>0.341067232196713</v>
+        <v>108.1459902462535</v>
       </c>
       <c r="DV2">
-        <v>6.793301760996949</v>
+        <v>101.3073933844873</v>
       </c>
       <c r="DW2">
-        <v>0.3488149888062649</v>
+        <v>0.3431064360763391</v>
       </c>
       <c r="DX2">
-        <v>58.69041350779556</v>
+        <v>181.6075807277087</v>
       </c>
       <c r="DY2">
-        <v>95.30673399109797</v>
+        <v>130.8070829082753</v>
       </c>
       <c r="DZ2">
-        <v>69.3012488300474</v>
+        <v>132.2461871981023</v>
       </c>
       <c r="EA2">
-        <v>20.23060362175811</v>
+        <v>108.7382171703661</v>
       </c>
       <c r="EB2">
-        <v>31.87043913770206</v>
+        <v>96.28765673508636</v>
       </c>
       <c r="EC2">
-        <v>0.3413879465570228</v>
+        <v>109.7362303643743</v>
       </c>
       <c r="ED2">
-        <v>270.8355336850345</v>
+        <v>160.0126023068418</v>
       </c>
       <c r="EE2">
-        <v>23.37095894882035</v>
+        <v>124.6011582556569</v>
       </c>
       <c r="EF2">
-        <v>34.17092659799241</v>
+        <v>178.9476506168657</v>
       </c>
       <c r="EG2">
-        <v>53.92051670298209</v>
+        <v>164.7438193218884</v>
       </c>
       <c r="EH2">
-        <v>63.26969773181267</v>
+        <v>45.26622284562504</v>
       </c>
       <c r="EI2">
-        <v>93.81105422619471</v>
+        <v>144.1567674831387</v>
       </c>
       <c r="EJ2">
-        <v>0.3383917303386463</v>
+        <v>150.8065309440427</v>
       </c>
       <c r="EK2">
-        <v>0.3354375886809908</v>
+        <v>82.61113433351927</v>
       </c>
       <c r="EL2">
-        <v>9.567012580930674</v>
+        <v>91.20104120722928</v>
       </c>
       <c r="EM2">
-        <v>16.52921780921237</v>
+        <v>64.52851882958225</v>
       </c>
       <c r="EN2">
-        <v>44.84803133154943</v>
+        <v>115.9458455609837</v>
       </c>
       <c r="EO2">
-        <v>19.97017655417672</v>
+        <v>65.28109433713259</v>
       </c>
       <c r="EP2">
-        <v>36.66900173983159</v>
+        <v>74.17266467981038</v>
       </c>
       <c r="EQ2">
-        <v>196.9222652759646</v>
+        <v>115.0812289153127</v>
       </c>
       <c r="ER2">
-        <v>0.3532776987539671</v>
+        <v>99.11815154070018</v>
       </c>
       <c r="ES2">
-        <v>20.88222841445748</v>
+        <v>0.3819015582265909</v>
       </c>
       <c r="ET2">
-        <v>28.77443028820681</v>
+        <v>122.6233164453215</v>
       </c>
       <c r="EU2">
-        <v>94.2291947265298</v>
+        <v>233.2063801882124</v>
       </c>
       <c r="EV2">
-        <v>43.37943543669177</v>
+        <v>106.5002273613365</v>
       </c>
       <c r="EW2">
-        <v>36.7801259388018</v>
+        <v>152.015946597593</v>
       </c>
       <c r="EX2">
-        <v>19.41563898909999</v>
+        <v>89.64462999586678</v>
       </c>
       <c r="EY2">
-        <v>9.499316695537923</v>
+        <v>51.31019416843225</v>
       </c>
       <c r="EZ2">
-        <v>23.71407082044571</v>
+        <v>79.30993587587277</v>
       </c>
       <c r="FA2">
-        <v>26.7457968710197</v>
+        <v>119.4925255157257</v>
       </c>
       <c r="FB2">
-        <v>52.23781201810498</v>
+        <v>58.08443773796318</v>
       </c>
       <c r="FC2">
-        <v>127.2463377785479</v>
+        <v>252.7536843118956</v>
       </c>
       <c r="FD2">
-        <v>45.259150696626</v>
+        <v>47.31754909474753</v>
       </c>
       <c r="FE2">
-        <v>49.96471617783241</v>
+        <v>92.49719238715031</v>
       </c>
       <c r="FF2">
-        <v>50.16465012287059</v>
+        <v>112.991045824822</v>
       </c>
       <c r="FG2">
-        <v>83.27975309101967</v>
+        <v>163.9087016569801</v>
       </c>
       <c r="FH2">
-        <v>28.27709005204333</v>
+        <v>63.26120261633129</v>
       </c>
       <c r="FI2">
-        <v>80.70554438521711</v>
+        <v>112.4614232526009</v>
       </c>
       <c r="FJ2">
-        <v>120.9371599680985</v>
+        <v>67.12503572784658</v>
       </c>
       <c r="FK2">
-        <v>0.3386752875103573</v>
+        <v>90.25897364668182</v>
       </c>
       <c r="FL2">
-        <v>0.339831417867219</v>
+        <v>179.9043795245717</v>
       </c>
       <c r="FM2">
-        <v>0.3557972439560463</v>
+        <v>64.73259256638011</v>
       </c>
       <c r="FN2">
-        <v>0.3406205502468038</v>
+        <v>302.0947907619307</v>
       </c>
       <c r="FO2">
-        <v>4.202915695833734</v>
+        <v>90.34704160466622</v>
       </c>
       <c r="FP2">
-        <v>59.92055250440019</v>
+        <v>101.260332327772</v>
       </c>
       <c r="FQ2">
-        <v>12.34780279142515</v>
+        <v>157.3231466410881</v>
       </c>
       <c r="FR2">
-        <v>43.56769236591012</v>
+        <v>459.980413389166</v>
       </c>
       <c r="FS2">
-        <v>50.52764505087239</v>
+        <v>143.1210951359857</v>
       </c>
       <c r="FT2">
-        <v>55.062249831567</v>
+        <v>266.643301719062</v>
       </c>
       <c r="FU2">
-        <v>34.42645609863499</v>
+        <v>87.47426234947906</v>
       </c>
       <c r="FV2">
-        <v>26.98515478979733</v>
+        <v>136.2062887681797</v>
       </c>
       <c r="FW2">
-        <v>105.6190743184649</v>
+        <v>305.8639227700182</v>
       </c>
       <c r="FX2">
-        <v>30.10287463111235</v>
+        <v>33.27549905757741</v>
       </c>
       <c r="FY2">
-        <v>121.2872398768655</v>
+        <v>24.28740983373863</v>
       </c>
       <c r="FZ2">
-        <v>43.33769437293677</v>
+        <v>53.94998477373981</v>
       </c>
       <c r="GA2">
-        <v>44.6290078162999</v>
+        <v>116.8636890600697</v>
       </c>
       <c r="GB2">
-        <v>41.22297279470622</v>
+        <v>85.22269932493765</v>
       </c>
       <c r="GC2">
-        <v>84.50094645025909</v>
+        <v>69.67066710462359</v>
       </c>
       <c r="GD2">
-        <v>46.27098580491916</v>
+        <v>56.84516391939702</v>
       </c>
       <c r="GE2">
-        <v>112.4355564519488</v>
+        <v>140.3764129221373</v>
       </c>
       <c r="GF2">
-        <v>16.76980084039649</v>
+        <v>0.3387567419044595</v>
       </c>
       <c r="GG2">
-        <v>0.3386056610718375</v>
+        <v>0.3669975609198838</v>
       </c>
       <c r="GH2">
-        <v>9.559915927605815</v>
+        <v>61.91525822645964</v>
       </c>
       <c r="GI2">
-        <v>31.31196747468492</v>
+        <v>132.2053039573773</v>
       </c>
       <c r="GJ2">
-        <v>38.26437451855328</v>
+        <v>191.0695187398554</v>
       </c>
       <c r="GK2">
-        <v>0.3757021599078854</v>
+        <v>33.32100311067313</v>
       </c>
       <c r="GL2">
-        <v>40.6498269936835</v>
+        <v>151.2516473021105</v>
       </c>
       <c r="GM2">
-        <v>117.8160206920596</v>
+        <v>300.811882928649</v>
       </c>
       <c r="GN2">
-        <v>35.32118652020926</v>
+        <v>238.1224397525544</v>
       </c>
       <c r="GO2">
-        <v>141.1366632188677</v>
+        <v>75.29375317661895</v>
       </c>
       <c r="GP2">
-        <v>43.18307364452338</v>
+        <v>177.8483326128305</v>
       </c>
       <c r="GQ2">
-        <v>0.3566210208373485</v>
+        <v>236.9010301198642</v>
       </c>
       <c r="GR2">
-        <v>212.310899757705</v>
+        <v>4.736055267265023</v>
       </c>
       <c r="GS2">
-        <v>33.88015691304909</v>
+        <v>139.064165335892</v>
+      </c>
+      <c r="GT2">
+        <v>216.4945342538894</v>
+      </c>
+      <c r="GU2">
+        <v>207.0893615179669</v>
+      </c>
+      <c r="GV2">
+        <v>147.2850960130684</v>
+      </c>
+      <c r="GW2">
+        <v>130.2422799302415</v>
+      </c>
+      <c r="GX2">
+        <v>83.35246604518453</v>
+      </c>
+      <c r="GY2">
+        <v>405.165435717304</v>
+      </c>
+      <c r="GZ2">
+        <v>300.2619336537704</v>
+      </c>
+      <c r="HA2">
+        <v>64.21741018306922</v>
+      </c>
+      <c r="HB2">
+        <v>169.8794052518105</v>
+      </c>
+      <c r="HC2">
+        <v>159.3166728808901</v>
+      </c>
+      <c r="HD2">
+        <v>0.3583838636915221</v>
+      </c>
+      <c r="HE2">
+        <v>154.1327504700342</v>
+      </c>
+      <c r="HF2">
+        <v>121.5091130297862</v>
+      </c>
+      <c r="HG2">
+        <v>113.2281659941114</v>
+      </c>
+      <c r="HH2">
+        <v>177.9104640681216</v>
+      </c>
+      <c r="HI2">
+        <v>33.27549905757741</v>
+      </c>
+      <c r="HJ2">
+        <v>119.9961015925746</v>
+      </c>
+      <c r="HK2">
+        <v>138.111584311766</v>
+      </c>
+      <c r="HL2">
+        <v>111.2723287572713</v>
+      </c>
+      <c r="HM2">
+        <v>181.1188907755298</v>
+      </c>
+      <c r="HN2">
+        <v>182.7774677537888</v>
+      </c>
+      <c r="HO2">
+        <v>108.8275654316079</v>
+      </c>
+      <c r="HP2">
+        <v>163.4776154149288</v>
+      </c>
+      <c r="HQ2">
+        <v>12.8861611464665</v>
+      </c>
+      <c r="HR2">
+        <v>90.80164449373375</v>
+      </c>
+      <c r="HS2">
+        <v>73.06515340393958</v>
+      </c>
+      <c r="HT2">
+        <v>0.3875588852278298</v>
+      </c>
+      <c r="HU2">
+        <v>105.2384344541466</v>
+      </c>
+      <c r="HV2">
+        <v>41.32386277561931</v>
+      </c>
+      <c r="HW2">
+        <v>50.32376122187902</v>
+      </c>
+      <c r="HX2">
+        <v>131.6012567603703</v>
+      </c>
+      <c r="HY2">
+        <v>266.3387291165947</v>
+      </c>
+      <c r="HZ2">
+        <v>163.1126139282799</v>
+      </c>
+      <c r="IA2">
+        <v>72.30522543363145</v>
+      </c>
+      <c r="IB2">
+        <v>234.7120590379701</v>
+      </c>
+      <c r="IC2">
+        <v>187.6649417436992</v>
+      </c>
+      <c r="ID2">
+        <v>114.3052641550818</v>
+      </c>
+      <c r="IE2">
+        <v>59.83513341035793</v>
+      </c>
+      <c r="IF2">
+        <v>91.22582894878103</v>
+      </c>
+      <c r="IG2">
+        <v>83.87146913895354</v>
+      </c>
+      <c r="IH2">
+        <v>83.28597889198899</v>
+      </c>
+      <c r="II2">
+        <v>52.41135330900054</v>
+      </c>
+      <c r="IJ2">
+        <v>151.311955233716</v>
+      </c>
+      <c r="IK2">
+        <v>150.2484829579699</v>
+      </c>
+      <c r="IL2">
+        <v>265.5621274123542</v>
+      </c>
+      <c r="IM2">
+        <v>48.36821536114778</v>
+      </c>
+      <c r="IN2">
+        <v>135.2353344138056</v>
+      </c>
+      <c r="IO2">
+        <v>76.17814733454776</v>
+      </c>
+      <c r="IP2">
+        <v>115.5831198137278</v>
+      </c>
+      <c r="IQ2">
+        <v>219.5067495901189</v>
+      </c>
+      <c r="IR2">
+        <v>62.32049473732368</v>
+      </c>
+      <c r="IS2">
+        <v>37.26071987551432</v>
+      </c>
+      <c r="IT2">
+        <v>255.7153391690045</v>
+      </c>
+      <c r="IU2">
+        <v>52.07310464156292</v>
+      </c>
+      <c r="IV2">
+        <v>108.2274565780211</v>
+      </c>
+      <c r="IW2">
+        <v>384.8156729688713</v>
+      </c>
+      <c r="IX2">
+        <v>42.32882293558622</v>
+      </c>
+      <c r="IY2">
+        <v>130.9065488158817</v>
+      </c>
+      <c r="IZ2">
+        <v>169.5292673830184</v>
+      </c>
+      <c r="JA2">
+        <v>163.9236258311634</v>
+      </c>
+      <c r="JB2">
+        <v>75.47555420801368</v>
+      </c>
+      <c r="JC2">
+        <v>83.27209283952121</v>
+      </c>
+      <c r="JD2">
+        <v>115.5506465780076</v>
+      </c>
+      <c r="JE2">
+        <v>45.31454799090734</v>
+      </c>
+      <c r="JF2">
+        <v>174.7915623884417</v>
+      </c>
+      <c r="JG2">
+        <v>37.2749580692296</v>
+      </c>
+      <c r="JH2">
+        <v>165.7282388058725</v>
+      </c>
+      <c r="JI2">
+        <v>112.7489223220343</v>
+      </c>
+      <c r="JJ2">
+        <v>188.3380922758136</v>
+      </c>
+      <c r="JK2">
+        <v>47.65357745518504</v>
+      </c>
+      <c r="JL2">
+        <v>29.32686547295954</v>
+      </c>
+      <c r="JM2">
+        <v>265.6542801858653</v>
+      </c>
+      <c r="JN2">
+        <v>177.5952807038271</v>
+      </c>
+      <c r="JO2">
+        <v>70.29559200412378</v>
+      </c>
+      <c r="JP2">
+        <v>137.5407133605438</v>
+      </c>
+      <c r="JQ2">
+        <v>112.2399939815033</v>
+      </c>
+      <c r="JR2">
+        <v>195.2258970465595</v>
+      </c>
+      <c r="JS2">
+        <v>28.29675050938085</v>
+      </c>
+      <c r="JT2">
+        <v>288.929608270657</v>
+      </c>
+      <c r="JU2">
+        <v>108.3047456027898</v>
+      </c>
+      <c r="JV2">
+        <v>182.3206877990932</v>
+      </c>
+      <c r="JW2">
+        <v>51.44344886299965</v>
+      </c>
+      <c r="JX2">
+        <v>176.8264696180614</v>
+      </c>
+      <c r="JY2">
+        <v>185.7122026492032</v>
+      </c>
+      <c r="JZ2">
+        <v>279.7152475602414</v>
+      </c>
+      <c r="KA2">
+        <v>97.7873809383934</v>
+      </c>
+      <c r="KB2">
+        <v>88.39001467595557</v>
+      </c>
+      <c r="KC2">
+        <v>120.2987138288244</v>
+      </c>
+      <c r="KD2">
+        <v>45.32334597886608</v>
+      </c>
+      <c r="KE2">
+        <v>229.2812774775035</v>
+      </c>
+      <c r="KF2">
+        <v>91.27304198162997</v>
+      </c>
+      <c r="KG2">
+        <v>107.74753559574</v>
+      </c>
+      <c r="KH2">
+        <v>66.44689746309393</v>
+      </c>
+      <c r="KI2">
+        <v>113.1181412262744</v>
+      </c>
+      <c r="KJ2">
+        <v>32.31911821030322</v>
+      </c>
+      <c r="KK2">
+        <v>105.8299504056797</v>
+      </c>
+      <c r="KL2">
+        <v>84.5820284828783</v>
+      </c>
+      <c r="KM2">
+        <v>83.27727484081746</v>
+      </c>
+      <c r="KN2">
+        <v>43.19875461596371</v>
+      </c>
+      <c r="KO2">
+        <v>270.1771746760366</v>
+      </c>
+      <c r="KP2">
+        <v>49.31779822590982</v>
+      </c>
+      <c r="KQ2">
+        <v>202.41614356521</v>
+      </c>
+      <c r="KR2">
+        <v>125.1599178973411</v>
+      </c>
+      <c r="KS2">
+        <v>211.6558523145006</v>
+      </c>
+      <c r="KT2">
+        <v>58.59291115098211</v>
+      </c>
+      <c r="KU2">
+        <v>206.7609100754253</v>
+      </c>
+      <c r="KV2">
+        <v>86.78135255390484</v>
+      </c>
+      <c r="KW2">
+        <v>124.2125124274056</v>
+      </c>
+      <c r="KX2">
+        <v>87.27164206261089</v>
+      </c>
+      <c r="KY2">
+        <v>123.3246639401351</v>
+      </c>
+      <c r="KZ2">
+        <v>145.3801473041418</v>
+      </c>
+      <c r="LA2">
+        <v>0.3492788079234925</v>
+      </c>
+      <c r="LB2">
+        <v>29.12462233991176</v>
+      </c>
+      <c r="LC2">
+        <v>35.29522568013476</v>
+      </c>
+      <c r="LD2">
+        <v>130.7440359680027</v>
+      </c>
+      <c r="LE2">
+        <v>143.3012742012504</v>
+      </c>
+      <c r="LF2">
+        <v>222.2752161190905</v>
+      </c>
+      <c r="LG2">
+        <v>106.5101306431453</v>
+      </c>
+      <c r="LH2">
+        <v>76.49252923870067</v>
+      </c>
+      <c r="LI2">
+        <v>10.7203059096563</v>
+      </c>
+      <c r="LJ2">
+        <v>145.6333846406001</v>
+      </c>
+      <c r="LK2">
+        <v>215.5453923622151</v>
+      </c>
+      <c r="LL2">
+        <v>82.81719417942402</v>
+      </c>
+      <c r="LM2">
+        <v>49.27860910072199</v>
+      </c>
+      <c r="LN2">
+        <v>102.159605088547</v>
+      </c>
+      <c r="LO2">
+        <v>124.4505342881694</v>
+      </c>
+      <c r="LP2">
+        <v>281.9217121506918</v>
+      </c>
+      <c r="LQ2">
+        <v>126.9065953515801</v>
+      </c>
+      <c r="LR2">
+        <v>33.31109822419996</v>
+      </c>
+      <c r="LS2">
+        <v>50.31249646181618</v>
+      </c>
+      <c r="LT2">
+        <v>188.5248071030845</v>
+      </c>
+      <c r="LU2">
+        <v>34.28894385216997</v>
+      </c>
+      <c r="LV2">
+        <v>123.7444151870775</v>
+      </c>
+      <c r="LW2">
+        <v>59.54105926340811</v>
+      </c>
+      <c r="LX2">
+        <v>121.2366046265084</v>
+      </c>
+      <c r="LY2">
+        <v>73.31523903563088</v>
+      </c>
+      <c r="LZ2">
+        <v>94.10035928621006</v>
+      </c>
+      <c r="MA2">
+        <v>64.57552618459512</v>
+      </c>
+      <c r="MB2">
+        <v>49.7733157816027</v>
+      </c>
+      <c r="MC2">
+        <v>166.2394017131638</v>
+      </c>
+      <c r="MD2">
+        <v>78.69229831630184</v>
+      </c>
+      <c r="ME2">
+        <v>54.20133721889935</v>
+      </c>
+      <c r="MF2">
+        <v>126.376649175265</v>
+      </c>
+      <c r="MG2">
+        <v>135.2552443570215</v>
+      </c>
+      <c r="MH2">
+        <v>121.4585417000827</v>
+      </c>
+      <c r="MI2">
+        <v>65.78863105098885</v>
+      </c>
+      <c r="MJ2">
+        <v>227.9684386659771</v>
+      </c>
+      <c r="MK2">
+        <v>55.24927756570239</v>
+      </c>
+      <c r="ML2">
+        <v>199.9906695982823</v>
+      </c>
+      <c r="MM2">
+        <v>90.84878023756491</v>
+      </c>
+      <c r="MN2">
+        <v>70.47739118952143</v>
+      </c>
+      <c r="MO2">
+        <v>160.6013072512912</v>
+      </c>
+      <c r="MP2">
+        <v>108.5214543718214</v>
+      </c>
+      <c r="MQ2">
+        <v>214.9405936616046</v>
+      </c>
+      <c r="MR2">
+        <v>361.8591227838676</v>
+      </c>
+      <c r="MS2">
+        <v>182.6352082585214</v>
+      </c>
+      <c r="MT2">
+        <v>27.32308125096209</v>
+      </c>
+      <c r="MU2">
+        <v>220.9984672289291</v>
+      </c>
+      <c r="MV2">
+        <v>90.9157080606625</v>
+      </c>
+      <c r="MW2">
+        <v>68.52055152553257</v>
+      </c>
+      <c r="MX2">
+        <v>37.34314240986993</v>
+      </c>
+      <c r="MY2">
+        <v>221.2751544948726</v>
+      </c>
+      <c r="MZ2">
+        <v>334.3426903451734</v>
+      </c>
+      <c r="NA2">
+        <v>64.6930015266764</v>
+      </c>
+      <c r="NB2">
+        <v>84.38879837772402</v>
+      </c>
+      <c r="NC2">
+        <v>218.0061839405542</v>
+      </c>
+      <c r="ND2">
+        <v>193.8269819752283</v>
+      </c>
+      <c r="NE2">
+        <v>0.4000134878361922</v>
+      </c>
+      <c r="NF2">
+        <v>302.9838323603122</v>
+      </c>
+      <c r="NG2">
+        <v>109.2230356350651</v>
+      </c>
+      <c r="NH2">
+        <v>21.28024162697138</v>
+      </c>
+      <c r="NI2">
+        <v>100.0511962227795</v>
+      </c>
+      <c r="NJ2">
+        <v>86.81606882178917</v>
+      </c>
+      <c r="NK2">
+        <v>97.52224659198956</v>
+      </c>
+      <c r="NL2">
+        <v>0.3753990140396163</v>
+      </c>
+      <c r="NM2">
+        <v>74.97788264133828</v>
+      </c>
+      <c r="NN2">
+        <v>29.31461237079958</v>
+      </c>
+      <c r="NO2">
+        <v>85.81828578496975</v>
+      </c>
+      <c r="NP2">
+        <v>76.30151493042349</v>
+      </c>
+      <c r="NQ2">
+        <v>214.7308700540181</v>
+      </c>
+      <c r="NR2">
+        <v>81.64976490797702</v>
+      </c>
+      <c r="NS2">
+        <v>95.23007181477911</v>
+      </c>
+      <c r="NT2">
+        <v>79.86543736136925</v>
+      </c>
+      <c r="NU2">
+        <v>86.31514289278466</v>
+      </c>
+      <c r="NV2">
+        <v>21.32642383410356</v>
+      </c>
+      <c r="NW2">
+        <v>129.2267506900255</v>
+      </c>
+      <c r="NX2">
+        <v>57.9428781060708</v>
+      </c>
+      <c r="NY2">
+        <v>219.5620237113938</v>
+      </c>
+      <c r="NZ2">
+        <v>122.0393796534627</v>
+      </c>
+      <c r="OA2">
+        <v>77.29597327021386</v>
+      </c>
+      <c r="OB2">
+        <v>74.49289589313318</v>
+      </c>
+      <c r="OC2">
+        <v>0.3856522850934234</v>
+      </c>
+      <c r="OD2">
+        <v>36.00516556301486</v>
+      </c>
+      <c r="OE2">
+        <v>0.3568067756675242</v>
+      </c>
+      <c r="OF2">
+        <v>0.3740335795606848</v>
+      </c>
+      <c r="OG2">
+        <v>42.65637431762288</v>
+      </c>
+      <c r="OH2">
+        <v>54.32216220538273</v>
+      </c>
+      <c r="OI2">
+        <v>194.3176199706247</v>
+      </c>
+      <c r="OJ2">
+        <v>65.08122229209621</v>
+      </c>
+      <c r="OK2">
+        <v>17.3307457452943</v>
       </c>
     </row>
-    <row r="3" spans="1:201">
+    <row r="3" spans="1:401">
       <c r="A3" s="1" t="s">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="B3">
-        <v>28.71566059869366</v>
+        <v>0.5741871599877502</v>
       </c>
       <c r="C3">
-        <v>25.50456503668401</v>
+        <v>89.13148147111824</v>
       </c>
       <c r="D3">
-        <v>0.3642192817545272</v>
+        <v>53.20639631070362</v>
       </c>
       <c r="E3">
-        <v>22.68063629727865</v>
+        <v>11.58520405871186</v>
       </c>
       <c r="F3">
-        <v>220.1980747122803</v>
+        <v>125.9877095993605</v>
       </c>
       <c r="G3">
-        <v>144.2172789190228</v>
+        <v>0.3787710561887548</v>
       </c>
       <c r="H3">
-        <v>20.25765933765998</v>
+        <v>87.8835296040161</v>
       </c>
       <c r="I3">
-        <v>0.3795592882484152</v>
+        <v>52.18570781189299</v>
       </c>
       <c r="J3">
-        <v>0.4933129906822618</v>
+        <v>31.62901793849097</v>
       </c>
       <c r="K3">
-        <v>0.3391322508326509</v>
+        <v>0.345245737481193</v>
       </c>
       <c r="L3">
-        <v>0.3591927500023268</v>
+        <v>0.4057661382214465</v>
       </c>
       <c r="M3">
-        <v>0.3812094003279073</v>
+        <v>80.57396097676644</v>
       </c>
       <c r="N3">
-        <v>0.3813229560585981</v>
+        <v>135.0836103790076</v>
       </c>
       <c r="O3">
-        <v>80.26727448824482</v>
+        <v>74.03279322465623</v>
       </c>
       <c r="P3">
-        <v>73.9927008537061</v>
+        <v>0.4676997637889128</v>
       </c>
       <c r="Q3">
-        <v>61.26563984769998</v>
+        <v>0.3959084785795861</v>
       </c>
       <c r="R3">
-        <v>6.645087762050362</v>
+        <v>0.4945443937446425</v>
       </c>
       <c r="S3">
-        <v>0.3361410149331311</v>
+        <v>0.3829084128512852</v>
       </c>
       <c r="T3">
-        <v>6.276849150391639</v>
+        <v>0.3424542604862005</v>
       </c>
       <c r="U3">
-        <v>0.3659832832662497</v>
+        <v>22.56216796271885</v>
       </c>
       <c r="V3">
-        <v>11.08369513350637</v>
+        <v>24.8544364616654</v>
       </c>
       <c r="W3">
-        <v>0.3915472237103002</v>
+        <v>0.3917369315448976</v>
       </c>
       <c r="X3">
-        <v>30.33803994037381</v>
+        <v>0.3653512004634348</v>
       </c>
       <c r="Y3">
-        <v>0.3526311312519208</v>
+        <v>74.02255401473931</v>
       </c>
       <c r="Z3">
-        <v>10.88888578981466</v>
+        <v>106.6888859854226</v>
       </c>
       <c r="AA3">
-        <v>30.24811984375751</v>
+        <v>81.2692558818641</v>
       </c>
       <c r="AB3">
-        <v>118.3246999647816</v>
+        <v>8.346160161199219</v>
       </c>
       <c r="AC3">
-        <v>0.3414080151719844</v>
+        <v>0.3652974646341565</v>
       </c>
       <c r="AD3">
-        <v>33.94699378665013</v>
+        <v>10.56941146770076</v>
       </c>
       <c r="AE3">
-        <v>1.391063981224329</v>
+        <v>6.425964192107933</v>
       </c>
       <c r="AF3">
-        <v>20.29217276358141</v>
+        <v>239.8570810525049</v>
       </c>
       <c r="AG3">
-        <v>27.29941243302371</v>
+        <v>194.4147740961145</v>
       </c>
       <c r="AH3">
-        <v>18.38762972810981</v>
+        <v>4.235492450931905</v>
       </c>
       <c r="AI3">
-        <v>298.9428319555324</v>
+        <v>0.3747812505164011</v>
       </c>
       <c r="AJ3">
-        <v>35.27667149682993</v>
+        <v>0.3919907102152159</v>
       </c>
       <c r="AK3">
-        <v>146.7757701099011</v>
+        <v>0.3690209062858688</v>
       </c>
       <c r="AL3">
-        <v>0.3357444227112014</v>
+        <v>122.5113691304815</v>
       </c>
       <c r="AM3">
-        <v>130.4593782901528</v>
+        <v>0.3514939734867516</v>
       </c>
       <c r="AN3">
-        <v>28.52498657983702</v>
+        <v>21.88910089549727</v>
       </c>
       <c r="AO3">
-        <v>4.895681741703343</v>
+        <v>0.3392554327307684</v>
       </c>
       <c r="AP3">
-        <v>0.3686532379272647</v>
+        <v>0.3476295355652217</v>
       </c>
       <c r="AQ3">
-        <v>5.028372066841803</v>
+        <v>70.31940598391711</v>
       </c>
       <c r="AR3">
-        <v>1.44140181823109</v>
+        <v>103.5117010351911</v>
       </c>
       <c r="AS3">
-        <v>14.06486785929211</v>
+        <v>117.9246399312065</v>
       </c>
       <c r="AT3">
-        <v>0.4648886048683147</v>
+        <v>0.3545691326259718</v>
       </c>
       <c r="AU3">
-        <v>6.210709497370344</v>
+        <v>144.4105882670888</v>
       </c>
       <c r="AV3">
-        <v>0.3575288712338989</v>
+        <v>19.90802774580073</v>
       </c>
       <c r="AW3">
-        <v>29.31881236413762</v>
+        <v>0.3731374343133696</v>
       </c>
       <c r="AX3">
-        <v>12.83781236712915</v>
+        <v>114.9839102955533</v>
       </c>
       <c r="AY3">
-        <v>11.81570491147033</v>
+        <v>99.75306073182445</v>
       </c>
       <c r="AZ3">
-        <v>1.844781596077048</v>
+        <v>27.4345604804267</v>
       </c>
       <c r="BA3">
-        <v>1.837593091543056</v>
+        <v>0.3646282175978007</v>
       </c>
       <c r="BB3">
-        <v>0.4340492287358119</v>
+        <v>772.3102765428575</v>
       </c>
       <c r="BC3">
-        <v>237.8490234711849</v>
+        <v>0.3395548195895931</v>
       </c>
       <c r="BD3">
-        <v>0.3811032061824611</v>
+        <v>504.7213027015264</v>
       </c>
       <c r="BE3">
-        <v>164.7614924456677</v>
+        <v>0.3576649966973243</v>
       </c>
       <c r="BF3">
-        <v>93.2093544936189</v>
+        <v>0.372068765151375</v>
       </c>
       <c r="BG3">
-        <v>63.27464461492983</v>
+        <v>0.34989843708257</v>
       </c>
       <c r="BH3">
-        <v>4.011249995936852</v>
+        <v>16.15204640341598</v>
       </c>
       <c r="BI3">
-        <v>0.3693106547612364</v>
+        <v>36.0379575529406</v>
       </c>
       <c r="BJ3">
-        <v>48.11279919880331</v>
+        <v>0.401363027917495</v>
       </c>
       <c r="BK3">
-        <v>15.42788506391015</v>
+        <v>0.3764923378374584</v>
       </c>
       <c r="BL3">
-        <v>66.55387874359776</v>
+        <v>25.86629451973446</v>
       </c>
       <c r="BM3">
-        <v>0.4131614719236362</v>
+        <v>26.50050419311924</v>
       </c>
       <c r="BN3">
-        <v>28.95930401628882</v>
+        <v>286.8068586186062</v>
       </c>
       <c r="BO3">
-        <v>0.3448254522283263</v>
+        <v>0.4016994778703166</v>
       </c>
       <c r="BP3">
-        <v>0.3461353449311916</v>
+        <v>45.18144889313169</v>
       </c>
       <c r="BQ3">
-        <v>0.3948267367621731</v>
+        <v>33.90301506848307</v>
       </c>
       <c r="BR3">
-        <v>91.28816917224172</v>
+        <v>58.34754543575597</v>
       </c>
       <c r="BS3">
-        <v>0.3421246898806274</v>
+        <v>64.49673988244571</v>
       </c>
       <c r="BT3">
-        <v>0.3396136300624052</v>
+        <v>0.3822938043072535</v>
       </c>
       <c r="BU3">
-        <v>0.3434799068690844</v>
+        <v>0.3764038406427367</v>
       </c>
       <c r="BV3">
-        <v>397.1697898433785</v>
+        <v>73.04982488396179</v>
       </c>
       <c r="BW3">
-        <v>116.1491474679035</v>
+        <v>0.3573374631521183</v>
       </c>
       <c r="BX3">
-        <v>306.6461929568973</v>
+        <v>0.344222101978153</v>
       </c>
       <c r="BY3">
-        <v>0.3384704201450406</v>
+        <v>53.0935866009812</v>
       </c>
       <c r="BZ3">
-        <v>13.28944215936365</v>
+        <v>39.23954443617891</v>
       </c>
       <c r="CA3">
-        <v>2.800167279473906</v>
+        <v>44.23747598449686</v>
       </c>
       <c r="CB3">
-        <v>6.603828728225812</v>
+        <v>0.4006435859659423</v>
       </c>
       <c r="CC3">
-        <v>27.33244334289188</v>
+        <v>150.8571366186412</v>
       </c>
       <c r="CD3">
-        <v>4.051348676969125</v>
+        <v>148.0523633940963</v>
       </c>
       <c r="CE3">
-        <v>6.347698486367807</v>
+        <v>46.78415986999665</v>
       </c>
       <c r="CF3">
-        <v>0.3775094028145278</v>
+        <v>29.47594936976544</v>
       </c>
       <c r="CG3">
-        <v>30.44697778615478</v>
+        <v>0.4331294625129081</v>
       </c>
       <c r="CH3">
-        <v>7.297687361698966</v>
+        <v>0.3780408008654915</v>
       </c>
       <c r="CI3">
-        <v>0.5752779319235574</v>
+        <v>0.347439433708903</v>
       </c>
       <c r="CJ3">
-        <v>58.32145401552468</v>
+        <v>0.3399821859807249</v>
       </c>
       <c r="CK3">
-        <v>0.3342904633757913</v>
+        <v>82.15183725184542</v>
       </c>
       <c r="CL3">
-        <v>24.2911707911893</v>
+        <v>0.3801236051655981</v>
       </c>
       <c r="CM3">
-        <v>54.99948121754757</v>
+        <v>23.09347811849271</v>
       </c>
       <c r="CN3">
-        <v>20.41830046307391</v>
+        <v>0.3414173575611318</v>
       </c>
       <c r="CO3">
-        <v>18.54757683022371</v>
+        <v>321.1185558996355</v>
       </c>
       <c r="CP3">
-        <v>0.35103612165993</v>
+        <v>394.9979219482797</v>
       </c>
       <c r="CQ3">
-        <v>0.3785433923831545</v>
+        <v>0.360266881456663</v>
       </c>
       <c r="CR3">
-        <v>28.7757796428951</v>
+        <v>0.3579573976715212</v>
       </c>
       <c r="CS3">
-        <v>69.32442880537346</v>
+        <v>41.4886492746037</v>
       </c>
       <c r="CT3">
-        <v>254.9312814241377</v>
+        <v>0.3361373596460713</v>
       </c>
       <c r="CU3">
-        <v>0.3598527030412313</v>
+        <v>0.3432086758595293</v>
       </c>
       <c r="CV3">
-        <v>4.89953726418116</v>
+        <v>123.2385209857695</v>
       </c>
       <c r="CW3">
-        <v>50.18710907042781</v>
+        <v>0.3823370862349004</v>
       </c>
       <c r="CX3">
-        <v>231.8400293288507</v>
+        <v>141.3986392498393</v>
       </c>
       <c r="CY3">
-        <v>15.18441113978961</v>
+        <v>344.1905602422098</v>
       </c>
       <c r="CZ3">
-        <v>0.3446987942703109</v>
+        <v>0.344168972295864</v>
       </c>
       <c r="DA3">
-        <v>71.68182728164891</v>
+        <v>37.89169554622619</v>
       </c>
       <c r="DB3">
-        <v>27.59615080919503</v>
+        <v>10.66111968727891</v>
       </c>
       <c r="DC3">
-        <v>0.3343231594797168</v>
+        <v>0.3468246255614084</v>
       </c>
       <c r="DD3">
-        <v>11.48602720473459</v>
+        <v>0.3801834585172111</v>
       </c>
       <c r="DE3">
-        <v>25.94189038357922</v>
+        <v>34.40066522282275</v>
       </c>
       <c r="DF3">
-        <v>55.40633015131014</v>
+        <v>56.89024639894263</v>
       </c>
       <c r="DG3">
-        <v>19.7356950631408</v>
+        <v>118.144229428789</v>
       </c>
       <c r="DH3">
-        <v>11.12064080160743</v>
+        <v>0.3667989749726379</v>
       </c>
       <c r="DI3">
-        <v>84.67693678058731</v>
+        <v>160.0489192378278</v>
       </c>
       <c r="DJ3">
-        <v>115.3049254530228</v>
+        <v>59.08601737998755</v>
       </c>
       <c r="DK3">
-        <v>0.3613548728333186</v>
+        <v>3.097507061201811</v>
       </c>
       <c r="DL3">
-        <v>0.3609461496492175</v>
+        <v>0.4290682399668292</v>
       </c>
       <c r="DM3">
-        <v>0.4085807428313403</v>
+        <v>0.3929655722840877</v>
       </c>
       <c r="DN3">
-        <v>0.3662784018265886</v>
+        <v>0.3976480440891618</v>
       </c>
       <c r="DO3">
-        <v>0.3603311371221488</v>
+        <v>74.64604189721899</v>
       </c>
       <c r="DP3">
-        <v>8.573199289008313</v>
+        <v>224.6408632951716</v>
       </c>
       <c r="DQ3">
-        <v>66.35389071440308</v>
+        <v>9.586404708768661</v>
       </c>
       <c r="DR3">
-        <v>0.3486967353040548</v>
+        <v>266.2630806892159</v>
       </c>
       <c r="DS3">
-        <v>119.542004520466</v>
+        <v>0.352136971585497</v>
       </c>
       <c r="DT3">
-        <v>21.56941850081473</v>
+        <v>25.70859088842337</v>
       </c>
       <c r="DU3">
-        <v>0.3403862794298008</v>
+        <v>0.4054031103152742</v>
       </c>
       <c r="DV3">
-        <v>30.83928198984461</v>
+        <v>31.02697220137949</v>
       </c>
       <c r="DW3">
-        <v>58.31095452931122</v>
+        <v>0.3530424861028574</v>
       </c>
       <c r="DX3">
-        <v>1.95381528842011</v>
+        <v>0.4143555733042745</v>
       </c>
       <c r="DY3">
-        <v>0.3561443368657724</v>
+        <v>35.8521467917404</v>
       </c>
       <c r="DZ3">
-        <v>0.3570251001772877</v>
+        <v>65.39153796355306</v>
       </c>
       <c r="EA3">
-        <v>0.4348606775498739</v>
+        <v>0.3969944828580962</v>
       </c>
       <c r="EB3">
-        <v>28.78421254897065</v>
+        <v>0.3677437621538648</v>
       </c>
       <c r="EC3">
-        <v>2.823503853029183</v>
+        <v>155.824987682909</v>
       </c>
       <c r="ED3">
-        <v>354.3682787216655</v>
+        <v>89.58626259588441</v>
       </c>
       <c r="EE3">
-        <v>1.295338116887554</v>
+        <v>126.4731552615482</v>
       </c>
       <c r="EF3">
-        <v>6.90854670868567</v>
+        <v>16.68009811434152</v>
       </c>
       <c r="EG3">
-        <v>0.3957315175672197</v>
+        <v>80.70504372863502</v>
       </c>
       <c r="EH3">
-        <v>0.395112631379873</v>
+        <v>0.3775839990519769</v>
       </c>
       <c r="EI3">
-        <v>6.32838933040925</v>
+        <v>197.1113589247032</v>
       </c>
       <c r="EJ3">
-        <v>0.3359394762426884</v>
+        <v>130.7869673842825</v>
       </c>
       <c r="EK3">
-        <v>0.3378113508626746</v>
+        <v>0.4176528932597224</v>
       </c>
       <c r="EL3">
-        <v>6.139438070734193</v>
+        <v>0.4363000540267145</v>
       </c>
       <c r="EM3">
-        <v>57.06161843587668</v>
+        <v>26.11872519224934</v>
       </c>
       <c r="EN3">
-        <v>110.6799706596</v>
+        <v>30.67645936448644</v>
       </c>
       <c r="EO3">
-        <v>11.69272043048637</v>
+        <v>0.3705027670088778</v>
       </c>
       <c r="EP3">
-        <v>10.96054764009109</v>
+        <v>0.4143920225346339</v>
       </c>
       <c r="EQ3">
-        <v>7.595068849861031</v>
+        <v>7.543710413160234</v>
       </c>
       <c r="ER3">
-        <v>0.4164096707206293</v>
+        <v>42.46736504203716</v>
       </c>
       <c r="ES3">
-        <v>22.76653037649463</v>
+        <v>21.6523871193808</v>
       </c>
       <c r="ET3">
-        <v>9.606302198997447</v>
+        <v>58.93566802922081</v>
       </c>
       <c r="EU3">
-        <v>13.33423234024256</v>
+        <v>134.2547519433345</v>
       </c>
       <c r="EV3">
-        <v>7.263647211861184</v>
+        <v>0.3948715760189396</v>
       </c>
       <c r="EW3">
-        <v>0.8836431318675821</v>
+        <v>0.6590460636508255</v>
       </c>
       <c r="EX3">
-        <v>3.245456457887851</v>
+        <v>43.97816533659778</v>
       </c>
       <c r="EY3">
-        <v>40.16137249237057</v>
+        <v>0.3422315770287083</v>
       </c>
       <c r="EZ3">
-        <v>248.9122560192805</v>
+        <v>0.3499394992728143</v>
       </c>
       <c r="FA3">
-        <v>5.882486001364096</v>
+        <v>34.54312643459663</v>
       </c>
       <c r="FB3">
-        <v>50.28612697769741</v>
+        <v>0.3744012531488455</v>
       </c>
       <c r="FC3">
-        <v>0.386300232951341</v>
+        <v>105.539897006397</v>
       </c>
       <c r="FD3">
-        <v>0.3987556824191084</v>
+        <v>0.3412644345663375</v>
       </c>
       <c r="FE3">
-        <v>3.705998723933679</v>
+        <v>71.58112632786924</v>
       </c>
       <c r="FF3">
-        <v>20.46437319910638</v>
+        <v>2.312903012054726</v>
       </c>
       <c r="FG3">
-        <v>20.29118905151561</v>
+        <v>44.40915506387412</v>
       </c>
       <c r="FH3">
-        <v>0.3609447232062852</v>
+        <v>0.3539860332347444</v>
       </c>
       <c r="FI3">
-        <v>7.97073196659061</v>
+        <v>0.3922072190256728</v>
       </c>
       <c r="FJ3">
-        <v>4.696998219778889</v>
+        <v>0.3484679139049922</v>
       </c>
       <c r="FK3">
-        <v>0.3389396858245851</v>
+        <v>0.3931135811544771</v>
       </c>
       <c r="FL3">
-        <v>0.338610029215255</v>
+        <v>11.31090697104389</v>
       </c>
       <c r="FM3">
-        <v>0.3617111457197922</v>
+        <v>0.3686533736566628</v>
       </c>
       <c r="FN3">
-        <v>0.3364933737399779</v>
+        <v>51.38689232898885</v>
       </c>
       <c r="FO3">
-        <v>18.45460019872505</v>
+        <v>52.52351672115057</v>
       </c>
       <c r="FP3">
-        <v>0.5181266070079795</v>
+        <v>0.3641536412378427</v>
       </c>
       <c r="FQ3">
-        <v>119.9464520314141</v>
+        <v>199.4652082473211</v>
       </c>
       <c r="FR3">
-        <v>12.02938169164707</v>
+        <v>156.9832108727669</v>
       </c>
       <c r="FS3">
-        <v>12.12908803545273</v>
+        <v>13.64262910378022</v>
       </c>
       <c r="FT3">
-        <v>28.1480177598891</v>
+        <v>309.9886124446761</v>
       </c>
       <c r="FU3">
-        <v>41.95958534600927</v>
+        <v>25.10702314885536</v>
       </c>
       <c r="FV3">
-        <v>21.66864650344989</v>
+        <v>36.56194014053319</v>
       </c>
       <c r="FW3">
-        <v>5.035997798619407</v>
+        <v>0.3689680061889194</v>
       </c>
       <c r="FX3">
-        <v>34.86643296469513</v>
+        <v>0.3754772818338902</v>
       </c>
       <c r="FY3">
-        <v>132.573659911368</v>
+        <v>0.3752867532040706</v>
       </c>
       <c r="FZ3">
-        <v>23.30498008905768</v>
+        <v>5.692711533309454</v>
       </c>
       <c r="GA3">
-        <v>0.4508761595988506</v>
+        <v>14.24033942716385</v>
       </c>
       <c r="GB3">
-        <v>0.6132541448124049</v>
+        <v>0.3989738379690494</v>
       </c>
       <c r="GC3">
-        <v>25.92697585073393</v>
+        <v>8.493946939407008</v>
       </c>
       <c r="GD3">
-        <v>0.3948140653301303</v>
+        <v>48.66361807469238</v>
       </c>
       <c r="GE3">
-        <v>88.21996663231643</v>
+        <v>142.6853013682808</v>
       </c>
       <c r="GF3">
-        <v>27.88527860703365</v>
+        <v>0.339517188711229</v>
       </c>
       <c r="GG3">
-        <v>0.3386597908016962</v>
+        <v>259.9357074655975</v>
       </c>
       <c r="GH3">
-        <v>0.372439922696407</v>
+        <v>73.51199226818058</v>
       </c>
       <c r="GI3">
-        <v>0.3538418962129614</v>
+        <v>112.3865957010708</v>
       </c>
       <c r="GJ3">
-        <v>0.3499324827268492</v>
+        <v>19.33031300515169</v>
       </c>
       <c r="GK3">
-        <v>0.4111181343495602</v>
+        <v>0.344930765254003</v>
       </c>
       <c r="GL3">
-        <v>35.38616314352119</v>
+        <v>94.67042543984664</v>
       </c>
       <c r="GM3">
-        <v>44.06234311335644</v>
+        <v>392.1430142111212</v>
       </c>
       <c r="GN3">
-        <v>0.3425440105508993</v>
+        <v>109.1448380079158</v>
       </c>
       <c r="GO3">
-        <v>0.3685296636405627</v>
+        <v>0.3610260757917461</v>
       </c>
       <c r="GP3">
-        <v>4.559218624302351</v>
+        <v>185.1732417910103</v>
       </c>
       <c r="GQ3">
-        <v>0.3997104730667262</v>
+        <v>177.6756641097944</v>
       </c>
       <c r="GR3">
-        <v>0.3517774341140202</v>
+        <v>321.3218738659019</v>
       </c>
       <c r="GS3">
-        <v>7.778101473538864</v>
+        <v>13.24987362263909</v>
+      </c>
+      <c r="GT3">
+        <v>108.6526753367594</v>
+      </c>
+      <c r="GU3">
+        <v>0.531143635598548</v>
+      </c>
+      <c r="GV3">
+        <v>151.3416065641299</v>
+      </c>
+      <c r="GW3">
+        <v>0.4059638279113558</v>
+      </c>
+      <c r="GX3">
+        <v>0.3970809444666992</v>
+      </c>
+      <c r="GY3">
+        <v>281.3981558846509</v>
+      </c>
+      <c r="GZ3">
+        <v>0.3730992615465261</v>
+      </c>
+      <c r="HA3">
+        <v>0.3839254798664931</v>
+      </c>
+      <c r="HB3">
+        <v>99.51869052539013</v>
+      </c>
+      <c r="HC3">
+        <v>0.3429683576223357</v>
+      </c>
+      <c r="HD3">
+        <v>0.3561261120485512</v>
+      </c>
+      <c r="HE3">
+        <v>90.26520366778841</v>
+      </c>
+      <c r="HF3">
+        <v>52.11565795714058</v>
+      </c>
+      <c r="HG3">
+        <v>0.3979934790282067</v>
+      </c>
+      <c r="HH3">
+        <v>150.9709764200515</v>
+      </c>
+      <c r="HI3">
+        <v>0.3754772818338902</v>
+      </c>
+      <c r="HJ3">
+        <v>120.4918474902668</v>
+      </c>
+      <c r="HK3">
+        <v>72.84751973936845</v>
+      </c>
+      <c r="HL3">
+        <v>186.3159273443831</v>
+      </c>
+      <c r="HM3">
+        <v>144.8544500091335</v>
+      </c>
+      <c r="HN3">
+        <v>0.3966225881491249</v>
+      </c>
+      <c r="HO3">
+        <v>0.3776242946237697</v>
+      </c>
+      <c r="HP3">
+        <v>73.32132906514512</v>
+      </c>
+      <c r="HQ3">
+        <v>106.4060170869852</v>
+      </c>
+      <c r="HR3">
+        <v>49.90500241774414</v>
+      </c>
+      <c r="HS3">
+        <v>6.562229683691185</v>
+      </c>
+      <c r="HT3">
+        <v>0.4467137650583501</v>
+      </c>
+      <c r="HU3">
+        <v>20.34365007881091</v>
+      </c>
+      <c r="HV3">
+        <v>0.3406730892596526</v>
+      </c>
+      <c r="HW3">
+        <v>0.3405321572408401</v>
+      </c>
+      <c r="HX3">
+        <v>107.0309044845105</v>
+      </c>
+      <c r="HY3">
+        <v>169.2386312480297</v>
+      </c>
+      <c r="HZ3">
+        <v>317.4644939305857</v>
+      </c>
+      <c r="IA3">
+        <v>0.349207108490757</v>
+      </c>
+      <c r="IB3">
+        <v>226.9085381110273</v>
+      </c>
+      <c r="IC3">
+        <v>110.2440018260958</v>
+      </c>
+      <c r="ID3">
+        <v>10.62688528879473</v>
+      </c>
+      <c r="IE3">
+        <v>5.731004908005214</v>
+      </c>
+      <c r="IF3">
+        <v>0.3987871172068151</v>
+      </c>
+      <c r="IG3">
+        <v>0.385739677670228</v>
+      </c>
+      <c r="IH3">
+        <v>0.3439479244859997</v>
+      </c>
+      <c r="II3">
+        <v>313.7728881291703</v>
+      </c>
+      <c r="IJ3">
+        <v>0.3477863506054716</v>
+      </c>
+      <c r="IK3">
+        <v>0.4010065960653924</v>
+      </c>
+      <c r="IL3">
+        <v>410.160220726702</v>
+      </c>
+      <c r="IM3">
+        <v>121.0085718625676</v>
+      </c>
+      <c r="IN3">
+        <v>25.33662562558853</v>
+      </c>
+      <c r="IO3">
+        <v>61.90900674937915</v>
+      </c>
+      <c r="IP3">
+        <v>161.3706683294562</v>
+      </c>
+      <c r="IQ3">
+        <v>278.8759778453803</v>
+      </c>
+      <c r="IR3">
+        <v>0.3453498409555728</v>
+      </c>
+      <c r="IS3">
+        <v>0.3764923378374584</v>
+      </c>
+      <c r="IT3">
+        <v>34.93662499716765</v>
+      </c>
+      <c r="IU3">
+        <v>0.3620500981502175</v>
+      </c>
+      <c r="IV3">
+        <v>42.37148396328566</v>
+      </c>
+      <c r="IW3">
+        <v>318.7834297913362</v>
+      </c>
+      <c r="IX3">
+        <v>0.3363858374371917</v>
+      </c>
+      <c r="IY3">
+        <v>30.41708167175691</v>
+      </c>
+      <c r="IZ3">
+        <v>44.12785408409954</v>
+      </c>
+      <c r="JA3">
+        <v>0.3637925629655682</v>
+      </c>
+      <c r="JB3">
+        <v>0.3944743540548091</v>
+      </c>
+      <c r="JC3">
+        <v>0.3647978928378485</v>
+      </c>
+      <c r="JD3">
+        <v>2.227249805612068</v>
+      </c>
+      <c r="JE3">
+        <v>0.3485056440276179</v>
+      </c>
+      <c r="JF3">
+        <v>299.6799687182602</v>
+      </c>
+      <c r="JG3">
+        <v>0.3738123651345248</v>
+      </c>
+      <c r="JH3">
+        <v>248.5653746935496</v>
+      </c>
+      <c r="JI3">
+        <v>87.88490558946673</v>
+      </c>
+      <c r="JJ3">
+        <v>101.1242634571772</v>
+      </c>
+      <c r="JK3">
+        <v>27.96513627415417</v>
+      </c>
+      <c r="JL3">
+        <v>0.335016530669154</v>
+      </c>
+      <c r="JM3">
+        <v>37.17519437204939</v>
+      </c>
+      <c r="JN3">
+        <v>0.3793671645591637</v>
+      </c>
+      <c r="JO3">
+        <v>0.3527049251541855</v>
+      </c>
+      <c r="JP3">
+        <v>97.22953530669915</v>
+      </c>
+      <c r="JQ3">
+        <v>0.3650862273733476</v>
+      </c>
+      <c r="JR3">
+        <v>0.3924113845039691</v>
+      </c>
+      <c r="JS3">
+        <v>0.3536757970177243</v>
+      </c>
+      <c r="JT3">
+        <v>0.4130521905206516</v>
+      </c>
+      <c r="JU3">
+        <v>6.334626717046436</v>
+      </c>
+      <c r="JV3">
+        <v>370.3126958154524</v>
+      </c>
+      <c r="JW3">
+        <v>43.77662380513596</v>
+      </c>
+      <c r="JX3">
+        <v>63.87963879719916</v>
+      </c>
+      <c r="JY3">
+        <v>61.89311705362334</v>
+      </c>
+      <c r="JZ3">
+        <v>78.91094104103162</v>
+      </c>
+      <c r="KA3">
+        <v>11.34812502828604</v>
+      </c>
+      <c r="KB3">
+        <v>12.16947170382051</v>
+      </c>
+      <c r="KC3">
+        <v>0.3561492313359433</v>
+      </c>
+      <c r="KD3">
+        <v>0.3393614569170546</v>
+      </c>
+      <c r="KE3">
+        <v>365.1842675054688</v>
+      </c>
+      <c r="KF3">
+        <v>0.3741451734156589</v>
+      </c>
+      <c r="KG3">
+        <v>0.3880080748138341</v>
+      </c>
+      <c r="KH3">
+        <v>65.2037032692799</v>
+      </c>
+      <c r="KI3">
+        <v>23.96708144210305</v>
+      </c>
+      <c r="KJ3">
+        <v>0.3416841008903088</v>
+      </c>
+      <c r="KK3">
+        <v>22.00389624811486</v>
+      </c>
+      <c r="KL3">
+        <v>75.9862111393707</v>
+      </c>
+      <c r="KM3">
+        <v>0.3441522073545537</v>
+      </c>
+      <c r="KN3">
+        <v>38.30330853634042</v>
+      </c>
+      <c r="KO3">
+        <v>0.4196085352621022</v>
+      </c>
+      <c r="KP3">
+        <v>0.3657946824559103</v>
+      </c>
+      <c r="KQ3">
+        <v>8.904474426295769</v>
+      </c>
+      <c r="KR3">
+        <v>4.480858217599775</v>
+      </c>
+      <c r="KS3">
+        <v>233.2317460950447</v>
+      </c>
+      <c r="KT3">
+        <v>0.3931141635086446</v>
+      </c>
+      <c r="KU3">
+        <v>164.8211619307223</v>
+      </c>
+      <c r="KV3">
+        <v>11.85340587231434</v>
+      </c>
+      <c r="KW3">
+        <v>54.92046135158153</v>
+      </c>
+      <c r="KX3">
+        <v>0.3644771241101064</v>
+      </c>
+      <c r="KY3">
+        <v>54.27371568740388</v>
+      </c>
+      <c r="KZ3">
+        <v>18.90617436822113</v>
+      </c>
+      <c r="LA3">
+        <v>41.94690549623765</v>
+      </c>
+      <c r="LB3">
+        <v>50.27871691912325</v>
+      </c>
+      <c r="LC3">
+        <v>0.3416497390958952</v>
+      </c>
+      <c r="LD3">
+        <v>56.63522771374294</v>
+      </c>
+      <c r="LE3">
+        <v>82.30769459927238</v>
+      </c>
+      <c r="LF3">
+        <v>72.33824300502661</v>
+      </c>
+      <c r="LG3">
+        <v>13.12339730274366</v>
+      </c>
+      <c r="LH3">
+        <v>23.57766439345479</v>
+      </c>
+      <c r="LI3">
+        <v>114.7603489443787</v>
+      </c>
+      <c r="LJ3">
+        <v>70.61040379210667</v>
+      </c>
+      <c r="LK3">
+        <v>75.48632019991479</v>
+      </c>
+      <c r="LL3">
+        <v>24.1856536147047</v>
+      </c>
+      <c r="LM3">
+        <v>0.3506249389402131</v>
+      </c>
+      <c r="LN3">
+        <v>62.64270208824472</v>
+      </c>
+      <c r="LO3">
+        <v>254.626202354238</v>
+      </c>
+      <c r="LP3">
+        <v>123.6770984353085</v>
+      </c>
+      <c r="LQ3">
+        <v>48.94880755735688</v>
+      </c>
+      <c r="LR3">
+        <v>0.3525556092873371</v>
+      </c>
+      <c r="LS3">
+        <v>30.31147736503847</v>
+      </c>
+      <c r="LT3">
+        <v>178.3042835981543</v>
+      </c>
+      <c r="LU3">
+        <v>0.3519294416325157</v>
+      </c>
+      <c r="LV3">
+        <v>37.74387486142436</v>
+      </c>
+      <c r="LW3">
+        <v>0.3693148314084919</v>
+      </c>
+      <c r="LX3">
+        <v>0.3819523878930279</v>
+      </c>
+      <c r="LY3">
+        <v>69.19794248719258</v>
+      </c>
+      <c r="LZ3">
+        <v>0.3846705659605416</v>
+      </c>
+      <c r="MA3">
+        <v>11.29045076459977</v>
+      </c>
+      <c r="MB3">
+        <v>236.2733295979077</v>
+      </c>
+      <c r="MC3">
+        <v>0.3745100202835568</v>
+      </c>
+      <c r="MD3">
+        <v>16.57686749409327</v>
+      </c>
+      <c r="ME3">
+        <v>0.3704044261014267</v>
+      </c>
+      <c r="MF3">
+        <v>79.06994908919134</v>
+      </c>
+      <c r="MG3">
+        <v>0.3935938686788124</v>
+      </c>
+      <c r="MH3">
+        <v>0.3987854485714636</v>
+      </c>
+      <c r="MI3">
+        <v>0.3865045235975367</v>
+      </c>
+      <c r="MJ3">
+        <v>71.28685364868055</v>
+      </c>
+      <c r="MK3">
+        <v>0.3886734958423486</v>
+      </c>
+      <c r="ML3">
+        <v>42.8701025731875</v>
+      </c>
+      <c r="MM3">
+        <v>0.4054231858907333</v>
+      </c>
+      <c r="MN3">
+        <v>6.411575298519568</v>
+      </c>
+      <c r="MO3">
+        <v>115.8205044235861</v>
+      </c>
+      <c r="MP3">
+        <v>0.3606133938616541</v>
+      </c>
+      <c r="MQ3">
+        <v>175.1401347409822</v>
+      </c>
+      <c r="MR3">
+        <v>119.856722398146</v>
+      </c>
+      <c r="MS3">
+        <v>0.4064063972332332</v>
+      </c>
+      <c r="MT3">
+        <v>0.3391087065478676</v>
+      </c>
+      <c r="MU3">
+        <v>111.3988278979043</v>
+      </c>
+      <c r="MV3">
+        <v>0.4082856723472129</v>
+      </c>
+      <c r="MW3">
+        <v>0.3595488852893451</v>
+      </c>
+      <c r="MX3">
+        <v>0.3631466699486882</v>
+      </c>
+      <c r="MY3">
+        <v>133.3596798908071</v>
+      </c>
+      <c r="MZ3">
+        <v>577.553024785796</v>
+      </c>
+      <c r="NA3">
+        <v>31.82338664797966</v>
+      </c>
+      <c r="NB3">
+        <v>0.3859358798422594</v>
+      </c>
+      <c r="NC3">
+        <v>379.3790746803405</v>
+      </c>
+      <c r="ND3">
+        <v>86.74280587621196</v>
+      </c>
+      <c r="NE3">
+        <v>151.9021985414526</v>
+      </c>
+      <c r="NF3">
+        <v>41.74340716506148</v>
+      </c>
+      <c r="NG3">
+        <v>0.4235626125366102</v>
+      </c>
+      <c r="NH3">
+        <v>249.2572055631318</v>
+      </c>
+      <c r="NI3">
+        <v>5.147205968206904</v>
+      </c>
+      <c r="NJ3">
+        <v>0.3756854448199877</v>
+      </c>
+      <c r="NK3">
+        <v>0.3695644430752024</v>
+      </c>
+      <c r="NL3">
+        <v>0.3713800678313925</v>
+      </c>
+      <c r="NM3">
+        <v>18.09302083637561</v>
+      </c>
+      <c r="NN3">
+        <v>0.3438310737140382</v>
+      </c>
+      <c r="NO3">
+        <v>55.00049807831826</v>
+      </c>
+      <c r="NP3">
+        <v>0.3411506201759741</v>
+      </c>
+      <c r="NQ3">
+        <v>168.1370573393351</v>
+      </c>
+      <c r="NR3">
+        <v>194.0497487240928</v>
+      </c>
+      <c r="NS3">
+        <v>0.3860148309009105</v>
+      </c>
+      <c r="NT3">
+        <v>10.73084611164208</v>
+      </c>
+      <c r="NU3">
+        <v>0.3491041699160577</v>
+      </c>
+      <c r="NV3">
+        <v>0.3377832144425107</v>
+      </c>
+      <c r="NW3">
+        <v>0.4182499722656973</v>
+      </c>
+      <c r="NX3">
+        <v>185.8372727084048</v>
+      </c>
+      <c r="NY3">
+        <v>59.46501799812037</v>
+      </c>
+      <c r="NZ3">
+        <v>298.715266417663</v>
+      </c>
+      <c r="OA3">
+        <v>0.3573372309584553</v>
+      </c>
+      <c r="OB3">
+        <v>25.45664630674122</v>
+      </c>
+      <c r="OC3">
+        <v>0.3953863023941621</v>
+      </c>
+      <c r="OD3">
+        <v>0.3704632682702113</v>
+      </c>
+      <c r="OE3">
+        <v>261.2592327011859</v>
+      </c>
+      <c r="OF3">
+        <v>157.3555280435267</v>
+      </c>
+      <c r="OG3">
+        <v>7.058117238356507</v>
+      </c>
+      <c r="OH3">
+        <v>0.3426085779832915</v>
+      </c>
+      <c r="OI3">
+        <v>0.3424176370606261</v>
+      </c>
+      <c r="OJ3">
+        <v>16.55672510668101</v>
+      </c>
+      <c r="OK3">
+        <v>0.3341144230529013</v>
       </c>
     </row>
-    <row r="4" spans="1:201">
+    <row r="4" spans="1:401">
       <c r="A4" s="1" t="s">
-        <v>202</v>
+        <v>402</v>
       </c>
       <c r="B4">
-        <v>92.87889160236865</v>
+        <v>45.4923922738762</v>
       </c>
       <c r="C4">
-        <v>10.39915748560376</v>
+        <v>56.52674327201299</v>
       </c>
       <c r="D4">
-        <v>9.562036077772765</v>
+        <v>9.456455559695469</v>
       </c>
       <c r="E4">
-        <v>7.005477649293466</v>
+        <v>116.7819803402435</v>
       </c>
       <c r="F4">
-        <v>0.4238325535330039</v>
+        <v>104.9436346439522</v>
       </c>
       <c r="G4">
-        <v>0.3892047399660965</v>
+        <v>89.67713962993892</v>
       </c>
       <c r="H4">
-        <v>0.3376939754057284</v>
+        <v>30.66931537780688</v>
       </c>
       <c r="I4">
-        <v>0.3470294696144861</v>
+        <v>21.57385689546997</v>
       </c>
       <c r="J4">
-        <v>22.60984354495472</v>
+        <v>0.4466761969441135</v>
       </c>
       <c r="K4">
-        <v>0.3508524528054119</v>
+        <v>8.416142722574753</v>
       </c>
       <c r="L4">
-        <v>0.3345258370259641</v>
+        <v>29.98792653755562</v>
       </c>
       <c r="M4">
-        <v>93.27225540283594</v>
+        <v>55.8519085179527</v>
       </c>
       <c r="N4">
-        <v>95.11584002996713</v>
+        <v>195.0373883059514</v>
       </c>
       <c r="O4">
-        <v>0.3339659790894784</v>
+        <v>19.64124076649191</v>
       </c>
       <c r="P4">
-        <v>2.894178699223305</v>
+        <v>0.3527773142938099</v>
       </c>
       <c r="Q4">
-        <v>0.3438468536707487</v>
+        <v>0.3577167271784932</v>
       </c>
       <c r="R4">
-        <v>0.3570927974545692</v>
+        <v>45.90040458503267</v>
       </c>
       <c r="S4">
-        <v>0.3582612622717144</v>
+        <v>0.3413710167071551</v>
       </c>
       <c r="T4">
-        <v>0.3341759792093966</v>
+        <v>0.3381562411273069</v>
       </c>
       <c r="U4">
-        <v>0.3335294551555545</v>
+        <v>17.12095948203851</v>
       </c>
       <c r="V4">
-        <v>7.829885184684837</v>
+        <v>16.58531990885009</v>
       </c>
       <c r="W4">
-        <v>0.4086835632737001</v>
+        <v>1.837118492123069</v>
       </c>
       <c r="X4">
-        <v>3.67174245292484</v>
+        <v>0.3527614319846972</v>
       </c>
       <c r="Y4">
-        <v>0.3341550456145423</v>
+        <v>17.49684774233252</v>
       </c>
       <c r="Z4">
-        <v>19.3953855325468</v>
+        <v>100.114206188229</v>
       </c>
       <c r="AA4">
-        <v>0.3608030870886494</v>
+        <v>0.3466564619670272</v>
       </c>
       <c r="AB4">
-        <v>0.3700495882072674</v>
+        <v>31.10612348426028</v>
       </c>
       <c r="AC4">
-        <v>45.31781779026057</v>
+        <v>158.0514408360597</v>
       </c>
       <c r="AD4">
-        <v>0.3384970576782327</v>
+        <v>30.16920706549637</v>
       </c>
       <c r="AE4">
-        <v>87.25163810680007</v>
+        <v>118.2097643135019</v>
       </c>
       <c r="AF4">
-        <v>4.80913410435361</v>
+        <v>253.7321347505176</v>
       </c>
       <c r="AG4">
-        <v>9.122097769259762</v>
+        <v>160.5495539455996</v>
       </c>
       <c r="AH4">
-        <v>11.86990075098797</v>
+        <v>0.4121810795347457</v>
       </c>
       <c r="AI4">
-        <v>292.8618585646805</v>
+        <v>0.3386198286837726</v>
       </c>
       <c r="AJ4">
-        <v>0.3363233835674052</v>
+        <v>0.4708211812194255</v>
       </c>
       <c r="AK4">
-        <v>73.14646708545234</v>
+        <v>0.372208574039304</v>
       </c>
       <c r="AL4">
-        <v>0.3348949848793036</v>
+        <v>42.52377554340783</v>
       </c>
       <c r="AM4">
-        <v>182.0984273359221</v>
+        <v>7.387806518525249</v>
       </c>
       <c r="AN4">
-        <v>0.3743813378160594</v>
+        <v>16.07604500330756</v>
       </c>
       <c r="AO4">
-        <v>0.3444382874964735</v>
+        <v>0.3353758612353104</v>
       </c>
       <c r="AP4">
-        <v>161.3712686517544</v>
+        <v>0.3511065578431519</v>
       </c>
       <c r="AQ4">
-        <v>0.3784796401891581</v>
+        <v>69.09156907730521</v>
       </c>
       <c r="AR4">
-        <v>16.28599133044858</v>
+        <v>200.8885646941918</v>
       </c>
       <c r="AS4">
-        <v>72.47256677991896</v>
+        <v>279.1850478946441</v>
       </c>
       <c r="AT4">
-        <v>0.3335983685178351</v>
+        <v>0.3411041990644885</v>
       </c>
       <c r="AU4">
-        <v>1.302790519206777</v>
+        <v>218.4545878197899</v>
       </c>
       <c r="AV4">
-        <v>0.3474423598657833</v>
+        <v>114.6907081312326</v>
       </c>
       <c r="AW4">
-        <v>0.3359375167282455</v>
+        <v>5.495438540962292</v>
       </c>
       <c r="AX4">
-        <v>4.261711444663374</v>
+        <v>24.81672832396321</v>
       </c>
       <c r="AY4">
-        <v>0.3533287963236945</v>
+        <v>87.71985941940824</v>
       </c>
       <c r="AZ4">
-        <v>7.222228440716122</v>
+        <v>142.2768892948751</v>
       </c>
       <c r="BA4">
-        <v>0.3529802762412963</v>
+        <v>0.3492211536430556</v>
       </c>
       <c r="BB4">
-        <v>0.3849946389262283</v>
+        <v>142.4202227809935</v>
       </c>
       <c r="BC4">
-        <v>335.2154507812912</v>
+        <v>0.3354672786885862</v>
       </c>
       <c r="BD4">
-        <v>127.0180112298483</v>
+        <v>0.3625523767205097</v>
       </c>
       <c r="BE4">
-        <v>1541.319012768611</v>
+        <v>126.3018004326626</v>
       </c>
       <c r="BF4">
-        <v>14.98936013401234</v>
+        <v>45.89373821336296</v>
       </c>
       <c r="BG4">
-        <v>0.3389517998486558</v>
+        <v>0.3725389053251608</v>
       </c>
       <c r="BH4">
-        <v>0.3339656803344496</v>
+        <v>0.3664238037731973</v>
       </c>
       <c r="BI4">
-        <v>0.3346675745583806</v>
+        <v>0.4688376591209807</v>
       </c>
       <c r="BJ4">
-        <v>21.0466605081257</v>
+        <v>45.79429583182421</v>
       </c>
       <c r="BK4">
-        <v>32.45968933698465</v>
+        <v>0.3627877866305184</v>
       </c>
       <c r="BL4">
-        <v>76.98314453530729</v>
+        <v>29.95079460469888</v>
       </c>
       <c r="BM4">
-        <v>1.321850348037644</v>
+        <v>61.54250943906295</v>
       </c>
       <c r="BN4">
-        <v>0.3512370821148115</v>
+        <v>116.1481452128707</v>
       </c>
       <c r="BO4">
-        <v>0.3555566054532152</v>
+        <v>0.3464810168001538</v>
       </c>
       <c r="BP4">
-        <v>0.340865146156618</v>
+        <v>0.3902654373704675</v>
       </c>
       <c r="BQ4">
-        <v>96.18643745152198</v>
+        <v>0.3915980327524088</v>
       </c>
       <c r="BR4">
-        <v>31.09733703644781</v>
+        <v>229.9312024066802</v>
       </c>
       <c r="BS4">
-        <v>86.31013115465218</v>
+        <v>48.59219526118267</v>
       </c>
       <c r="BT4">
-        <v>377.3220730934136</v>
+        <v>7.489847990332762</v>
       </c>
       <c r="BU4">
-        <v>66.28197399254091</v>
+        <v>14.48007814680991</v>
       </c>
       <c r="BV4">
-        <v>0.3540421119294743</v>
+        <v>0.3855618762700165</v>
       </c>
       <c r="BW4">
-        <v>0.4262882741911703</v>
+        <v>0.3773344443878049</v>
       </c>
       <c r="BX4">
-        <v>0.3518532944042478</v>
+        <v>0.3519913189676323</v>
       </c>
       <c r="BY4">
-        <v>87.31740161359676</v>
+        <v>0.3921299597782708</v>
       </c>
       <c r="BZ4">
-        <v>59.79341567186868</v>
+        <v>19.08713755881896</v>
       </c>
       <c r="CA4">
-        <v>162.2773071663152</v>
+        <v>0.4003479707555306</v>
       </c>
       <c r="CB4">
-        <v>0.4049126299996244</v>
+        <v>0.353440810088226</v>
       </c>
       <c r="CC4">
-        <v>0.3738107872879699</v>
+        <v>378.9277411939927</v>
       </c>
       <c r="CD4">
-        <v>31.33757253025117</v>
+        <v>75.62319468192426</v>
       </c>
       <c r="CE4">
-        <v>0.3381913886056017</v>
+        <v>14.9251905128789</v>
       </c>
       <c r="CF4">
-        <v>0.3458820444057167</v>
+        <v>36.97352991501516</v>
       </c>
       <c r="CG4">
-        <v>0.3502253291901282</v>
+        <v>0.354625048353671</v>
       </c>
       <c r="CH4">
-        <v>4.479792585977602</v>
+        <v>0.4328801378623451</v>
       </c>
       <c r="CI4">
-        <v>42.17340298206022</v>
+        <v>0.3432501011994103</v>
       </c>
       <c r="CJ4">
-        <v>0.3434004662158057</v>
+        <v>0.3379645733462858</v>
       </c>
       <c r="CK4">
-        <v>61.32653382866317</v>
+        <v>36.20890103595253</v>
       </c>
       <c r="CL4">
-        <v>0.3348653138361295</v>
+        <v>143.7335907455166</v>
       </c>
       <c r="CM4">
-        <v>34.27611559050605</v>
+        <v>0.3985021964703404</v>
       </c>
       <c r="CN4">
-        <v>0.3616857143098908</v>
+        <v>75.32158811619993</v>
       </c>
       <c r="CO4">
-        <v>23.05210513227988</v>
+        <v>297.3644917937154</v>
       </c>
       <c r="CP4">
-        <v>2.489199115546287</v>
+        <v>619.8409382639646</v>
       </c>
       <c r="CQ4">
-        <v>0.3472839161168316</v>
+        <v>588.2852775758072</v>
       </c>
       <c r="CR4">
-        <v>17.3463532412747</v>
+        <v>0.4130461646143073</v>
       </c>
       <c r="CS4">
-        <v>0.3352846967315547</v>
+        <v>0.4970805095612761</v>
       </c>
       <c r="CT4">
-        <v>79.1165990852587</v>
+        <v>0.3375364143090546</v>
       </c>
       <c r="CU4">
-        <v>0.3495310321688198</v>
+        <v>0.3693594650416353</v>
       </c>
       <c r="CV4">
-        <v>2.862040897003034</v>
+        <v>30.59666898995114</v>
       </c>
       <c r="CW4">
-        <v>4.938041755306106</v>
+        <v>31.84749723643712</v>
       </c>
       <c r="CX4">
-        <v>0.3381148633832096</v>
+        <v>120.3562401947607</v>
       </c>
       <c r="CY4">
-        <v>897.2871725185613</v>
+        <v>202.9898214554381</v>
       </c>
       <c r="CZ4">
-        <v>0.3487699665818431</v>
+        <v>0.3430033267112572</v>
       </c>
       <c r="DA4">
-        <v>12.90738686344207</v>
+        <v>0.4083774691385941</v>
       </c>
       <c r="DB4">
-        <v>7.145484002486948</v>
+        <v>0.4190986558762809</v>
       </c>
       <c r="DC4">
-        <v>64.32542889496021</v>
+        <v>0.3434160315919947</v>
       </c>
       <c r="DD4">
-        <v>0.3366098858561822</v>
+        <v>0.3484230954967781</v>
       </c>
       <c r="DE4">
-        <v>0.368420416988829</v>
+        <v>56.20224245040814</v>
       </c>
       <c r="DF4">
-        <v>1.939324296136135</v>
+        <v>0.4329064803233517</v>
       </c>
       <c r="DG4">
-        <v>23.54342404226409</v>
+        <v>259.4861813010572</v>
       </c>
       <c r="DH4">
-        <v>0.3642558011995504</v>
+        <v>0.3412057617340691</v>
       </c>
       <c r="DI4">
-        <v>54.71434045972361</v>
+        <v>0.3697461622314659</v>
       </c>
       <c r="DJ4">
-        <v>0.3467348707150716</v>
+        <v>160.8976868896291</v>
       </c>
       <c r="DK4">
-        <v>31.27950153221072</v>
+        <v>0.3457219253086091</v>
       </c>
       <c r="DL4">
-        <v>0.3386722339665091</v>
+        <v>0.3498146097886312</v>
       </c>
       <c r="DM4">
-        <v>32.5017648883254</v>
+        <v>100.5120862080566</v>
       </c>
       <c r="DN4">
-        <v>18.84173690473495</v>
+        <v>124.1776574946916</v>
       </c>
       <c r="DO4">
-        <v>9.481919940516951</v>
+        <v>49.51132382701527</v>
       </c>
       <c r="DP4">
-        <v>0.3338226386667025</v>
+        <v>148.8326105242441</v>
       </c>
       <c r="DQ4">
-        <v>31.33331167606388</v>
+        <v>3.552598682030556</v>
       </c>
       <c r="DR4">
-        <v>0.3413675106543291</v>
+        <v>226.9077776013993</v>
       </c>
       <c r="DS4">
-        <v>41.02444453494899</v>
+        <v>1.150323264599134</v>
       </c>
       <c r="DT4">
-        <v>0.3392479279682934</v>
+        <v>7.03705578515679</v>
       </c>
       <c r="DU4">
-        <v>76.31854648837017</v>
+        <v>6.448606643408913</v>
       </c>
       <c r="DV4">
-        <v>0.3674162491525965</v>
+        <v>36.66563441411027</v>
       </c>
       <c r="DW4">
-        <v>0.3402304818797671</v>
+        <v>123.30385107781</v>
       </c>
       <c r="DX4">
-        <v>0.355771203778982</v>
+        <v>7.978063698964515</v>
       </c>
       <c r="DY4">
-        <v>0.3371216720326167</v>
+        <v>0.3407702999669597</v>
       </c>
       <c r="DZ4">
-        <v>0.3417260697714216</v>
+        <v>0.3622748383251937</v>
       </c>
       <c r="EA4">
-        <v>0.3345357006875785</v>
+        <v>4.864788346753679</v>
       </c>
       <c r="EB4">
-        <v>0.3453483133223317</v>
+        <v>0.3445995027444299</v>
       </c>
       <c r="EC4">
-        <v>77.8351082004091</v>
+        <v>61.43878195269394</v>
       </c>
       <c r="ED4">
-        <v>360.796187593293</v>
+        <v>24.40113509725107</v>
       </c>
       <c r="EE4">
-        <v>0.3337029342871484</v>
+        <v>0.9256864827724929</v>
       </c>
       <c r="EF4">
-        <v>9.920526693314985</v>
+        <v>0.3722512687722576</v>
       </c>
       <c r="EG4">
-        <v>13.68375177944404</v>
+        <v>22.55113694945387</v>
       </c>
       <c r="EH4">
-        <v>0.3351896368033215</v>
+        <v>0.3561931553057655</v>
       </c>
       <c r="EI4">
-        <v>18.86055644338902</v>
+        <v>268.7318735921348</v>
       </c>
       <c r="EJ4">
-        <v>139.3256687934157</v>
+        <v>38.40650167165195</v>
       </c>
       <c r="EK4">
-        <v>58.32675106045345</v>
+        <v>15.97121277319843</v>
       </c>
       <c r="EL4">
-        <v>151.2935493483282</v>
+        <v>0.3626587387241475</v>
       </c>
       <c r="EM4">
-        <v>0.4091637549042141</v>
+        <v>0.3527559781495728</v>
       </c>
       <c r="EN4">
-        <v>31.47199800884372</v>
+        <v>0.3776950745091474</v>
       </c>
       <c r="EO4">
-        <v>0.3371030153323692</v>
+        <v>0.3484028958424685</v>
       </c>
       <c r="EP4">
-        <v>0.3704506200714514</v>
+        <v>10.4129432976323</v>
       </c>
       <c r="EQ4">
-        <v>139.4826658741674</v>
+        <v>0.3750606715064155</v>
       </c>
       <c r="ER4">
-        <v>53.2303126305203</v>
+        <v>0.4144834172402173</v>
       </c>
       <c r="ES4">
-        <v>144.3512412090409</v>
+        <v>136.9657113223729</v>
       </c>
       <c r="ET4">
-        <v>5.619267512788732</v>
+        <v>0.44101552543449</v>
       </c>
       <c r="EU4">
-        <v>0.4365729332206228</v>
+        <v>128.53886786843</v>
       </c>
       <c r="EV4">
-        <v>0.3569173514416074</v>
+        <v>22.10490106262267</v>
       </c>
       <c r="EW4">
-        <v>0.3362309293256207</v>
+        <v>84.32500733873387</v>
       </c>
       <c r="EX4">
-        <v>0.3389045530074242</v>
+        <v>0.3772046675147042</v>
       </c>
       <c r="EY4">
-        <v>0.3393108120868337</v>
+        <v>0.3475742545255018</v>
       </c>
       <c r="EZ4">
-        <v>0.3736731602678861</v>
+        <v>0.3401246248410352</v>
       </c>
       <c r="FA4">
-        <v>0.3717171276102147</v>
+        <v>32.96434804965484</v>
       </c>
       <c r="FB4">
-        <v>3.476061004190594</v>
+        <v>38.54116100886717</v>
       </c>
       <c r="FC4">
-        <v>0.3673619884953198</v>
+        <v>30.70641868168468</v>
       </c>
       <c r="FD4">
-        <v>0.3420936209503428</v>
+        <v>0.3411864706734475</v>
       </c>
       <c r="FE4">
-        <v>4.329285098226849</v>
+        <v>28.9216812849576</v>
       </c>
       <c r="FF4">
-        <v>0.3709766780171047</v>
+        <v>10.69605116309914</v>
       </c>
       <c r="FG4">
-        <v>7.429057857457795</v>
+        <v>41.68214327912292</v>
       </c>
       <c r="FH4">
-        <v>0.3619652247455828</v>
+        <v>0.3848113504163191</v>
       </c>
       <c r="FI4">
-        <v>8.323723648185284</v>
+        <v>7.146369528351633</v>
       </c>
       <c r="FJ4">
-        <v>0.365841812116821</v>
+        <v>2.526496358229143</v>
       </c>
       <c r="FK4">
-        <v>66.32238502666198</v>
+        <v>0.347912772146397</v>
       </c>
       <c r="FL4">
-        <v>53.32155855291438</v>
+        <v>58.78471350436151</v>
       </c>
       <c r="FM4">
-        <v>88.28249161031971</v>
+        <v>6.898754059942648</v>
       </c>
       <c r="FN4">
-        <v>126.3228860760101</v>
+        <v>38.5183169090576</v>
       </c>
       <c r="FO4">
-        <v>0.342484105436334</v>
+        <v>20.12944167416032</v>
       </c>
       <c r="FP4">
-        <v>4.561320888585167</v>
+        <v>0.375514030972228</v>
       </c>
       <c r="FQ4">
-        <v>31.70574517715376</v>
+        <v>80.21164511156782</v>
       </c>
       <c r="FR4">
-        <v>0.4029259424361988</v>
+        <v>157.0363757380443</v>
       </c>
       <c r="FS4">
-        <v>0.3432669136700268</v>
+        <v>25.23627576021116</v>
       </c>
       <c r="FT4">
-        <v>6.789732408536953</v>
+        <v>529.3680858362382</v>
       </c>
       <c r="FU4">
-        <v>18.61395855534881</v>
+        <v>0.4187145016428602</v>
       </c>
       <c r="FV4">
-        <v>0.3461987067477699</v>
+        <v>70.23177109126436</v>
       </c>
       <c r="FW4">
-        <v>0.3449278829108072</v>
+        <v>10.76710922377237</v>
       </c>
       <c r="FX4">
-        <v>81.03069240418564</v>
+        <v>0.3490236605723082</v>
       </c>
       <c r="FY4">
-        <v>33.1391002117596</v>
+        <v>0.3373034130424112</v>
       </c>
       <c r="FZ4">
-        <v>0.3573255380000859</v>
+        <v>0.3573036929314432</v>
       </c>
       <c r="GA4">
-        <v>1.920116024093988</v>
+        <v>15.89597151274358</v>
       </c>
       <c r="GB4">
-        <v>7.16377306047393</v>
+        <v>0.3783268370733537</v>
       </c>
       <c r="GC4">
-        <v>33.57207769900005</v>
+        <v>19.83538595594632</v>
       </c>
       <c r="GD4">
-        <v>0.3342001297466197</v>
+        <v>195.4912180058875</v>
       </c>
       <c r="GE4">
-        <v>0.3444769157298855</v>
+        <v>199.9382857095592</v>
       </c>
       <c r="GF4">
-        <v>0.3449205525647849</v>
+        <v>152.3217260693759</v>
       </c>
       <c r="GG4">
-        <v>76.32273454812338</v>
+        <v>370.6972949734644</v>
       </c>
       <c r="GH4">
-        <v>201.0676441496915</v>
+        <v>31.57274950533697</v>
       </c>
       <c r="GI4">
-        <v>0.3341906290987187</v>
+        <v>63.40810034152901</v>
       </c>
       <c r="GJ4">
-        <v>0.3856929987146723</v>
+        <v>107.6001682549701</v>
       </c>
       <c r="GK4">
-        <v>331.2131797057368</v>
+        <v>0.3340661240607939</v>
       </c>
       <c r="GL4">
-        <v>1552.964009862788</v>
+        <v>50.07792725802008</v>
       </c>
       <c r="GM4">
-        <v>1100.121636194577</v>
+        <v>76.04510286020628</v>
       </c>
       <c r="GN4">
-        <v>0.3362694692366124</v>
+        <v>33.73272223950686</v>
       </c>
       <c r="GO4">
-        <v>14.49480711748539</v>
+        <v>0.3452207475743518</v>
       </c>
       <c r="GP4">
-        <v>4.257707731167216</v>
+        <v>305.9784255961367</v>
       </c>
       <c r="GQ4">
-        <v>248.2436685060909</v>
+        <v>0.4233057703185009</v>
       </c>
       <c r="GR4">
-        <v>0.3373228081774849</v>
+        <v>579.9420708668117</v>
       </c>
       <c r="GS4">
-        <v>0.3417416134072622</v>
+        <v>10.68596104144607</v>
+      </c>
+      <c r="GT4">
+        <v>80.85279040932839</v>
+      </c>
+      <c r="GU4">
+        <v>0.3794948464126641</v>
+      </c>
+      <c r="GV4">
+        <v>163.373297422779</v>
+      </c>
+      <c r="GW4">
+        <v>0.3517562418291308</v>
+      </c>
+      <c r="GX4">
+        <v>14.25045301032675</v>
+      </c>
+      <c r="GY4">
+        <v>55.43640839802263</v>
+      </c>
+      <c r="GZ4">
+        <v>0.3649670846651795</v>
+      </c>
+      <c r="HA4">
+        <v>0.3986643370439198</v>
+      </c>
+      <c r="HB4">
+        <v>186.6019042227765</v>
+      </c>
+      <c r="HC4">
+        <v>0.3403587614747254</v>
+      </c>
+      <c r="HD4">
+        <v>218.2854900242463</v>
+      </c>
+      <c r="HE4">
+        <v>40.60204586215459</v>
+      </c>
+      <c r="HF4">
+        <v>16.37522901305029</v>
+      </c>
+      <c r="HG4">
+        <v>0.3738405268406008</v>
+      </c>
+      <c r="HH4">
+        <v>34.11855951180407</v>
+      </c>
+      <c r="HI4">
+        <v>0.3490236605723082</v>
+      </c>
+      <c r="HJ4">
+        <v>115.5120509171358</v>
+      </c>
+      <c r="HK4">
+        <v>51.04089594884271</v>
+      </c>
+      <c r="HL4">
+        <v>0.4117438983233935</v>
+      </c>
+      <c r="HM4">
+        <v>134.0266592153137</v>
+      </c>
+      <c r="HN4">
+        <v>119.8259096580401</v>
+      </c>
+      <c r="HO4">
+        <v>29.79481027374733</v>
+      </c>
+      <c r="HP4">
+        <v>212.2010555199035</v>
+      </c>
+      <c r="HQ4">
+        <v>205.7078217665256</v>
+      </c>
+      <c r="HR4">
+        <v>36.29335308849924</v>
+      </c>
+      <c r="HS4">
+        <v>0.3726169123487178</v>
+      </c>
+      <c r="HT4">
+        <v>358.1657273496951</v>
+      </c>
+      <c r="HU4">
+        <v>27.41791546701963</v>
+      </c>
+      <c r="HV4">
+        <v>0.3354641351091983</v>
+      </c>
+      <c r="HW4">
+        <v>0.3357066208683134</v>
+      </c>
+      <c r="HX4">
+        <v>43.36783875509624</v>
+      </c>
+      <c r="HY4">
+        <v>127.4226396353526</v>
+      </c>
+      <c r="HZ4">
+        <v>339.4228921411118</v>
+      </c>
+      <c r="IA4">
+        <v>0.3455674578637684</v>
+      </c>
+      <c r="IB4">
+        <v>0.3794028509816233</v>
+      </c>
+      <c r="IC4">
+        <v>162.0910564301821</v>
+      </c>
+      <c r="ID4">
+        <v>34.06785055610062</v>
+      </c>
+      <c r="IE4">
+        <v>0.4338616816135353</v>
+      </c>
+      <c r="IF4">
+        <v>0.3753839339925179</v>
+      </c>
+      <c r="IG4">
+        <v>12.7427911833546</v>
+      </c>
+      <c r="IH4">
+        <v>0.3700731835092252</v>
+      </c>
+      <c r="II4">
+        <v>414.815758561806</v>
+      </c>
+      <c r="IJ4">
+        <v>0.3402584156654088</v>
+      </c>
+      <c r="IK4">
+        <v>0.3505104459470965</v>
+      </c>
+      <c r="IL4">
+        <v>456.2776518609212</v>
+      </c>
+      <c r="IM4">
+        <v>148.6232127762618</v>
+      </c>
+      <c r="IN4">
+        <v>0.4280399605830676</v>
+      </c>
+      <c r="IO4">
+        <v>14.9128459160503</v>
+      </c>
+      <c r="IP4">
+        <v>45.04621185679313</v>
+      </c>
+      <c r="IQ4">
+        <v>308.6172725644781</v>
+      </c>
+      <c r="IR4">
+        <v>0.3341554217086387</v>
+      </c>
+      <c r="IS4">
+        <v>0.3627877866305184</v>
+      </c>
+      <c r="IT4">
+        <v>10.34803583380501</v>
+      </c>
+      <c r="IU4">
+        <v>4.564845260266702</v>
+      </c>
+      <c r="IV4">
+        <v>0.401059458671166</v>
+      </c>
+      <c r="IW4">
+        <v>645.4008972397702</v>
+      </c>
+      <c r="IX4">
+        <v>0.3347912269653804</v>
+      </c>
+      <c r="IY4">
+        <v>84.67636951233845</v>
+      </c>
+      <c r="IZ4">
+        <v>6.342878532859179</v>
+      </c>
+      <c r="JA4">
+        <v>11.71258160585084</v>
+      </c>
+      <c r="JB4">
+        <v>9.129971437909662</v>
+      </c>
+      <c r="JC4">
+        <v>0.3631092676238896</v>
+      </c>
+      <c r="JD4">
+        <v>5.222103616356936</v>
+      </c>
+      <c r="JE4">
+        <v>0.3369463650522059</v>
+      </c>
+      <c r="JF4">
+        <v>368.5284688932756</v>
+      </c>
+      <c r="JG4">
+        <v>0.3512295656194097</v>
+      </c>
+      <c r="JH4">
+        <v>237.7063865005553</v>
+      </c>
+      <c r="JI4">
+        <v>0.3661720884790382</v>
+      </c>
+      <c r="JJ4">
+        <v>53.53764426698624</v>
+      </c>
+      <c r="JK4">
+        <v>0.3812862706398235</v>
+      </c>
+      <c r="JL4">
+        <v>0.3381179963597486</v>
+      </c>
+      <c r="JM4">
+        <v>103.1705254420626</v>
+      </c>
+      <c r="JN4">
+        <v>130.0253521315928</v>
+      </c>
+      <c r="JO4">
+        <v>0.3517030707070369</v>
+      </c>
+      <c r="JP4">
+        <v>74.22975133273432</v>
+      </c>
+      <c r="JQ4">
+        <v>0.3949197911042746</v>
+      </c>
+      <c r="JR4">
+        <v>55.38169156891485</v>
+      </c>
+      <c r="JS4">
+        <v>0.3495736935865802</v>
+      </c>
+      <c r="JT4">
+        <v>357.6573395387991</v>
+      </c>
+      <c r="JU4">
+        <v>0.3606276801441199</v>
+      </c>
+      <c r="JV4">
+        <v>0.3666163854343462</v>
+      </c>
+      <c r="JW4">
+        <v>90.77992733184171</v>
+      </c>
+      <c r="JX4">
+        <v>32.2938915847166</v>
+      </c>
+      <c r="JY4">
+        <v>85.39468029715073</v>
+      </c>
+      <c r="JZ4">
+        <v>0.3738113987062685</v>
+      </c>
+      <c r="KA4">
+        <v>27.86449403329766</v>
+      </c>
+      <c r="KB4">
+        <v>0.4405136202007046</v>
+      </c>
+      <c r="KC4">
+        <v>0.3451369398251077</v>
+      </c>
+      <c r="KD4">
+        <v>0.3372925642049359</v>
+      </c>
+      <c r="KE4">
+        <v>107.5344550170049</v>
+      </c>
+      <c r="KF4">
+        <v>0.3528128449377371</v>
+      </c>
+      <c r="KG4">
+        <v>103.8644563294247</v>
+      </c>
+      <c r="KH4">
+        <v>0.3493992676078307</v>
+      </c>
+      <c r="KI4">
+        <v>50.91477733159974</v>
+      </c>
+      <c r="KJ4">
+        <v>0.3391976887940216</v>
+      </c>
+      <c r="KK4">
+        <v>29.16615334618265</v>
+      </c>
+      <c r="KL4">
+        <v>0.4317603777280424</v>
+      </c>
+      <c r="KM4">
+        <v>0.3785729518115827</v>
+      </c>
+      <c r="KN4">
+        <v>357.497936847673</v>
+      </c>
+      <c r="KO4">
+        <v>81.40321678867929</v>
+      </c>
+      <c r="KP4">
+        <v>10.31640709161398</v>
+      </c>
+      <c r="KQ4">
+        <v>41.67938200847149</v>
+      </c>
+      <c r="KR4">
+        <v>0.3592238850396704</v>
+      </c>
+      <c r="KS4">
+        <v>180.1124015904321</v>
+      </c>
+      <c r="KT4">
+        <v>11.01397468548744</v>
+      </c>
+      <c r="KU4">
+        <v>60.41792799382938</v>
+      </c>
+      <c r="KV4">
+        <v>0.3652415737610022</v>
+      </c>
+      <c r="KW4">
+        <v>58.86702622099008</v>
+      </c>
+      <c r="KX4">
+        <v>0.3638808132619001</v>
+      </c>
+      <c r="KY4">
+        <v>32.40162037243825</v>
+      </c>
+      <c r="KZ4">
+        <v>75.71367832761415</v>
+      </c>
+      <c r="LA4">
+        <v>141.7038156958235</v>
+      </c>
+      <c r="LB4">
+        <v>347.5966607409422</v>
+      </c>
+      <c r="LC4">
+        <v>0.3631245807542482</v>
+      </c>
+      <c r="LD4">
+        <v>238.6207363182318</v>
+      </c>
+      <c r="LE4">
+        <v>0.3910311994557585</v>
+      </c>
+      <c r="LF4">
+        <v>0.386540875861654</v>
+      </c>
+      <c r="LG4">
+        <v>0.3664720540909863</v>
+      </c>
+      <c r="LH4">
+        <v>22.9298063678217</v>
+      </c>
+      <c r="LI4">
+        <v>234.519345145942</v>
+      </c>
+      <c r="LJ4">
+        <v>33.75621156727031</v>
+      </c>
+      <c r="LK4">
+        <v>97.96828743784732</v>
+      </c>
+      <c r="LL4">
+        <v>56.99715220584838</v>
+      </c>
+      <c r="LM4">
+        <v>0.3707659603213359</v>
+      </c>
+      <c r="LN4">
+        <v>41.19769282318537</v>
+      </c>
+      <c r="LO4">
+        <v>168.9232633575697</v>
+      </c>
+      <c r="LP4">
+        <v>0.4011894139774356</v>
+      </c>
+      <c r="LQ4">
+        <v>78.14459709104037</v>
+      </c>
+      <c r="LR4">
+        <v>0.336346166499555</v>
+      </c>
+      <c r="LS4">
+        <v>0.376026173124773</v>
+      </c>
+      <c r="LT4">
+        <v>323.1709092987386</v>
+      </c>
+      <c r="LU4">
+        <v>0.3591267061818557</v>
+      </c>
+      <c r="LV4">
+        <v>25.51170995147536</v>
+      </c>
+      <c r="LW4">
+        <v>3.08962590516262</v>
+      </c>
+      <c r="LX4">
+        <v>0.3814429855791387</v>
+      </c>
+      <c r="LY4">
+        <v>1.486818477151348</v>
+      </c>
+      <c r="LZ4">
+        <v>37.51497014780791</v>
+      </c>
+      <c r="MA4">
+        <v>8.134023050782138</v>
+      </c>
+      <c r="MB4">
+        <v>439.9533546204665</v>
+      </c>
+      <c r="MC4">
+        <v>0.3860882665333774</v>
+      </c>
+      <c r="MD4">
+        <v>7.730834189581793</v>
+      </c>
+      <c r="ME4">
+        <v>10.42825835497857</v>
+      </c>
+      <c r="MF4">
+        <v>89.55340173552079</v>
+      </c>
+      <c r="MG4">
+        <v>0.3511617742822593</v>
+      </c>
+      <c r="MH4">
+        <v>85.14267285132382</v>
+      </c>
+      <c r="MI4">
+        <v>10.82486442539208</v>
+      </c>
+      <c r="MJ4">
+        <v>10.7447076853195</v>
+      </c>
+      <c r="MK4">
+        <v>0.3620489384368893</v>
+      </c>
+      <c r="ML4">
+        <v>34.13922782850749</v>
+      </c>
+      <c r="MM4">
+        <v>3.745796576521845</v>
+      </c>
+      <c r="MN4">
+        <v>4.111033511935836</v>
+      </c>
+      <c r="MO4">
+        <v>42.5781883251</v>
+      </c>
+      <c r="MP4">
+        <v>5.117932234296845</v>
+      </c>
+      <c r="MQ4">
+        <v>40.91927159739052</v>
+      </c>
+      <c r="MR4">
+        <v>163.2841548179634</v>
+      </c>
+      <c r="MS4">
+        <v>19.95838534422296</v>
+      </c>
+      <c r="MT4">
+        <v>0.3378100424780574</v>
+      </c>
+      <c r="MU4">
+        <v>221.6027048731442</v>
+      </c>
+      <c r="MV4">
+        <v>46.67600626696796</v>
+      </c>
+      <c r="MW4">
+        <v>10.11989958915821</v>
+      </c>
+      <c r="MX4">
+        <v>4.293710920161056</v>
+      </c>
+      <c r="MY4">
+        <v>0.3651656143004936</v>
+      </c>
+      <c r="MZ4">
+        <v>602.1042848690087</v>
+      </c>
+      <c r="NA4">
+        <v>6.483611825320982</v>
+      </c>
+      <c r="NB4">
+        <v>12.22526574241206</v>
+      </c>
+      <c r="NC4">
+        <v>508.6147413790825</v>
+      </c>
+      <c r="ND4">
+        <v>67.43021214853717</v>
+      </c>
+      <c r="NE4">
+        <v>370.6977879706897</v>
+      </c>
+      <c r="NF4">
+        <v>3.272760474603339</v>
+      </c>
+      <c r="NG4">
+        <v>0.3534017523797223</v>
+      </c>
+      <c r="NH4">
+        <v>256.4625528098741</v>
+      </c>
+      <c r="NI4">
+        <v>32.80159780899071</v>
+      </c>
+      <c r="NJ4">
+        <v>8.808245733369791</v>
+      </c>
+      <c r="NK4">
+        <v>47.10818896491472</v>
+      </c>
+      <c r="NL4">
+        <v>227.253220918112</v>
+      </c>
+      <c r="NM4">
+        <v>17.92909652226327</v>
+      </c>
+      <c r="NN4">
+        <v>0.3415565554733902</v>
+      </c>
+      <c r="NO4">
+        <v>59.18121613668929</v>
+      </c>
+      <c r="NP4">
+        <v>0.3573344493860781</v>
+      </c>
+      <c r="NQ4">
+        <v>585.1320726066239</v>
+      </c>
+      <c r="NR4">
+        <v>376.300486367908</v>
+      </c>
+      <c r="NS4">
+        <v>44.38391335429858</v>
+      </c>
+      <c r="NT4">
+        <v>0.403716526967293</v>
+      </c>
+      <c r="NU4">
+        <v>0.335752937286528</v>
+      </c>
+      <c r="NV4">
+        <v>0.335792951442345</v>
+      </c>
+      <c r="NW4">
+        <v>0.3549993376900731</v>
+      </c>
+      <c r="NX4">
+        <v>227.2198491855017</v>
+      </c>
+      <c r="NY4">
+        <v>43.97295829046327</v>
+      </c>
+      <c r="NZ4">
+        <v>543.2453539288524</v>
+      </c>
+      <c r="OA4">
+        <v>0.3466894988128283</v>
+      </c>
+      <c r="OB4">
+        <v>18.05045780010262</v>
+      </c>
+      <c r="OC4">
+        <v>323.2189614124932</v>
+      </c>
+      <c r="OD4">
+        <v>268.6243711686946</v>
+      </c>
+      <c r="OE4">
+        <v>494.3839605231292</v>
+      </c>
+      <c r="OF4">
+        <v>571.2704383768936</v>
+      </c>
+      <c r="OG4">
+        <v>3.285508443996894</v>
+      </c>
+      <c r="OH4">
+        <v>0.3352292166220017</v>
+      </c>
+      <c r="OI4">
+        <v>0.3399623923020673</v>
+      </c>
+      <c r="OJ4">
+        <v>0.3620526012031169</v>
+      </c>
+      <c r="OK4">
+        <v>0.3351398316417477</v>
       </c>
     </row>
   </sheetData>
